--- a/RMUTL_DOCUMENT/ตรวจสอบเรียนครบหลักสูตร.xlsx
+++ b/RMUTL_DOCUMENT/ตรวจสอบเรียนครบหลักสูตร.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOBSTER69\Documents\GitHub\WORK\RMUTL_DOCUMENT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E71DB894-16BA-4998-AED6-0F8CB9228D6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{773A8DF6-27AD-43F6-8DC1-2B1256A82C91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="นักศึกษา 4 ปี (67)" sheetId="1" r:id="rId1"/>
-    <sheet name="นักศึกษาเทียบโอน (67)" sheetId="2" r:id="rId2"/>
+    <sheet name="นักศึกษา 4 ปี (66)" sheetId="4" r:id="rId1"/>
+    <sheet name="นักศึกษาเทียบโอน (66)" sheetId="5" r:id="rId2"/>
+    <sheet name="นักศึกษา 4 ปี (67)" sheetId="1" r:id="rId3"/>
+    <sheet name="นักศึกษาเทียบโอน (67)" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1793" uniqueCount="181">
   <si>
     <t>มหาวิทยาลัยเทคโนโลยีราชมงคลล้านนา เชียงราย</t>
   </si>
@@ -532,13 +534,76 @@
   </si>
   <si>
     <t>อาจารย์ที่ปรึกษา อ.กัมปนาท  สุทธิจิระพันธ์</t>
+  </si>
+  <si>
+    <t>66143206017-5</t>
+  </si>
+  <si>
+    <t>66143206013-4</t>
+  </si>
+  <si>
+    <t>66143206019-1</t>
+  </si>
+  <si>
+    <t>66143206002-7</t>
+  </si>
+  <si>
+    <t>66143206015-9</t>
+  </si>
+  <si>
+    <t>66143206018-3</t>
+  </si>
+  <si>
+    <t>66143206020-9</t>
+  </si>
+  <si>
+    <t>66143206022-5</t>
+  </si>
+  <si>
+    <t>66143206026-6</t>
+  </si>
+  <si>
+    <t>TC</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>D+</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>B+</t>
+  </si>
+  <si>
+    <t>C+</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>66143206023-3</t>
+  </si>
+  <si>
+    <t>66143206025-8</t>
+  </si>
+  <si>
+    <t>66143206027-4</t>
+  </si>
+  <si>
+    <t>66143206030-8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -566,6 +631,11 @@
       <name val="TH SarabunPSK"/>
       <family val="2"/>
       <charset val="222"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -652,7 +722,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -679,10 +749,17 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -997,11 +1074,4260 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A89CDDE1-92DE-4A19-9EAA-D9EF9EA969D8}">
+  <dimension ref="A1:M60"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="24" x14ac:dyDescent="0.8"/>
+  <cols>
+    <col min="1" max="1" width="5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15" style="1" customWidth="1"/>
+    <col min="3" max="3" width="45" style="1" customWidth="1"/>
+    <col min="4" max="4" width="33.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="13" width="16.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.7265625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+    </row>
+    <row r="2" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+    </row>
+    <row r="3" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+    </row>
+    <row r="5" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="3">
+        <v>3</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+    </row>
+    <row r="6" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
+        <v>2</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="3">
+        <v>3</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+    </row>
+    <row r="7" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="3">
+        <v>3</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="3">
+        <v>3</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+    </row>
+    <row r="8" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="3">
+        <v>4</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="3">
+        <v>3</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="3">
+        <v>5</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="3">
+        <v>3</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="3">
+        <v>6</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="3">
+        <v>3</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="3">
+        <v>7</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="3">
+        <v>3</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+    </row>
+    <row r="13" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="3">
+        <v>8</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="3">
+        <v>3</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="3">
+        <v>9</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="3">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="3">
+        <v>10</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="3">
+        <v>3</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="3">
+        <v>11</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="3">
+        <v>3</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="3">
+        <v>12</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="3">
+        <v>4</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="3">
+        <v>13</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="3">
+        <v>14</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="3">
+        <v>3</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="3">
+        <v>15</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20" s="3">
+        <v>3</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+    </row>
+    <row r="22" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="3">
+        <v>16</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" s="3">
+        <v>3</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="3">
+        <v>17</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E23" s="3">
+        <v>3</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="3">
+        <v>18</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24" s="3">
+        <v>3</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="3">
+        <v>19</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E25" s="3">
+        <v>3</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="3">
+        <v>20</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E26" s="3">
+        <v>3</v>
+      </c>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="3">
+        <v>21</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E27" s="3">
+        <v>3</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="3">
+        <v>22</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E28" s="3">
+        <v>3</v>
+      </c>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="3">
+        <v>23</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E29" s="3">
+        <v>3</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+    </row>
+    <row r="31" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="3">
+        <v>24</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E31" s="3">
+        <v>3</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="3">
+        <v>25</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E32" s="3">
+        <v>3</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="3">
+        <v>26</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E33" s="3">
+        <v>3</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="3">
+        <v>27</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E34" s="3">
+        <v>3</v>
+      </c>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="3">
+        <v>28</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E35" s="3">
+        <v>3</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+    </row>
+    <row r="36" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="3">
+        <v>29</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E36" s="3">
+        <v>3</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+    </row>
+    <row r="37" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="3">
+        <v>30</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E37" s="3">
+        <v>3</v>
+      </c>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+    </row>
+    <row r="38" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="3">
+        <v>31</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E38" s="3">
+        <v>3</v>
+      </c>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+    </row>
+    <row r="39" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="12"/>
+      <c r="M39" s="12"/>
+    </row>
+    <row r="40" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="3">
+        <v>32</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E40" s="3">
+        <v>3</v>
+      </c>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="3">
+        <v>33</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E41" s="3">
+        <v>3</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="3">
+        <v>34</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E42" s="3">
+        <v>3</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="3">
+        <v>35</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E43" s="3">
+        <v>3</v>
+      </c>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="3">
+        <v>36</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E44" s="3">
+        <v>3</v>
+      </c>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="3">
+        <v>37</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E45" s="3">
+        <v>3</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="3">
+        <v>38</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E46" s="3">
+        <v>3</v>
+      </c>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="B47" s="12"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="12"/>
+      <c r="K47" s="12"/>
+      <c r="L47" s="12"/>
+      <c r="M47" s="12"/>
+    </row>
+    <row r="48" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="3">
+        <v>39</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1</v>
+      </c>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="3">
+        <v>40</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E49" s="3">
+        <v>1</v>
+      </c>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="3">
+        <v>41</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E50" s="3">
+        <v>2</v>
+      </c>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="3"/>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="3">
+        <v>42</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E51" s="3">
+        <v>3</v>
+      </c>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+      <c r="L51" s="3"/>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="3">
+        <v>43</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E52" s="3">
+        <v>3</v>
+      </c>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3"/>
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="3">
+        <v>44</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E53" s="3">
+        <v>3</v>
+      </c>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
+      <c r="L53" s="3"/>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="B54" s="12"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="12"/>
+      <c r="J54" s="12"/>
+      <c r="K54" s="12"/>
+      <c r="L54" s="12"/>
+      <c r="M54" s="12"/>
+    </row>
+    <row r="55" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="3">
+        <v>45</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E55" s="3">
+        <v>6</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3"/>
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="B56" s="12"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="12"/>
+      <c r="I56" s="12"/>
+      <c r="J56" s="12"/>
+      <c r="K56" s="12"/>
+      <c r="L56" s="12"/>
+      <c r="M56" s="12"/>
+    </row>
+    <row r="57" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="3">
+        <v>46</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E57" s="3">
+        <v>3</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3"/>
+      <c r="K57" s="3"/>
+      <c r="L57" s="3"/>
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="3">
+        <v>47</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E58" s="3">
+        <v>3</v>
+      </c>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
+      <c r="K58" s="3"/>
+      <c r="L58" s="3"/>
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="B59" s="12"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="12"/>
+      <c r="H59" s="12"/>
+      <c r="I59" s="12"/>
+      <c r="J59" s="12"/>
+      <c r="K59" s="12"/>
+      <c r="L59" s="12"/>
+      <c r="M59" s="12"/>
+    </row>
+    <row r="60" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="3">
+        <v>48</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E60" s="3">
+        <v>3</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3"/>
+      <c r="K60" s="3"/>
+      <c r="L60" s="3"/>
+      <c r="M60" s="3"/>
+    </row>
+  </sheetData>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <mergeCells count="11">
+    <mergeCell ref="A30:M30"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="A4:M4"/>
+    <mergeCell ref="A12:M12"/>
+    <mergeCell ref="A21:M21"/>
+    <mergeCell ref="A39:M39"/>
+    <mergeCell ref="A47:M47"/>
+    <mergeCell ref="A54:M54"/>
+    <mergeCell ref="A56:M56"/>
+    <mergeCell ref="A59:M59"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A13A7B8-58F1-4C26-92F5-54C715A3D202}">
+  <dimension ref="A1:Q61"/>
+  <sheetViews>
+    <sheetView topLeftCell="C9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="24" x14ac:dyDescent="0.8"/>
+  <cols>
+    <col min="1" max="1" width="6.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.81640625" style="1" customWidth="1"/>
+    <col min="8" max="9" width="18.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.26953125" style="1" customWidth="1"/>
+    <col min="11" max="17" width="18.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.7265625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.8">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.8">
+      <c r="A2" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.8">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.8">
+      <c r="A4" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.8">
+      <c r="A5" s="3">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="3">
+        <v>3</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.8">
+      <c r="A6" s="3">
+        <v>2</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="3">
+        <v>3</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.8">
+      <c r="A7" s="3">
+        <v>3</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="3">
+        <v>3</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.8">
+      <c r="A8" s="3">
+        <v>4</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="3">
+        <v>3</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.8">
+      <c r="A9" s="3">
+        <v>5</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="3">
+        <v>3</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.8">
+      <c r="A10" s="3">
+        <v>6</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="3">
+        <v>3</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.8">
+      <c r="A11" s="3">
+        <v>7</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="3">
+        <v>3</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.8">
+      <c r="A12" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.8">
+      <c r="A13" s="3">
+        <v>8</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="3">
+        <v>3</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.8">
+      <c r="A14" s="3">
+        <v>9</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="3">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.8">
+      <c r="A15" s="3">
+        <v>10</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="3">
+        <v>3</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.8">
+      <c r="A16" s="3">
+        <v>11</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="3">
+        <v>3</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.8">
+      <c r="A17" s="3">
+        <v>12</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="3">
+        <v>4</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.8">
+      <c r="A18" s="3">
+        <v>13</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.8">
+      <c r="A19" s="3">
+        <v>14</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="3">
+        <v>3</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.8">
+      <c r="A20" s="3">
+        <v>15</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20" s="3">
+        <v>3</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.8">
+      <c r="A21" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.8">
+      <c r="A22" s="3">
+        <v>16</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" s="3">
+        <v>3</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="K22" s="7"/>
+      <c r="L22" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.8">
+      <c r="A23" s="3">
+        <v>17</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E23" s="3">
+        <v>3</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.8">
+      <c r="A24" s="3">
+        <v>18</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24" s="3">
+        <v>3</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="2"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.8">
+      <c r="A25" s="3">
+        <v>19</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E25" s="3">
+        <v>3</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="O25" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.8">
+      <c r="A26" s="3">
+        <v>20</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E26" s="3">
+        <v>3</v>
+      </c>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q26" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.8">
+      <c r="A27" s="3">
+        <v>21</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E27" s="3">
+        <v>3</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="9"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.8">
+      <c r="A28" s="3">
+        <v>22</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E28" s="3">
+        <v>3</v>
+      </c>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="O28" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q28" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.8">
+      <c r="A29" s="3">
+        <v>23</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E29" s="3">
+        <v>3</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q29" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.8">
+      <c r="A30" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="12"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.8">
+      <c r="A31" s="3">
+        <v>24</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E31" s="3">
+        <v>3</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="M31" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="N31" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="O31" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="P31" s="9"/>
+      <c r="Q31" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.8">
+      <c r="A32" s="3">
+        <v>25</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E32" s="3">
+        <v>3</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="J32" s="3"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="2"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.8">
+      <c r="A33" s="3">
+        <v>26</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E33" s="3">
+        <v>3</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="K33" s="7"/>
+      <c r="L33" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.8">
+      <c r="A34" s="3">
+        <v>27</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E34" s="3">
+        <v>3</v>
+      </c>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="M34" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="N34" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="O34" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="P34" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q34" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.8">
+      <c r="A35" s="3">
+        <v>28</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E35" s="3">
+        <v>3</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="7"/>
+      <c r="P35" s="9"/>
+      <c r="Q35" s="9"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.8">
+      <c r="A36" s="3">
+        <v>29</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E36" s="3">
+        <v>3</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="M36" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="N36" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="O36" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="P36" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q36" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.8">
+      <c r="A37" s="3">
+        <v>30</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E37" s="3">
+        <v>3</v>
+      </c>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="M37" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="N37" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="O37" s="3"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.8">
+      <c r="A38" s="3">
+        <v>31</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E38" s="3">
+        <v>3</v>
+      </c>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="L38" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="M38" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="N38" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="O38" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q38" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.8">
+      <c r="A39" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="12"/>
+      <c r="M39" s="12"/>
+      <c r="N39" s="12"/>
+      <c r="O39" s="12"/>
+      <c r="P39" s="12"/>
+      <c r="Q39" s="12"/>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.8">
+      <c r="A40" s="3">
+        <v>32</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E40" s="3">
+        <v>3</v>
+      </c>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="L40" s="7"/>
+      <c r="M40" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="N40" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="O40" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="P40" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q40" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.8">
+      <c r="A41" s="3">
+        <v>33</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E41" s="3">
+        <v>3</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="7"/>
+      <c r="O41" s="7"/>
+      <c r="P41" s="9"/>
+      <c r="Q41" s="9"/>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.8">
+      <c r="A42" s="3">
+        <v>34</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E42" s="3">
+        <v>3</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="7"/>
+      <c r="M42" s="7"/>
+      <c r="N42" s="7"/>
+      <c r="O42" s="7"/>
+      <c r="P42" s="9"/>
+      <c r="Q42" s="9"/>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.8">
+      <c r="A43" s="3">
+        <v>35</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E43" s="3">
+        <v>3</v>
+      </c>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="L43" s="7"/>
+      <c r="M43" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="O43" s="7"/>
+      <c r="P43" s="9"/>
+      <c r="Q43" s="9"/>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.8">
+      <c r="A44" s="3">
+        <v>36</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E44" s="3">
+        <v>3</v>
+      </c>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="O44" s="7"/>
+      <c r="P44" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q44" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.8">
+      <c r="A45" s="3">
+        <v>37</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E45" s="3">
+        <v>3</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="P45" s="2"/>
+      <c r="Q45" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.8">
+      <c r="A46" s="3">
+        <v>38</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E46" s="3">
+        <v>3</v>
+      </c>
+      <c r="F46" s="3"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="7"/>
+      <c r="M46" s="7"/>
+      <c r="N46" s="7"/>
+      <c r="O46" s="7"/>
+      <c r="P46" s="9"/>
+      <c r="Q46" s="9"/>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.8">
+      <c r="A47" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="B47" s="12"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="12"/>
+      <c r="K47" s="12"/>
+      <c r="L47" s="12"/>
+      <c r="M47" s="12"/>
+      <c r="N47" s="12"/>
+      <c r="O47" s="12"/>
+      <c r="P47" s="12"/>
+      <c r="Q47" s="12"/>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.8">
+      <c r="A48" s="3">
+        <v>39</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1</v>
+      </c>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="O48" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="P48" s="2"/>
+      <c r="Q48" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.8">
+      <c r="A49" s="3">
+        <v>40</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E49" s="3">
+        <v>1</v>
+      </c>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="O49" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="P49" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q49" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.8">
+      <c r="A50" s="3">
+        <v>41</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E50" s="3">
+        <v>2</v>
+      </c>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="K50" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="L50" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="M50" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="N50" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="O50" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="P50" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q50" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.8">
+      <c r="A51" s="3">
+        <v>42</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E51" s="3">
+        <v>3</v>
+      </c>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+      <c r="L51" s="3"/>
+      <c r="M51" s="3"/>
+      <c r="N51" s="3"/>
+      <c r="O51" s="3"/>
+      <c r="P51" s="2"/>
+      <c r="Q51" s="2"/>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.8">
+      <c r="A52" s="3">
+        <v>43</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E52" s="3">
+        <v>3</v>
+      </c>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3"/>
+      <c r="M52" s="3"/>
+      <c r="N52" s="3"/>
+      <c r="O52" s="3"/>
+      <c r="P52" s="2"/>
+      <c r="Q52" s="2"/>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.8">
+      <c r="A53" s="3">
+        <v>44</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E53" s="3">
+        <v>3</v>
+      </c>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
+      <c r="L53" s="3"/>
+      <c r="M53" s="3"/>
+      <c r="N53" s="3"/>
+      <c r="O53" s="3"/>
+      <c r="P53" s="2"/>
+      <c r="Q53" s="2"/>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.8">
+      <c r="A54" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="B54" s="12"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="12"/>
+      <c r="J54" s="12"/>
+      <c r="K54" s="12"/>
+      <c r="L54" s="12"/>
+      <c r="M54" s="12"/>
+      <c r="N54" s="12"/>
+      <c r="O54" s="12"/>
+      <c r="P54" s="12"/>
+      <c r="Q54" s="12"/>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.8">
+      <c r="A55" s="3">
+        <v>45</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E55" s="3">
+        <v>6</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3"/>
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+      <c r="P55" s="2"/>
+      <c r="Q55" s="2"/>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.8">
+      <c r="A56" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="B56" s="12"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="12"/>
+      <c r="I56" s="12"/>
+      <c r="J56" s="12"/>
+      <c r="K56" s="12"/>
+      <c r="L56" s="12"/>
+      <c r="M56" s="12"/>
+      <c r="N56" s="12"/>
+      <c r="O56" s="12"/>
+      <c r="P56" s="12"/>
+      <c r="Q56" s="12"/>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.8">
+      <c r="A57" s="3">
+        <v>46</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E57" s="3">
+        <v>3</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3"/>
+      <c r="K57" s="3"/>
+      <c r="L57" s="3"/>
+      <c r="M57" s="3"/>
+      <c r="N57" s="3"/>
+      <c r="O57" s="3"/>
+      <c r="P57" s="2"/>
+      <c r="Q57" s="2"/>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.8">
+      <c r="A58" s="3">
+        <v>47</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E58" s="3">
+        <v>3</v>
+      </c>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
+      <c r="K58" s="3"/>
+      <c r="L58" s="3"/>
+      <c r="M58" s="3"/>
+      <c r="N58" s="3"/>
+      <c r="O58" s="3"/>
+      <c r="P58" s="2"/>
+      <c r="Q58" s="2"/>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.8">
+      <c r="A59" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="B59" s="12"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="12"/>
+      <c r="H59" s="12"/>
+      <c r="I59" s="12"/>
+      <c r="J59" s="12"/>
+      <c r="K59" s="12"/>
+      <c r="L59" s="12"/>
+      <c r="M59" s="12"/>
+      <c r="N59" s="12"/>
+      <c r="O59" s="12"/>
+      <c r="P59" s="12"/>
+      <c r="Q59" s="12"/>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.8">
+      <c r="A60" s="3">
+        <v>48</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E60" s="3">
+        <v>3</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3"/>
+      <c r="K60" s="3"/>
+      <c r="L60" s="3"/>
+      <c r="M60" s="3"/>
+      <c r="N60" s="3"/>
+      <c r="O60" s="3"/>
+      <c r="P60" s="2"/>
+      <c r="Q60" s="2"/>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.8">
+      <c r="A61" s="10"/>
+      <c r="B61" s="10"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="10"/>
+      <c r="G61" s="10"/>
+      <c r="H61" s="10"/>
+      <c r="I61" s="10"/>
+      <c r="J61" s="10"/>
+      <c r="K61" s="10"/>
+      <c r="L61" s="10"/>
+      <c r="M61" s="10"/>
+      <c r="N61" s="10"/>
+      <c r="O61" s="10"/>
+      <c r="P61" s="10"/>
+      <c r="Q61" s="10"/>
+    </row>
+  </sheetData>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <mergeCells count="11">
+    <mergeCell ref="A30:Q30"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="A2:Q2"/>
+    <mergeCell ref="A4:Q4"/>
+    <mergeCell ref="A12:Q12"/>
+    <mergeCell ref="A21:Q21"/>
+    <mergeCell ref="A39:Q39"/>
+    <mergeCell ref="A47:Q47"/>
+    <mergeCell ref="A54:Q54"/>
+    <mergeCell ref="A56:Q56"/>
+    <mergeCell ref="A59:Q59"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N60"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T14" sqref="T14"/>
+    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="24" x14ac:dyDescent="0.8"/>
@@ -1017,40 +5343,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
     </row>
     <row r="2" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
@@ -1097,24 +5423,24 @@
       </c>
     </row>
     <row r="4" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-    </row>
-    <row r="5" spans="1:14" s="4" customFormat="1" ht="48" x14ac:dyDescent="0.35">
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+    </row>
+    <row r="5" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -1132,28 +5458,28 @@
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="5" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>143</v>
+        <v>176</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>141</v>
+        <v>171</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>141</v>
+        <v>171</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>141</v>
+        <v>171</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="4" customFormat="1" ht="48" x14ac:dyDescent="0.35">
@@ -1409,22 +5735,22 @@
       </c>
     </row>
     <row r="12" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
     </row>
     <row r="13" spans="1:14" s="4" customFormat="1" ht="48" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
@@ -1719,22 +6045,22 @@
       </c>
     </row>
     <row r="21" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
     </row>
     <row r="22" spans="1:14" s="4" customFormat="1" ht="72" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
@@ -2067,22 +6393,22 @@
       </c>
     </row>
     <row r="30" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="10"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
     </row>
     <row r="31" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
@@ -2303,22 +6629,22 @@
       <c r="N38" s="3"/>
     </row>
     <row r="39" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="10" t="s">
+      <c r="A39" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
-      <c r="L39" s="10"/>
-      <c r="M39" s="10"/>
-      <c r="N39" s="10"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="12"/>
+      <c r="M39" s="12"/>
+      <c r="N39" s="12"/>
     </row>
     <row r="40" spans="1:14" s="4" customFormat="1" ht="72" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
@@ -2525,22 +6851,22 @@
       <c r="N46" s="3"/>
     </row>
     <row r="47" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="10" t="s">
+      <c r="A47" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="B47" s="10"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="10"/>
-      <c r="I47" s="10"/>
-      <c r="J47" s="10"/>
-      <c r="K47" s="10"/>
-      <c r="L47" s="10"/>
-      <c r="M47" s="10"/>
-      <c r="N47" s="10"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="12"/>
+      <c r="K47" s="12"/>
+      <c r="L47" s="12"/>
+      <c r="M47" s="12"/>
+      <c r="N47" s="12"/>
     </row>
     <row r="48" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
@@ -2715,22 +7041,22 @@
       <c r="N53" s="3"/>
     </row>
     <row r="54" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="10" t="s">
+      <c r="A54" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="B54" s="10"/>
-      <c r="C54" s="10"/>
-      <c r="D54" s="10"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="10"/>
-      <c r="G54" s="10"/>
-      <c r="H54" s="10"/>
-      <c r="I54" s="10"/>
-      <c r="J54" s="10"/>
-      <c r="K54" s="10"/>
-      <c r="L54" s="10"/>
-      <c r="M54" s="10"/>
-      <c r="N54" s="10"/>
+      <c r="B54" s="12"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="12"/>
+      <c r="J54" s="12"/>
+      <c r="K54" s="12"/>
+      <c r="L54" s="12"/>
+      <c r="M54" s="12"/>
+      <c r="N54" s="12"/>
     </row>
     <row r="55" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A55" s="3">
@@ -2761,22 +7087,22 @@
       <c r="N55" s="3"/>
     </row>
     <row r="56" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="10" t="s">
+      <c r="A56" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="B56" s="10"/>
-      <c r="C56" s="10"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="10"/>
-      <c r="G56" s="10"/>
-      <c r="H56" s="10"/>
-      <c r="I56" s="10"/>
-      <c r="J56" s="10"/>
-      <c r="K56" s="10"/>
-      <c r="L56" s="10"/>
-      <c r="M56" s="10"/>
-      <c r="N56" s="10"/>
+      <c r="B56" s="12"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="12"/>
+      <c r="I56" s="12"/>
+      <c r="J56" s="12"/>
+      <c r="K56" s="12"/>
+      <c r="L56" s="12"/>
+      <c r="M56" s="12"/>
+      <c r="N56" s="12"/>
     </row>
     <row r="57" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A57" s="3">
@@ -2833,22 +7159,22 @@
       <c r="N58" s="3"/>
     </row>
     <row r="59" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="10" t="s">
+      <c r="A59" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="B59" s="10"/>
-      <c r="C59" s="10"/>
-      <c r="D59" s="10"/>
-      <c r="E59" s="10"/>
-      <c r="F59" s="10"/>
-      <c r="G59" s="10"/>
-      <c r="H59" s="10"/>
-      <c r="I59" s="10"/>
-      <c r="J59" s="10"/>
-      <c r="K59" s="10"/>
-      <c r="L59" s="10"/>
-      <c r="M59" s="10"/>
-      <c r="N59" s="10"/>
+      <c r="B59" s="12"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="12"/>
+      <c r="H59" s="12"/>
+      <c r="I59" s="12"/>
+      <c r="J59" s="12"/>
+      <c r="K59" s="12"/>
+      <c r="L59" s="12"/>
+      <c r="M59" s="12"/>
+      <c r="N59" s="12"/>
     </row>
     <row r="60" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A60" s="3">
@@ -2898,12 +7224,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FE38C47-0285-4AD9-96AE-F257CA4C57E5}">
   <dimension ref="A1:U60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="R25" sqref="R25"/>
+    <sheetView topLeftCell="A4" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="24" x14ac:dyDescent="0.8"/>
@@ -2920,54 +7246,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.8">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="14"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="17"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.8">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
-      <c r="U2" s="14"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="17"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.8">
       <c r="A3" s="2" t="s">
@@ -3035,29 +7361,29 @@
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.8">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
     </row>
     <row r="5" spans="1:21" ht="48" x14ac:dyDescent="0.8">
       <c r="A5" s="3">
@@ -3501,29 +7827,29 @@
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.8">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="10"/>
-      <c r="S12" s="10"/>
-      <c r="T12" s="10"/>
-      <c r="U12" s="10"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="12"/>
     </row>
     <row r="13" spans="1:21" ht="48" x14ac:dyDescent="0.8">
       <c r="A13" s="3">
@@ -3974,29 +8300,29 @@
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.8">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="10"/>
-      <c r="S21" s="10"/>
-      <c r="T21" s="10"/>
-      <c r="U21" s="10"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="12"/>
+      <c r="S21" s="12"/>
+      <c r="T21" s="12"/>
+      <c r="U21" s="12"/>
     </row>
     <row r="22" spans="1:21" ht="72" x14ac:dyDescent="0.8">
       <c r="A22" s="3">
@@ -4479,29 +8805,29 @@
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.8">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="10"/>
-      <c r="O30" s="10"/>
-      <c r="P30" s="10"/>
-      <c r="Q30" s="10"/>
-      <c r="R30" s="10"/>
-      <c r="S30" s="10"/>
-      <c r="T30" s="10"/>
-      <c r="U30" s="10"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="12"/>
+      <c r="R30" s="12"/>
+      <c r="S30" s="12"/>
+      <c r="T30" s="12"/>
+      <c r="U30" s="12"/>
     </row>
     <row r="31" spans="1:21" ht="48" x14ac:dyDescent="0.8">
       <c r="A31" s="3">
@@ -4856,29 +9182,29 @@
       <c r="U38" s="2"/>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.8">
-      <c r="A39" s="10" t="s">
+      <c r="A39" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
-      <c r="L39" s="10"/>
-      <c r="M39" s="10"/>
-      <c r="N39" s="10"/>
-      <c r="O39" s="10"/>
-      <c r="P39" s="10"/>
-      <c r="Q39" s="10"/>
-      <c r="R39" s="10"/>
-      <c r="S39" s="10"/>
-      <c r="T39" s="10"/>
-      <c r="U39" s="10"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="12"/>
+      <c r="M39" s="12"/>
+      <c r="N39" s="12"/>
+      <c r="O39" s="12"/>
+      <c r="P39" s="12"/>
+      <c r="Q39" s="12"/>
+      <c r="R39" s="12"/>
+      <c r="S39" s="12"/>
+      <c r="T39" s="12"/>
+      <c r="U39" s="12"/>
     </row>
     <row r="40" spans="1:21" ht="72" x14ac:dyDescent="0.8">
       <c r="A40" s="3">
@@ -5180,29 +9506,29 @@
       <c r="U46" s="2"/>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.8">
-      <c r="A47" s="10" t="s">
+      <c r="A47" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="B47" s="10"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="10"/>
-      <c r="I47" s="10"/>
-      <c r="J47" s="10"/>
-      <c r="K47" s="10"/>
-      <c r="L47" s="10"/>
-      <c r="M47" s="10"/>
-      <c r="N47" s="10"/>
-      <c r="O47" s="10"/>
-      <c r="P47" s="10"/>
-      <c r="Q47" s="10"/>
-      <c r="R47" s="10"/>
-      <c r="S47" s="10"/>
-      <c r="T47" s="10"/>
-      <c r="U47" s="10"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="12"/>
+      <c r="K47" s="12"/>
+      <c r="L47" s="12"/>
+      <c r="M47" s="12"/>
+      <c r="N47" s="12"/>
+      <c r="O47" s="12"/>
+      <c r="P47" s="12"/>
+      <c r="Q47" s="12"/>
+      <c r="R47" s="12"/>
+      <c r="S47" s="12"/>
+      <c r="T47" s="12"/>
+      <c r="U47" s="12"/>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.8">
       <c r="A48" s="3">
@@ -5433,29 +9759,29 @@
       <c r="U53" s="2"/>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.8">
-      <c r="A54" s="10" t="s">
+      <c r="A54" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="B54" s="10"/>
-      <c r="C54" s="10"/>
-      <c r="D54" s="10"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="10"/>
-      <c r="G54" s="10"/>
-      <c r="H54" s="10"/>
-      <c r="I54" s="10"/>
-      <c r="J54" s="10"/>
-      <c r="K54" s="10"/>
-      <c r="L54" s="10"/>
-      <c r="M54" s="10"/>
-      <c r="N54" s="10"/>
-      <c r="O54" s="10"/>
-      <c r="P54" s="10"/>
-      <c r="Q54" s="10"/>
-      <c r="R54" s="10"/>
-      <c r="S54" s="10"/>
-      <c r="T54" s="10"/>
-      <c r="U54" s="10"/>
+      <c r="B54" s="12"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="12"/>
+      <c r="J54" s="12"/>
+      <c r="K54" s="12"/>
+      <c r="L54" s="12"/>
+      <c r="M54" s="12"/>
+      <c r="N54" s="12"/>
+      <c r="O54" s="12"/>
+      <c r="P54" s="12"/>
+      <c r="Q54" s="12"/>
+      <c r="R54" s="12"/>
+      <c r="S54" s="12"/>
+      <c r="T54" s="12"/>
+      <c r="U54" s="12"/>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.8">
       <c r="A55" s="3">
@@ -5493,29 +9819,29 @@
       <c r="U55" s="2"/>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.8">
-      <c r="A56" s="10" t="s">
+      <c r="A56" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="B56" s="10"/>
-      <c r="C56" s="10"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="10"/>
-      <c r="G56" s="10"/>
-      <c r="H56" s="10"/>
-      <c r="I56" s="10"/>
-      <c r="J56" s="10"/>
-      <c r="K56" s="10"/>
-      <c r="L56" s="10"/>
-      <c r="M56" s="10"/>
-      <c r="N56" s="10"/>
-      <c r="O56" s="10"/>
-      <c r="P56" s="10"/>
-      <c r="Q56" s="10"/>
-      <c r="R56" s="10"/>
-      <c r="S56" s="10"/>
-      <c r="T56" s="10"/>
-      <c r="U56" s="10"/>
+      <c r="B56" s="12"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="12"/>
+      <c r="I56" s="12"/>
+      <c r="J56" s="12"/>
+      <c r="K56" s="12"/>
+      <c r="L56" s="12"/>
+      <c r="M56" s="12"/>
+      <c r="N56" s="12"/>
+      <c r="O56" s="12"/>
+      <c r="P56" s="12"/>
+      <c r="Q56" s="12"/>
+      <c r="R56" s="12"/>
+      <c r="S56" s="12"/>
+      <c r="T56" s="12"/>
+      <c r="U56" s="12"/>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.8">
       <c r="A57" s="3">
@@ -5586,29 +9912,29 @@
       <c r="U58" s="2"/>
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.8">
-      <c r="A59" s="10" t="s">
+      <c r="A59" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="B59" s="10"/>
-      <c r="C59" s="10"/>
-      <c r="D59" s="10"/>
-      <c r="E59" s="10"/>
-      <c r="F59" s="10"/>
-      <c r="G59" s="10"/>
-      <c r="H59" s="10"/>
-      <c r="I59" s="10"/>
-      <c r="J59" s="10"/>
-      <c r="K59" s="10"/>
-      <c r="L59" s="10"/>
-      <c r="M59" s="10"/>
-      <c r="N59" s="10"/>
-      <c r="O59" s="10"/>
-      <c r="P59" s="10"/>
-      <c r="Q59" s="10"/>
-      <c r="R59" s="10"/>
-      <c r="S59" s="10"/>
-      <c r="T59" s="10"/>
-      <c r="U59" s="10"/>
+      <c r="B59" s="12"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="12"/>
+      <c r="H59" s="12"/>
+      <c r="I59" s="12"/>
+      <c r="J59" s="12"/>
+      <c r="K59" s="12"/>
+      <c r="L59" s="12"/>
+      <c r="M59" s="12"/>
+      <c r="N59" s="12"/>
+      <c r="O59" s="12"/>
+      <c r="P59" s="12"/>
+      <c r="Q59" s="12"/>
+      <c r="R59" s="12"/>
+      <c r="S59" s="12"/>
+      <c r="T59" s="12"/>
+      <c r="U59" s="12"/>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.8">
       <c r="A60" s="3">

--- a/RMUTL_DOCUMENT/ตรวจสอบเรียนครบหลักสูตร.xlsx
+++ b/RMUTL_DOCUMENT/ตรวจสอบเรียนครบหลักสูตร.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOBSTER69\Documents\GitHub\WORK\RMUTL_DOCUMENT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8528BDBD-23FA-4C81-B25A-05317268332C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{181503A4-0FBC-48AD-86DE-7735CA38D8EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="นักศึกษา 4 ปี (66)" sheetId="4" r:id="rId1"/>
@@ -726,7 +726,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -759,6 +759,58 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -774,70 +826,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
@@ -1144,7 +1132,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A89CDDE1-92DE-4A19-9EAA-D9EF9EA969D8}">
   <dimension ref="A1:M62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A46" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="I54" sqref="I54"/>
     </sheetView>
   </sheetViews>
@@ -1162,38 +1150,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
     </row>
     <row r="2" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="30" t="s">
         <v>154</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
     </row>
     <row r="3" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
@@ -1252,7 +1240,7 @@
       <c r="E4" s="11">
         <v>3</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="13" t="s">
         <v>175</v>
       </c>
       <c r="G4" s="11"/>
@@ -1291,7 +1279,7 @@
       <c r="E5" s="11">
         <v>3</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="13" t="s">
         <v>175</v>
       </c>
       <c r="G5" s="11"/>
@@ -1330,7 +1318,7 @@
       <c r="E6" s="11">
         <v>3</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="13" t="s">
         <v>175</v>
       </c>
       <c r="G6" s="11"/>
@@ -1369,7 +1357,7 @@
       <c r="E7" s="11">
         <v>3</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="13" t="s">
         <v>175</v>
       </c>
       <c r="G7" s="11"/>
@@ -1408,7 +1396,7 @@
       <c r="E8" s="11">
         <v>3</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="F8" s="13" t="s">
         <v>175</v>
       </c>
       <c r="G8" s="11"/>
@@ -1447,7 +1435,7 @@
       <c r="E9" s="11">
         <v>3</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="F9" s="13" t="s">
         <v>175</v>
       </c>
       <c r="G9" s="11"/>
@@ -1486,7 +1474,7 @@
       <c r="E10" s="11">
         <v>3</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="13" t="s">
         <v>175</v>
       </c>
       <c r="G10" s="11"/>
@@ -1525,7 +1513,7 @@
       <c r="E11" s="3">
         <v>3</v>
       </c>
-      <c r="F11" s="33" t="s">
+      <c r="F11" s="12" t="s">
         <v>176</v>
       </c>
       <c r="G11" s="3"/>
@@ -1564,7 +1552,7 @@
       <c r="E12" s="3">
         <v>3</v>
       </c>
-      <c r="F12" s="33" t="s">
+      <c r="F12" s="12" t="s">
         <v>176</v>
       </c>
       <c r="G12" s="3"/>
@@ -1603,7 +1591,7 @@
       <c r="E13" s="3">
         <v>3</v>
       </c>
-      <c r="F13" s="33" t="s">
+      <c r="F13" s="12" t="s">
         <v>176</v>
       </c>
       <c r="G13" s="3"/>
@@ -1642,7 +1630,7 @@
       <c r="E14" s="3">
         <v>3</v>
       </c>
-      <c r="F14" s="33" t="s">
+      <c r="F14" s="12" t="s">
         <v>176</v>
       </c>
       <c r="G14" s="3" t="s">
@@ -1683,7 +1671,7 @@
       <c r="E15" s="3">
         <v>4</v>
       </c>
-      <c r="F15" s="33" t="s">
+      <c r="F15" s="12" t="s">
         <v>176</v>
       </c>
       <c r="G15" s="3"/>
@@ -1722,7 +1710,7 @@
       <c r="E16" s="3">
         <v>1</v>
       </c>
-      <c r="F16" s="33" t="s">
+      <c r="F16" s="12" t="s">
         <v>176</v>
       </c>
       <c r="G16" s="3"/>
@@ -1761,7 +1749,7 @@
       <c r="E17" s="3">
         <v>3</v>
       </c>
-      <c r="F17" s="33" t="s">
+      <c r="F17" s="12" t="s">
         <v>176</v>
       </c>
       <c r="G17" s="3"/>
@@ -1800,7 +1788,7 @@
       <c r="E18" s="3">
         <v>3</v>
       </c>
-      <c r="F18" s="33" t="s">
+      <c r="F18" s="12" t="s">
         <v>176</v>
       </c>
       <c r="G18" s="3" t="s">
@@ -1841,7 +1829,7 @@
       <c r="E19" s="11">
         <v>3</v>
       </c>
-      <c r="F19" s="19" t="s">
+      <c r="F19" s="13" t="s">
         <v>159</v>
       </c>
       <c r="G19" s="11" t="s">
@@ -1882,7 +1870,7 @@
       <c r="E20" s="11">
         <v>3</v>
       </c>
-      <c r="F20" s="19" t="s">
+      <c r="F20" s="13" t="s">
         <v>159</v>
       </c>
       <c r="G20" s="11"/>
@@ -1921,7 +1909,7 @@
       <c r="E21" s="11">
         <v>3</v>
       </c>
-      <c r="F21" s="19" t="s">
+      <c r="F21" s="13" t="s">
         <v>159</v>
       </c>
       <c r="G21" s="11" t="s">
@@ -1962,7 +1950,7 @@
       <c r="E22" s="11">
         <v>3</v>
       </c>
-      <c r="F22" s="19" t="s">
+      <c r="F22" s="13" t="s">
         <v>159</v>
       </c>
       <c r="G22" s="11" t="s">
@@ -2003,7 +1991,7 @@
       <c r="E23" s="11">
         <v>3</v>
       </c>
-      <c r="F23" s="19" t="s">
+      <c r="F23" s="13" t="s">
         <v>159</v>
       </c>
       <c r="G23" s="11"/>
@@ -2038,7 +2026,7 @@
       <c r="E24" s="11">
         <v>3</v>
       </c>
-      <c r="F24" s="19" t="s">
+      <c r="F24" s="13" t="s">
         <v>159</v>
       </c>
       <c r="G24" s="11" t="s">
@@ -2077,7 +2065,7 @@
       <c r="E25" s="11">
         <v>3</v>
       </c>
-      <c r="F25" s="19" t="s">
+      <c r="F25" s="13" t="s">
         <v>159</v>
       </c>
       <c r="G25" s="11"/>
@@ -2116,7 +2104,7 @@
       <c r="E26" s="11">
         <v>3</v>
       </c>
-      <c r="F26" s="19" t="s">
+      <c r="F26" s="13" t="s">
         <v>159</v>
       </c>
       <c r="G26" s="11" t="s">
@@ -2157,7 +2145,7 @@
       <c r="E27" s="3">
         <v>3</v>
       </c>
-      <c r="F27" s="33" t="s">
+      <c r="F27" s="12" t="s">
         <v>160</v>
       </c>
       <c r="G27" s="3" t="s">
@@ -2198,7 +2186,7 @@
       <c r="E28" s="3">
         <v>3</v>
       </c>
-      <c r="F28" s="33" t="s">
+      <c r="F28" s="12" t="s">
         <v>160</v>
       </c>
       <c r="G28" s="3" t="s">
@@ -2237,7 +2225,7 @@
       <c r="E29" s="3">
         <v>3</v>
       </c>
-      <c r="F29" s="33" t="s">
+      <c r="F29" s="12" t="s">
         <v>160</v>
       </c>
       <c r="G29" s="3" t="s">
@@ -2274,7 +2262,7 @@
       <c r="E30" s="3">
         <v>3</v>
       </c>
-      <c r="F30" s="33" t="s">
+      <c r="F30" s="12" t="s">
         <v>160</v>
       </c>
       <c r="G30" s="3"/>
@@ -2313,7 +2301,7 @@
       <c r="E31" s="3">
         <v>3</v>
       </c>
-      <c r="F31" s="33" t="s">
+      <c r="F31" s="12" t="s">
         <v>160</v>
       </c>
       <c r="G31" s="3" t="s">
@@ -2352,7 +2340,7 @@
       <c r="E32" s="3">
         <v>3</v>
       </c>
-      <c r="F32" s="33" t="s">
+      <c r="F32" s="12" t="s">
         <v>160</v>
       </c>
       <c r="G32" s="3" t="s">
@@ -2393,7 +2381,7 @@
       <c r="E33" s="3">
         <v>3</v>
       </c>
-      <c r="F33" s="33" t="s">
+      <c r="F33" s="12" t="s">
         <v>160</v>
       </c>
       <c r="G33" s="3"/>
@@ -2432,7 +2420,7 @@
       <c r="E34" s="3">
         <v>3</v>
       </c>
-      <c r="F34" s="33" t="s">
+      <c r="F34" s="12" t="s">
         <v>160</v>
       </c>
       <c r="G34" s="3"/>
@@ -2465,7 +2453,7 @@
       <c r="E35" s="11">
         <v>3</v>
       </c>
-      <c r="F35" s="19" t="s">
+      <c r="F35" s="13" t="s">
         <v>161</v>
       </c>
       <c r="G35" s="11"/>
@@ -2492,7 +2480,7 @@
       <c r="E36" s="11">
         <v>3</v>
       </c>
-      <c r="F36" s="19" t="s">
+      <c r="F36" s="13" t="s">
         <v>161</v>
       </c>
       <c r="G36" s="11" t="s">
@@ -2521,7 +2509,7 @@
       <c r="E37" s="11">
         <v>3</v>
       </c>
-      <c r="F37" s="19" t="s">
+      <c r="F37" s="13" t="s">
         <v>161</v>
       </c>
       <c r="G37" s="11" t="s">
@@ -2550,7 +2538,7 @@
       <c r="E38" s="11">
         <v>3</v>
       </c>
-      <c r="F38" s="19" t="s">
+      <c r="F38" s="13" t="s">
         <v>161</v>
       </c>
       <c r="G38" s="11"/>
@@ -2577,7 +2565,7 @@
       <c r="E39" s="11">
         <v>3</v>
       </c>
-      <c r="F39" s="19" t="s">
+      <c r="F39" s="13" t="s">
         <v>161</v>
       </c>
       <c r="G39" s="11"/>
@@ -2604,7 +2592,7 @@
       <c r="E40" s="11">
         <v>3</v>
       </c>
-      <c r="F40" s="19" t="s">
+      <c r="F40" s="13" t="s">
         <v>161</v>
       </c>
       <c r="G40" s="11" t="s">
@@ -2633,7 +2621,7 @@
       <c r="E41" s="11">
         <v>3</v>
       </c>
-      <c r="F41" s="19" t="s">
+      <c r="F41" s="13" t="s">
         <v>161</v>
       </c>
       <c r="G41" s="11"/>
@@ -2660,7 +2648,7 @@
       <c r="E42" s="3">
         <v>1</v>
       </c>
-      <c r="F42" s="33" t="s">
+      <c r="F42" s="12" t="s">
         <v>162</v>
       </c>
       <c r="G42" s="3"/>
@@ -2687,7 +2675,7 @@
       <c r="E43" s="3">
         <v>1</v>
       </c>
-      <c r="F43" s="33" t="s">
+      <c r="F43" s="12" t="s">
         <v>162</v>
       </c>
       <c r="G43" s="3"/>
@@ -2714,7 +2702,7 @@
       <c r="E44" s="3">
         <v>2</v>
       </c>
-      <c r="F44" s="33" t="s">
+      <c r="F44" s="12" t="s">
         <v>162</v>
       </c>
       <c r="G44" s="3"/>
@@ -2741,7 +2729,7 @@
       <c r="E45" s="3">
         <v>3</v>
       </c>
-      <c r="F45" s="33" t="s">
+      <c r="F45" s="12" t="s">
         <v>162</v>
       </c>
       <c r="G45" s="3"/>
@@ -2768,7 +2756,7 @@
       <c r="E46" s="3">
         <v>3</v>
       </c>
-      <c r="F46" s="33" t="s">
+      <c r="F46" s="12" t="s">
         <v>162</v>
       </c>
       <c r="G46" s="3"/>
@@ -2795,7 +2783,7 @@
       <c r="E47" s="3">
         <v>3</v>
       </c>
-      <c r="F47" s="33" t="s">
+      <c r="F47" s="12" t="s">
         <v>162</v>
       </c>
       <c r="G47" s="3"/>
@@ -2822,7 +2810,7 @@
       <c r="E48" s="11">
         <v>6</v>
       </c>
-      <c r="F48" s="19" t="s">
+      <c r="F48" s="13" t="s">
         <v>163</v>
       </c>
       <c r="G48" s="11" t="s">
@@ -2851,7 +2839,7 @@
       <c r="E49" s="3">
         <v>3</v>
       </c>
-      <c r="F49" s="33" t="s">
+      <c r="F49" s="12" t="s">
         <v>165</v>
       </c>
       <c r="G49" s="3" t="s">
@@ -2865,39 +2853,39 @@
       <c r="M49" s="3"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.8">
-      <c r="A50" s="12" t="s">
+      <c r="A50" s="30" t="s">
         <v>167</v>
       </c>
-      <c r="B50" s="12"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
+      <c r="B50" s="30"/>
+      <c r="C50" s="30"/>
+      <c r="D50" s="30"/>
       <c r="E50" s="3">
         <f>SUM(E4:E49)</f>
         <v>135</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.8">
-      <c r="A52" s="12" t="s">
+      <c r="A52" s="30" t="s">
         <v>170</v>
       </c>
-      <c r="B52" s="12"/>
-      <c r="C52" s="12"/>
-      <c r="D52" s="12"/>
+      <c r="B52" s="30"/>
+      <c r="C52" s="30"/>
+      <c r="D52" s="30"/>
       <c r="E52" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="F52" s="17" t="s">
+      <c r="F52" s="12" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.8">
-      <c r="A53" s="23" t="s">
+      <c r="A53" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="B53" s="23"/>
-      <c r="C53" s="23"/>
-      <c r="D53" s="23"/>
-      <c r="E53" s="24">
+      <c r="B53" s="29"/>
+      <c r="C53" s="29"/>
+      <c r="D53" s="29"/>
+      <c r="E53" s="16">
         <f>SUMIF(D4:D49,"ศึกษาทั่วไป-บังคับ-ภาษาและการสื่อสาร",E4:E49)</f>
         <v>12</v>
       </c>
@@ -2906,13 +2894,13 @@
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.8">
-      <c r="A54" s="23" t="s">
+      <c r="A54" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="B54" s="23"/>
-      <c r="C54" s="23"/>
-      <c r="D54" s="23"/>
-      <c r="E54" s="24">
+      <c r="B54" s="29"/>
+      <c r="C54" s="29"/>
+      <c r="D54" s="29"/>
+      <c r="E54" s="16">
         <f>SUMIF(D4:D49,"ศึกษาทั่วไป-บังคับ-สุขภาพ",E4:E49)</f>
         <v>3</v>
       </c>
@@ -2921,13 +2909,13 @@
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.8">
-      <c r="A55" s="23" t="s">
+      <c r="A55" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="B55" s="23"/>
-      <c r="C55" s="23"/>
-      <c r="D55" s="23"/>
-      <c r="E55" s="24">
+      <c r="B55" s="29"/>
+      <c r="C55" s="29"/>
+      <c r="D55" s="29"/>
+      <c r="E55" s="16">
         <f>SUMIF(D4:D49,"ศึกษาทั่วไป-บังคับ-บูรณาการ",E4:E49)</f>
         <v>9</v>
       </c>
@@ -2936,13 +2924,13 @@
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.8">
-      <c r="A56" s="23" t="s">
+      <c r="A56" s="29" t="s">
         <v>168</v>
       </c>
-      <c r="B56" s="23"/>
-      <c r="C56" s="23"/>
-      <c r="D56" s="23"/>
-      <c r="E56" s="24">
+      <c r="B56" s="29"/>
+      <c r="C56" s="29"/>
+      <c r="D56" s="29"/>
+      <c r="E56" s="16">
         <f>SUMIF(D1:D45,"ศึกษาทั่วไป-สังคมศาสตร์และมนุยศาสตร์",E1:E45)</f>
         <v>3</v>
       </c>
@@ -2951,13 +2939,13 @@
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.8">
-      <c r="A57" s="23" t="s">
+      <c r="A57" s="29" t="s">
         <v>169</v>
       </c>
-      <c r="B57" s="23"/>
-      <c r="C57" s="23"/>
-      <c r="D57" s="23"/>
-      <c r="E57" s="24">
+      <c r="B57" s="29"/>
+      <c r="C57" s="29"/>
+      <c r="D57" s="29"/>
+      <c r="E57" s="16">
         <f>SUMIF(D4:D49,"ศึกษาทั่วไป-วิทยาศาสตร์และคณิตศาสตร์",E4:E49)</f>
         <v>3</v>
       </c>
@@ -2966,13 +2954,13 @@
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.8">
-      <c r="A58" s="25" t="s">
+      <c r="A58" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="B58" s="25"/>
-      <c r="C58" s="25"/>
-      <c r="D58" s="25"/>
-      <c r="E58" s="26">
+      <c r="B58" s="26"/>
+      <c r="C58" s="26"/>
+      <c r="D58" s="26"/>
+      <c r="E58" s="17">
         <f>SUMIF(D4:D49,"วิชาเฉพาะพื้นฐานวิชาชีพ",E4:E49)</f>
         <v>32</v>
       </c>
@@ -2981,13 +2969,13 @@
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.8">
-      <c r="A59" s="25" t="s">
+      <c r="A59" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="B59" s="25"/>
-      <c r="C59" s="25"/>
-      <c r="D59" s="25"/>
-      <c r="E59" s="26">
+      <c r="B59" s="26"/>
+      <c r="C59" s="26"/>
+      <c r="D59" s="26"/>
+      <c r="E59" s="17">
         <f>SUMIF(D4:D49,"วิชาเฉพาะชีพบังคับ",E4:E49)</f>
         <v>55</v>
       </c>
@@ -2996,13 +2984,13 @@
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.8">
-      <c r="A60" s="25" t="s">
+      <c r="A60" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="B60" s="25"/>
-      <c r="C60" s="25"/>
-      <c r="D60" s="25"/>
-      <c r="E60" s="26">
+      <c r="B60" s="26"/>
+      <c r="C60" s="26"/>
+      <c r="D60" s="26"/>
+      <c r="E60" s="17">
         <f>SUMIF(D4:D49,"วิชาเฉพาะชีพเลือก",E4:E49)</f>
         <v>12</v>
       </c>
@@ -3017,7 +3005,7 @@
       <c r="B61" s="27"/>
       <c r="C61" s="27"/>
       <c r="D61" s="27"/>
-      <c r="E61" s="28">
+      <c r="E61" s="18">
         <f>SUMIF(D4:D49,"วิชาเลือกเสรี",E4:E49)</f>
         <v>6</v>
       </c>
@@ -3026,12 +3014,12 @@
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.8">
-      <c r="A62" s="18" t="s">
+      <c r="A62" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="B62" s="18"/>
-      <c r="C62" s="18"/>
-      <c r="D62" s="18"/>
+      <c r="B62" s="28"/>
+      <c r="C62" s="28"/>
+      <c r="D62" s="28"/>
       <c r="E62" s="2">
         <f>SUM(E53:E61)</f>
         <v>135</v>
@@ -3044,20 +3032,20 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="14">
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="A53:D53"/>
+    <mergeCell ref="A54:D54"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="A57:D57"/>
     <mergeCell ref="A58:D58"/>
     <mergeCell ref="A59:D59"/>
     <mergeCell ref="A60:D60"/>
     <mergeCell ref="A61:D61"/>
     <mergeCell ref="A62:D62"/>
-    <mergeCell ref="A53:D53"/>
-    <mergeCell ref="A54:D54"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A2:M2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3089,46 +3077,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.8">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.8">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="31" t="s">
         <v>154</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.8">
       <c r="A3" s="2" t="s">
@@ -3199,7 +3187,7 @@
       <c r="E4" s="11">
         <v>3</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="13" t="s">
         <v>175</v>
       </c>
       <c r="G4" s="11"/>
@@ -3250,7 +3238,7 @@
       <c r="E5" s="11">
         <v>3</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="13" t="s">
         <v>175</v>
       </c>
       <c r="G5" s="11"/>
@@ -3301,7 +3289,7 @@
       <c r="E6" s="11">
         <v>3</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="13" t="s">
         <v>175</v>
       </c>
       <c r="G6" s="11"/>
@@ -3352,7 +3340,7 @@
       <c r="E7" s="11">
         <v>3</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="13" t="s">
         <v>175</v>
       </c>
       <c r="G7" s="11"/>
@@ -3403,7 +3391,7 @@
       <c r="E8" s="11">
         <v>3</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="F8" s="13" t="s">
         <v>175</v>
       </c>
       <c r="G8" s="11"/>
@@ -3454,7 +3442,7 @@
       <c r="E9" s="11">
         <v>3</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="F9" s="13" t="s">
         <v>175</v>
       </c>
       <c r="G9" s="11"/>
@@ -3505,7 +3493,7 @@
       <c r="E10" s="11">
         <v>3</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="13" t="s">
         <v>175</v>
       </c>
       <c r="G10" s="11"/>
@@ -3556,7 +3544,7 @@
       <c r="E11" s="3">
         <v>3</v>
       </c>
-      <c r="F11" s="33" t="s">
+      <c r="F11" s="12" t="s">
         <v>176</v>
       </c>
       <c r="G11" s="3"/>
@@ -3607,7 +3595,7 @@
       <c r="E12" s="3">
         <v>3</v>
       </c>
-      <c r="F12" s="33" t="s">
+      <c r="F12" s="12" t="s">
         <v>176</v>
       </c>
       <c r="G12" s="3"/>
@@ -3658,7 +3646,7 @@
       <c r="E13" s="3">
         <v>3</v>
       </c>
-      <c r="F13" s="33" t="s">
+      <c r="F13" s="12" t="s">
         <v>176</v>
       </c>
       <c r="G13" s="3"/>
@@ -3707,7 +3695,7 @@
       <c r="E14" s="3">
         <v>3</v>
       </c>
-      <c r="F14" s="33" t="s">
+      <c r="F14" s="12" t="s">
         <v>176</v>
       </c>
       <c r="G14" s="3" t="s">
@@ -3758,7 +3746,7 @@
       <c r="E15" s="3">
         <v>4</v>
       </c>
-      <c r="F15" s="33" t="s">
+      <c r="F15" s="12" t="s">
         <v>176</v>
       </c>
       <c r="G15" s="3"/>
@@ -3809,7 +3797,7 @@
       <c r="E16" s="3">
         <v>1</v>
       </c>
-      <c r="F16" s="33" t="s">
+      <c r="F16" s="12" t="s">
         <v>176</v>
       </c>
       <c r="G16" s="3"/>
@@ -3860,7 +3848,7 @@
       <c r="E17" s="3">
         <v>3</v>
       </c>
-      <c r="F17" s="33" t="s">
+      <c r="F17" s="12" t="s">
         <v>176</v>
       </c>
       <c r="G17" s="3"/>
@@ -3911,7 +3899,7 @@
       <c r="E18" s="3">
         <v>3</v>
       </c>
-      <c r="F18" s="33" t="s">
+      <c r="F18" s="12" t="s">
         <v>176</v>
       </c>
       <c r="G18" s="3" t="s">
@@ -3964,7 +3952,7 @@
       <c r="E19" s="11">
         <v>3</v>
       </c>
-      <c r="F19" s="19" t="s">
+      <c r="F19" s="13" t="s">
         <v>159</v>
       </c>
       <c r="G19" s="11" t="s">
@@ -4013,7 +4001,7 @@
       <c r="E20" s="11">
         <v>3</v>
       </c>
-      <c r="F20" s="19" t="s">
+      <c r="F20" s="13" t="s">
         <v>159</v>
       </c>
       <c r="G20" s="11"/>
@@ -4062,7 +4050,7 @@
       <c r="E21" s="11">
         <v>3</v>
       </c>
-      <c r="F21" s="19" t="s">
+      <c r="F21" s="13" t="s">
         <v>159</v>
       </c>
       <c r="G21" s="11" t="s">
@@ -4105,7 +4093,7 @@
       <c r="E22" s="11">
         <v>3</v>
       </c>
-      <c r="F22" s="19" t="s">
+      <c r="F22" s="13" t="s">
         <v>159</v>
       </c>
       <c r="G22" s="11" t="s">
@@ -4156,7 +4144,7 @@
       <c r="E23" s="11">
         <v>3</v>
       </c>
-      <c r="F23" s="19" t="s">
+      <c r="F23" s="13" t="s">
         <v>159</v>
       </c>
       <c r="G23" s="11"/>
@@ -4207,7 +4195,7 @@
       <c r="E24" s="11">
         <v>3</v>
       </c>
-      <c r="F24" s="19" t="s">
+      <c r="F24" s="13" t="s">
         <v>159</v>
       </c>
       <c r="G24" s="11"/>
@@ -4258,7 +4246,7 @@
       <c r="E25" s="11">
         <v>3</v>
       </c>
-      <c r="F25" s="19" t="s">
+      <c r="F25" s="13" t="s">
         <v>159</v>
       </c>
       <c r="G25" s="11" t="s">
@@ -4311,7 +4299,7 @@
       <c r="E26" s="3">
         <v>3</v>
       </c>
-      <c r="F26" s="33" t="s">
+      <c r="F26" s="12" t="s">
         <v>160</v>
       </c>
       <c r="G26" s="3" t="s">
@@ -4362,7 +4350,7 @@
       <c r="E27" s="3">
         <v>3</v>
       </c>
-      <c r="F27" s="33" t="s">
+      <c r="F27" s="12" t="s">
         <v>160</v>
       </c>
       <c r="G27" s="3" t="s">
@@ -4405,7 +4393,7 @@
       <c r="E28" s="3">
         <v>3</v>
       </c>
-      <c r="F28" s="33" t="s">
+      <c r="F28" s="12" t="s">
         <v>160</v>
       </c>
       <c r="G28" s="3" t="s">
@@ -4454,7 +4442,7 @@
       <c r="E29" s="3">
         <v>3</v>
       </c>
-      <c r="F29" s="33" t="s">
+      <c r="F29" s="12" t="s">
         <v>160</v>
       </c>
       <c r="G29" s="3"/>
@@ -4505,7 +4493,7 @@
       <c r="E30" s="3">
         <v>3</v>
       </c>
-      <c r="F30" s="33" t="s">
+      <c r="F30" s="12" t="s">
         <v>160</v>
       </c>
       <c r="G30" s="3" t="s">
@@ -4558,7 +4546,7 @@
       <c r="E31" s="3">
         <v>3</v>
       </c>
-      <c r="F31" s="33" t="s">
+      <c r="F31" s="12" t="s">
         <v>160</v>
       </c>
       <c r="G31" s="3"/>
@@ -4605,7 +4593,7 @@
       <c r="E32" s="3">
         <v>3</v>
       </c>
-      <c r="F32" s="33" t="s">
+      <c r="F32" s="12" t="s">
         <v>160</v>
       </c>
       <c r="G32" s="3"/>
@@ -4644,22 +4632,22 @@
       <c r="A33" s="11">
         <v>30</v>
       </c>
-      <c r="B33" s="32" t="s">
+      <c r="B33" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C33" s="32" t="s">
+      <c r="C33" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D33" s="32" t="s">
+      <c r="D33" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E33" s="32">
-        <v>3</v>
-      </c>
-      <c r="F33" s="33" t="s">
+      <c r="E33" s="3">
+        <v>3</v>
+      </c>
+      <c r="F33" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="G33" s="32"/>
+      <c r="G33" s="3"/>
       <c r="H33" s="3" t="s">
         <v>140</v>
       </c>
@@ -4693,22 +4681,22 @@
       <c r="A34" s="11">
         <v>31</v>
       </c>
-      <c r="B34" s="32" t="s">
+      <c r="B34" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C34" s="32" t="s">
+      <c r="C34" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D34" s="32" t="s">
+      <c r="D34" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="E34" s="32">
-        <v>3</v>
-      </c>
-      <c r="F34" s="33" t="s">
+      <c r="E34" s="3">
+        <v>3</v>
+      </c>
+      <c r="F34" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="G34" s="32"/>
+      <c r="G34" s="3"/>
       <c r="H34" s="3" t="s">
         <v>137</v>
       </c>
@@ -4734,22 +4722,22 @@
       <c r="A35" s="11">
         <v>32</v>
       </c>
-      <c r="B35" s="32" t="s">
+      <c r="B35" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C35" s="32" t="s">
+      <c r="C35" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D35" s="32" t="s">
+      <c r="D35" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="E35" s="32">
-        <v>3</v>
-      </c>
-      <c r="F35" s="33" t="s">
+      <c r="E35" s="3">
+        <v>3</v>
+      </c>
+      <c r="F35" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="G35" s="32"/>
+      <c r="G35" s="3"/>
       <c r="H35" s="3" t="s">
         <v>137</v>
       </c>
@@ -4795,7 +4783,7 @@
       <c r="E36" s="3">
         <v>1</v>
       </c>
-      <c r="F36" s="33" t="s">
+      <c r="F36" s="12" t="s">
         <v>160</v>
       </c>
       <c r="G36" s="3"/>
@@ -4844,7 +4832,7 @@
       <c r="E37" s="3">
         <v>1</v>
       </c>
-      <c r="F37" s="33" t="s">
+      <c r="F37" s="12" t="s">
         <v>160</v>
       </c>
       <c r="G37" s="3"/>
@@ -4895,7 +4883,7 @@
       <c r="E38" s="3">
         <v>2</v>
       </c>
-      <c r="F38" s="33" t="s">
+      <c r="F38" s="12" t="s">
         <v>160</v>
       </c>
       <c r="G38" s="3"/>
@@ -4934,22 +4922,22 @@
       <c r="A39" s="11">
         <v>36</v>
       </c>
-      <c r="B39" s="32" t="s">
+      <c r="B39" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C39" s="32" t="s">
+      <c r="C39" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D39" s="32" t="s">
+      <c r="D39" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E39" s="32">
-        <v>3</v>
-      </c>
-      <c r="F39" s="33" t="s">
+      <c r="E39" s="3">
+        <v>3</v>
+      </c>
+      <c r="F39" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="G39" s="32" t="s">
+      <c r="G39" s="3" t="s">
         <v>63</v>
       </c>
       <c r="H39" s="3" t="s">
@@ -4981,59 +4969,59 @@
         <v>144</v>
       </c>
     </row>
-    <row r="40" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.8">
+    <row r="40" spans="1:17" s="25" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A40" s="11">
         <v>37</v>
       </c>
-      <c r="B40" s="35" t="s">
+      <c r="B40" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="C40" s="35" t="s">
+      <c r="C40" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="D40" s="35" t="s">
+      <c r="D40" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="E40" s="35">
+      <c r="E40" s="22">
         <v>6</v>
       </c>
-      <c r="F40" s="36" t="s">
+      <c r="F40" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="G40" s="35" t="s">
+      <c r="G40" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="H40" s="35"/>
-      <c r="I40" s="35"/>
-      <c r="J40" s="35"/>
-      <c r="K40" s="35"/>
-      <c r="L40" s="35"/>
-      <c r="M40" s="35"/>
-      <c r="N40" s="35"/>
-      <c r="O40" s="35"/>
-      <c r="P40" s="37"/>
-      <c r="Q40" s="37"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="22"/>
+      <c r="J40" s="22"/>
+      <c r="K40" s="22"/>
+      <c r="L40" s="22"/>
+      <c r="M40" s="22"/>
+      <c r="N40" s="22"/>
+      <c r="O40" s="22"/>
+      <c r="P40" s="24"/>
+      <c r="Q40" s="24"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.8">
       <c r="A41" s="11">
         <v>38</v>
       </c>
-      <c r="B41" s="32" t="s">
+      <c r="B41" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C41" s="32" t="s">
+      <c r="C41" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D41" s="32" t="s">
+      <c r="D41" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E41" s="32">
-        <v>3</v>
-      </c>
-      <c r="F41" s="33" t="s">
+      <c r="E41" s="3">
+        <v>3</v>
+      </c>
+      <c r="F41" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="G41" s="32" t="s">
+      <c r="G41" s="3" t="s">
         <v>93</v>
       </c>
       <c r="H41" s="7"/>
@@ -5051,22 +5039,22 @@
       <c r="A42" s="11">
         <v>39</v>
       </c>
-      <c r="B42" s="32" t="s">
+      <c r="B42" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C42" s="32" t="s">
+      <c r="C42" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D42" s="32" t="s">
+      <c r="D42" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E42" s="32">
-        <v>3</v>
-      </c>
-      <c r="F42" s="33" t="s">
+      <c r="E42" s="3">
+        <v>3</v>
+      </c>
+      <c r="F42" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="G42" s="32" t="s">
+      <c r="G42" s="3" t="s">
         <v>84</v>
       </c>
       <c r="H42" s="7"/>
@@ -5084,22 +5072,22 @@
       <c r="A43" s="11">
         <v>40</v>
       </c>
-      <c r="B43" s="32" t="s">
+      <c r="B43" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C43" s="32" t="s">
+      <c r="C43" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D43" s="32" t="s">
+      <c r="D43" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E43" s="32">
-        <v>3</v>
-      </c>
-      <c r="F43" s="33" t="s">
+      <c r="E43" s="3">
+        <v>3</v>
+      </c>
+      <c r="F43" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="G43" s="32" t="s">
+      <c r="G43" s="3" t="s">
         <v>61</v>
       </c>
       <c r="H43" s="7"/>
@@ -5129,7 +5117,7 @@
       <c r="E44" s="3">
         <v>3</v>
       </c>
-      <c r="F44" s="33" t="s">
+      <c r="F44" s="12" t="s">
         <v>162</v>
       </c>
       <c r="G44" s="3" t="s">
@@ -5162,7 +5150,7 @@
       <c r="E45" s="3">
         <v>3</v>
       </c>
-      <c r="F45" s="33" t="s">
+      <c r="F45" s="12" t="s">
         <v>162</v>
       </c>
       <c r="G45" s="3"/>
@@ -5193,7 +5181,7 @@
       <c r="E46" s="11">
         <v>3</v>
       </c>
-      <c r="F46" s="19" t="s">
+      <c r="F46" s="13" t="s">
         <v>163</v>
       </c>
       <c r="G46" s="11"/>
@@ -5224,7 +5212,7 @@
       <c r="E47" s="11">
         <v>3</v>
       </c>
-      <c r="F47" s="19" t="s">
+      <c r="F47" s="13" t="s">
         <v>163</v>
       </c>
       <c r="G47" s="11"/>
@@ -5255,7 +5243,7 @@
       <c r="E48" s="11">
         <v>3</v>
       </c>
-      <c r="F48" s="19" t="s">
+      <c r="F48" s="13" t="s">
         <v>163</v>
       </c>
       <c r="G48" s="11"/>
@@ -5286,7 +5274,7 @@
       <c r="E49" s="11">
         <v>3</v>
       </c>
-      <c r="F49" s="19" t="s">
+      <c r="F49" s="13" t="s">
         <v>163</v>
       </c>
       <c r="G49" s="11" t="s">
@@ -5304,39 +5292,39 @@
       <c r="Q49" s="9"/>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.8">
-      <c r="A50" s="12" t="s">
+      <c r="A50" s="30" t="s">
         <v>167</v>
       </c>
-      <c r="B50" s="12"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
+      <c r="B50" s="30"/>
+      <c r="C50" s="30"/>
+      <c r="D50" s="30"/>
       <c r="E50" s="3">
         <f>SUM(E4:E49)</f>
         <v>135</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.8">
-      <c r="A52" s="12" t="s">
+      <c r="A52" s="30" t="s">
         <v>170</v>
       </c>
-      <c r="B52" s="12"/>
-      <c r="C52" s="12"/>
-      <c r="D52" s="12"/>
+      <c r="B52" s="30"/>
+      <c r="C52" s="30"/>
+      <c r="D52" s="30"/>
       <c r="E52" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="F52" s="17" t="s">
+      <c r="F52" s="12" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.8">
-      <c r="A53" s="23" t="s">
+      <c r="A53" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="B53" s="23"/>
-      <c r="C53" s="23"/>
-      <c r="D53" s="23"/>
-      <c r="E53" s="24">
+      <c r="B53" s="29"/>
+      <c r="C53" s="29"/>
+      <c r="D53" s="29"/>
+      <c r="E53" s="16">
         <f>SUMIF(D4:D49,"ศึกษาทั่วไป-บังคับ-ภาษาและการสื่อสาร",E4:E49)</f>
         <v>12</v>
       </c>
@@ -5345,13 +5333,13 @@
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.8">
-      <c r="A54" s="23" t="s">
+      <c r="A54" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="B54" s="23"/>
-      <c r="C54" s="23"/>
-      <c r="D54" s="23"/>
-      <c r="E54" s="24">
+      <c r="B54" s="29"/>
+      <c r="C54" s="29"/>
+      <c r="D54" s="29"/>
+      <c r="E54" s="16">
         <f>SUMIF(D4:D49,"ศึกษาทั่วไป-บังคับ-สุขภาพ",E4:E49)</f>
         <v>3</v>
       </c>
@@ -5360,13 +5348,13 @@
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.8">
-      <c r="A55" s="23" t="s">
+      <c r="A55" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="B55" s="23"/>
-      <c r="C55" s="23"/>
-      <c r="D55" s="23"/>
-      <c r="E55" s="24">
+      <c r="B55" s="29"/>
+      <c r="C55" s="29"/>
+      <c r="D55" s="29"/>
+      <c r="E55" s="16">
         <f>SUMIF(D4:D49,"ศึกษาทั่วไป-บังคับ-บูรณาการ",E4:E49)</f>
         <v>9</v>
       </c>
@@ -5375,13 +5363,13 @@
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.8">
-      <c r="A56" s="23" t="s">
+      <c r="A56" s="29" t="s">
         <v>168</v>
       </c>
-      <c r="B56" s="23"/>
-      <c r="C56" s="23"/>
-      <c r="D56" s="23"/>
-      <c r="E56" s="24">
+      <c r="B56" s="29"/>
+      <c r="C56" s="29"/>
+      <c r="D56" s="29"/>
+      <c r="E56" s="16">
         <f>SUMIF(D1:D43,"ศึกษาทั่วไป-สังคมศาสตร์และมนุยศาสตร์",E1:E43)</f>
         <v>3</v>
       </c>
@@ -5390,13 +5378,13 @@
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.8">
-      <c r="A57" s="23" t="s">
+      <c r="A57" s="29" t="s">
         <v>169</v>
       </c>
-      <c r="B57" s="23"/>
-      <c r="C57" s="23"/>
-      <c r="D57" s="23"/>
-      <c r="E57" s="24">
+      <c r="B57" s="29"/>
+      <c r="C57" s="29"/>
+      <c r="D57" s="29"/>
+      <c r="E57" s="16">
         <f>SUMIF(D4:D49,"ศึกษาทั่วไป-วิทยาศาสตร์และคณิตศาสตร์",E4:E49)</f>
         <v>3</v>
       </c>
@@ -5405,13 +5393,13 @@
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.8">
-      <c r="A58" s="25" t="s">
+      <c r="A58" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="B58" s="25"/>
-      <c r="C58" s="25"/>
-      <c r="D58" s="25"/>
-      <c r="E58" s="26">
+      <c r="B58" s="26"/>
+      <c r="C58" s="26"/>
+      <c r="D58" s="26"/>
+      <c r="E58" s="17">
         <f>SUMIF(D4:D49,"วิชาเฉพาะพื้นฐานวิชาชีพ",E4:E49)</f>
         <v>32</v>
       </c>
@@ -5420,13 +5408,13 @@
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.8">
-      <c r="A59" s="25" t="s">
+      <c r="A59" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="B59" s="25"/>
-      <c r="C59" s="25"/>
-      <c r="D59" s="25"/>
-      <c r="E59" s="26">
+      <c r="B59" s="26"/>
+      <c r="C59" s="26"/>
+      <c r="D59" s="26"/>
+      <c r="E59" s="17">
         <f>SUMIF(D4:D49,"วิชาเฉพาะชีพบังคับ",E4:E49)</f>
         <v>55</v>
       </c>
@@ -5435,13 +5423,13 @@
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.8">
-      <c r="A60" s="25" t="s">
+      <c r="A60" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="B60" s="25"/>
-      <c r="C60" s="25"/>
-      <c r="D60" s="25"/>
-      <c r="E60" s="26">
+      <c r="B60" s="26"/>
+      <c r="C60" s="26"/>
+      <c r="D60" s="26"/>
+      <c r="E60" s="17">
         <f>SUMIF(D4:D49,"วิชาเฉพาะชีพเลือก",E4:E49)</f>
         <v>12</v>
       </c>
@@ -5456,7 +5444,7 @@
       <c r="B61" s="27"/>
       <c r="C61" s="27"/>
       <c r="D61" s="27"/>
-      <c r="E61" s="28">
+      <c r="E61" s="18">
         <f>SUMIF(D4:D49,"วิชาเลือกเสรี",E4:E49)</f>
         <v>6</v>
       </c>
@@ -5465,12 +5453,12 @@
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.8">
-      <c r="A62" s="18" t="s">
+      <c r="A62" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="B62" s="18"/>
-      <c r="C62" s="18"/>
-      <c r="D62" s="18"/>
+      <c r="B62" s="28"/>
+      <c r="C62" s="28"/>
+      <c r="D62" s="28"/>
       <c r="E62" s="2">
         <f>SUM(E53:E61)</f>
         <v>135</v>
@@ -5483,20 +5471,20 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="14">
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="A2:Q2"/>
+    <mergeCell ref="A53:D53"/>
+    <mergeCell ref="A54:D54"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="A57:D57"/>
     <mergeCell ref="A58:D58"/>
     <mergeCell ref="A59:D59"/>
     <mergeCell ref="A60:D60"/>
     <mergeCell ref="A61:D61"/>
     <mergeCell ref="A62:D62"/>
-    <mergeCell ref="A53:D53"/>
-    <mergeCell ref="A54:D54"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="A2:Q2"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5509,7 +5497,7 @@
   <dimension ref="A1:O63"/>
   <sheetViews>
     <sheetView topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52:F62"/>
+      <selection activeCell="H60" sqref="H60:H61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="24" x14ac:dyDescent="0.8"/>
@@ -5526,42 +5514,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="30" t="s">
         <v>156</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
     </row>
     <row r="2" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
     </row>
     <row r="3" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
@@ -5626,7 +5614,7 @@
       <c r="E4" s="11">
         <v>3</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="13" t="s">
         <v>159</v>
       </c>
       <c r="G4" s="11"/>
@@ -5671,7 +5659,7 @@
       <c r="E5" s="11">
         <v>3</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="13" t="s">
         <v>159</v>
       </c>
       <c r="G5" s="11"/>
@@ -5716,7 +5704,7 @@
       <c r="E6" s="11">
         <v>3</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="13" t="s">
         <v>159</v>
       </c>
       <c r="G6" s="11"/>
@@ -5761,7 +5749,7 @@
       <c r="E7" s="11">
         <v>3</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="13" t="s">
         <v>159</v>
       </c>
       <c r="G7" s="11"/>
@@ -5806,7 +5794,7 @@
       <c r="E8" s="11">
         <v>3</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="F8" s="13" t="s">
         <v>159</v>
       </c>
       <c r="G8" s="11"/>
@@ -5851,7 +5839,7 @@
       <c r="E9" s="11">
         <v>3</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="F9" s="13" t="s">
         <v>159</v>
       </c>
       <c r="G9" s="11"/>
@@ -5896,7 +5884,7 @@
       <c r="E10" s="11">
         <v>3</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="13" t="s">
         <v>159</v>
       </c>
       <c r="G10" s="11"/>
@@ -5941,7 +5929,7 @@
       <c r="E11" s="3">
         <v>3</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="F11" s="12" t="s">
         <v>160</v>
       </c>
       <c r="G11" s="3"/>
@@ -5986,7 +5974,7 @@
       <c r="E12" s="3">
         <v>2</v>
       </c>
-      <c r="F12" s="17" t="s">
+      <c r="F12" s="12" t="s">
         <v>160</v>
       </c>
       <c r="G12" s="3"/>
@@ -6031,7 +6019,7 @@
       <c r="E13" s="3">
         <v>3</v>
       </c>
-      <c r="F13" s="17" t="s">
+      <c r="F13" s="12" t="s">
         <v>160</v>
       </c>
       <c r="G13" s="3"/>
@@ -6076,7 +6064,7 @@
       <c r="E14" s="3">
         <v>3</v>
       </c>
-      <c r="F14" s="17" t="s">
+      <c r="F14" s="12" t="s">
         <v>160</v>
       </c>
       <c r="G14" s="3" t="s">
@@ -6123,7 +6111,7 @@
       <c r="E15" s="3">
         <v>3</v>
       </c>
-      <c r="F15" s="17" t="s">
+      <c r="F15" s="12" t="s">
         <v>160</v>
       </c>
       <c r="G15" s="3"/>
@@ -6168,7 +6156,7 @@
       <c r="E16" s="3">
         <v>3</v>
       </c>
-      <c r="F16" s="17" t="s">
+      <c r="F16" s="12" t="s">
         <v>160</v>
       </c>
       <c r="G16" s="3" t="s">
@@ -6215,7 +6203,7 @@
       <c r="E17" s="11">
         <v>3</v>
       </c>
-      <c r="F17" s="19" t="s">
+      <c r="F17" s="13" t="s">
         <v>161</v>
       </c>
       <c r="G17" s="11" t="s">
@@ -6262,7 +6250,7 @@
       <c r="E18" s="11">
         <v>3</v>
       </c>
-      <c r="F18" s="19" t="s">
+      <c r="F18" s="13" t="s">
         <v>161</v>
       </c>
       <c r="G18" s="11"/>
@@ -6307,7 +6295,7 @@
       <c r="E19" s="11">
         <v>3</v>
       </c>
-      <c r="F19" s="19" t="s">
+      <c r="F19" s="13" t="s">
         <v>161</v>
       </c>
       <c r="G19" s="11" t="s">
@@ -6354,7 +6342,7 @@
       <c r="E20" s="11">
         <v>3</v>
       </c>
-      <c r="F20" s="19" t="s">
+      <c r="F20" s="13" t="s">
         <v>161</v>
       </c>
       <c r="G20" s="11" t="s">
@@ -6401,7 +6389,7 @@
       <c r="E21" s="11">
         <v>3</v>
       </c>
-      <c r="F21" s="19" t="s">
+      <c r="F21" s="13" t="s">
         <v>161</v>
       </c>
       <c r="G21" s="11"/>
@@ -6446,7 +6434,7 @@
       <c r="E22" s="11">
         <v>3</v>
       </c>
-      <c r="F22" s="19" t="s">
+      <c r="F22" s="13" t="s">
         <v>161</v>
       </c>
       <c r="G22" s="11"/>
@@ -6491,7 +6479,7 @@
       <c r="E23" s="11">
         <v>3</v>
       </c>
-      <c r="F23" s="19" t="s">
+      <c r="F23" s="13" t="s">
         <v>161</v>
       </c>
       <c r="G23" s="11"/>
@@ -6536,7 +6524,7 @@
       <c r="E24" s="11">
         <v>3</v>
       </c>
-      <c r="F24" s="19" t="s">
+      <c r="F24" s="13" t="s">
         <v>161</v>
       </c>
       <c r="G24" s="11" t="s">
@@ -6583,7 +6571,7 @@
       <c r="E25" s="3">
         <v>3</v>
       </c>
-      <c r="F25" s="17" t="s">
+      <c r="F25" s="12" t="s">
         <v>162</v>
       </c>
       <c r="G25" s="3" t="s">
@@ -6614,7 +6602,7 @@
       <c r="E26" s="3">
         <v>3</v>
       </c>
-      <c r="F26" s="17" t="s">
+      <c r="F26" s="12" t="s">
         <v>162</v>
       </c>
       <c r="G26" s="3" t="s">
@@ -6645,7 +6633,7 @@
       <c r="E27" s="3">
         <v>3</v>
       </c>
-      <c r="F27" s="17" t="s">
+      <c r="F27" s="12" t="s">
         <v>162</v>
       </c>
       <c r="G27" s="3" t="s">
@@ -6661,25 +6649,25 @@
       <c r="O27" s="3"/>
     </row>
     <row r="28" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="30">
+      <c r="A28" s="19">
         <v>25</v>
       </c>
-      <c r="B28" s="30" t="s">
+      <c r="B28" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="C28" s="30" t="s">
+      <c r="C28" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="D28" s="30" t="s">
+      <c r="D28" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="E28" s="30">
-        <v>3</v>
-      </c>
-      <c r="F28" s="31" t="s">
+      <c r="E28" s="19">
+        <v>3</v>
+      </c>
+      <c r="F28" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="G28" s="30"/>
+      <c r="G28" s="19"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
@@ -6705,7 +6693,7 @@
       <c r="E29" s="3">
         <v>1</v>
       </c>
-      <c r="F29" s="17" t="s">
+      <c r="F29" s="12" t="s">
         <v>162</v>
       </c>
       <c r="G29" s="3"/>
@@ -6734,7 +6722,7 @@
       <c r="E30" s="3">
         <v>3</v>
       </c>
-      <c r="F30" s="17" t="s">
+      <c r="F30" s="12" t="s">
         <v>162</v>
       </c>
       <c r="G30" s="3" t="s">
@@ -6765,7 +6753,7 @@
       <c r="E31" s="3">
         <v>3</v>
       </c>
-      <c r="F31" s="17" t="s">
+      <c r="F31" s="12" t="s">
         <v>162</v>
       </c>
       <c r="G31" s="3"/>
@@ -6779,25 +6767,25 @@
       <c r="O31" s="3"/>
     </row>
     <row r="32" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="30">
+      <c r="A32" s="19">
         <v>29</v>
       </c>
-      <c r="B32" s="30" t="s">
+      <c r="B32" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="C32" s="30" t="s">
+      <c r="C32" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="D32" s="30" t="s">
+      <c r="D32" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="E32" s="30">
-        <v>3</v>
-      </c>
-      <c r="F32" s="31" t="s">
+      <c r="E32" s="19">
+        <v>3</v>
+      </c>
+      <c r="F32" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="G32" s="30"/>
+      <c r="G32" s="19"/>
       <c r="H32" s="3" t="s">
         <v>173</v>
       </c>
@@ -6825,7 +6813,7 @@
       <c r="E33" s="11">
         <v>3</v>
       </c>
-      <c r="F33" s="19" t="s">
+      <c r="F33" s="13" t="s">
         <v>163</v>
       </c>
       <c r="G33" s="11" t="s">
@@ -6856,7 +6844,7 @@
       <c r="E34" s="11">
         <v>3</v>
       </c>
-      <c r="F34" s="19" t="s">
+      <c r="F34" s="13" t="s">
         <v>163</v>
       </c>
       <c r="G34" s="11" t="s">
@@ -6887,7 +6875,7 @@
       <c r="E35" s="11">
         <v>3</v>
       </c>
-      <c r="F35" s="19" t="s">
+      <c r="F35" s="13" t="s">
         <v>163</v>
       </c>
       <c r="G35" s="11" t="s">
@@ -6918,7 +6906,7 @@
       <c r="E36" s="11">
         <v>3</v>
       </c>
-      <c r="F36" s="19" t="s">
+      <c r="F36" s="13" t="s">
         <v>163</v>
       </c>
       <c r="G36" s="11"/>
@@ -6947,7 +6935,7 @@
       <c r="E37" s="11">
         <v>3</v>
       </c>
-      <c r="F37" s="19" t="s">
+      <c r="F37" s="13" t="s">
         <v>163</v>
       </c>
       <c r="G37" s="11"/>
@@ -6976,7 +6964,7 @@
       <c r="E38" s="11">
         <v>3</v>
       </c>
-      <c r="F38" s="19" t="s">
+      <c r="F38" s="13" t="s">
         <v>163</v>
       </c>
       <c r="G38" s="11" t="s">
@@ -7007,7 +6995,7 @@
       <c r="E39" s="11">
         <v>3</v>
       </c>
-      <c r="F39" s="19" t="s">
+      <c r="F39" s="13" t="s">
         <v>163</v>
       </c>
       <c r="G39" s="11"/>
@@ -7021,23 +7009,23 @@
       <c r="O39" s="3"/>
     </row>
     <row r="40" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="30"/>
-      <c r="B40" s="30" t="s">
+      <c r="A40" s="19"/>
+      <c r="B40" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="C40" s="30" t="s">
+      <c r="C40" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D40" s="30" t="s">
+      <c r="D40" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="E40" s="30">
+      <c r="E40" s="19">
         <v>4</v>
       </c>
-      <c r="F40" s="31" t="s">
+      <c r="F40" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="G40" s="30"/>
+      <c r="G40" s="19"/>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
@@ -7063,7 +7051,7 @@
       <c r="E41" s="3">
         <v>1</v>
       </c>
-      <c r="F41" s="17" t="s">
+      <c r="F41" s="12" t="s">
         <v>165</v>
       </c>
       <c r="G41" s="3"/>
@@ -7092,7 +7080,7 @@
       <c r="E42" s="3">
         <v>3</v>
       </c>
-      <c r="F42" s="17" t="s">
+      <c r="F42" s="12" t="s">
         <v>165</v>
       </c>
       <c r="G42" s="3"/>
@@ -7121,7 +7109,7 @@
       <c r="E43" s="3">
         <v>1</v>
       </c>
-      <c r="F43" s="17" t="s">
+      <c r="F43" s="12" t="s">
         <v>165</v>
       </c>
       <c r="G43" s="3"/>
@@ -7150,7 +7138,7 @@
       <c r="E44" s="3">
         <v>3</v>
       </c>
-      <c r="F44" s="17" t="s">
+      <c r="F44" s="12" t="s">
         <v>165</v>
       </c>
       <c r="G44" s="3"/>
@@ -7179,7 +7167,7 @@
       <c r="E45" s="3">
         <v>3</v>
       </c>
-      <c r="F45" s="17" t="s">
+      <c r="F45" s="12" t="s">
         <v>165</v>
       </c>
       <c r="G45" s="3"/>
@@ -7206,7 +7194,7 @@
       <c r="E46" s="3">
         <v>3</v>
       </c>
-      <c r="F46" s="17" t="s">
+      <c r="F46" s="12" t="s">
         <v>165</v>
       </c>
       <c r="G46" s="3"/>
@@ -7235,7 +7223,7 @@
       <c r="E47" s="3">
         <v>3</v>
       </c>
-      <c r="F47" s="17" t="s">
+      <c r="F47" s="12" t="s">
         <v>165</v>
       </c>
       <c r="G47" s="3"/>
@@ -7264,7 +7252,7 @@
       <c r="E48" s="11">
         <v>6</v>
       </c>
-      <c r="F48" s="19" t="s">
+      <c r="F48" s="13" t="s">
         <v>164</v>
       </c>
       <c r="G48" s="11" t="s">
@@ -7295,7 +7283,7 @@
       <c r="E49" s="3">
         <v>3</v>
       </c>
-      <c r="F49" s="17" t="s">
+      <c r="F49" s="12" t="s">
         <v>166</v>
       </c>
       <c r="G49" s="3" t="s">
@@ -7311,75 +7299,44 @@
       <c r="O49" s="3"/>
     </row>
     <row r="50" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="12" t="s">
+      <c r="A50" s="30" t="s">
         <v>167</v>
       </c>
-      <c r="B50" s="12"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
+      <c r="B50" s="30"/>
+      <c r="C50" s="30"/>
+      <c r="D50" s="30"/>
       <c r="E50" s="3">
         <f>SUM(E4:E49)</f>
         <v>135</v>
       </c>
-      <c r="F50" s="20"/>
-      <c r="G50" s="21"/>
-      <c r="H50" s="21"/>
-      <c r="I50" s="21"/>
-      <c r="J50" s="21"/>
-      <c r="K50" s="21"/>
-      <c r="L50" s="21"/>
-      <c r="M50" s="21"/>
-      <c r="N50" s="21"/>
-      <c r="O50" s="21"/>
+      <c r="F50" s="14"/>
     </row>
     <row r="51" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="21"/>
-      <c r="B51" s="21"/>
-      <c r="C51" s="21"/>
-      <c r="D51" s="21"/>
-      <c r="E51" s="22"/>
-      <c r="F51" s="20"/>
-      <c r="G51" s="21"/>
-      <c r="H51" s="21"/>
-      <c r="I51" s="21"/>
-      <c r="J51" s="21"/>
-      <c r="K51" s="21"/>
-      <c r="L51" s="21"/>
-      <c r="M51" s="21"/>
-      <c r="N51" s="21"/>
-      <c r="O51" s="21"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="14"/>
     </row>
     <row r="52" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="12" t="s">
+      <c r="A52" s="30" t="s">
         <v>170</v>
       </c>
-      <c r="B52" s="12"/>
-      <c r="C52" s="12"/>
-      <c r="D52" s="12"/>
+      <c r="B52" s="30"/>
+      <c r="C52" s="30"/>
+      <c r="D52" s="30"/>
       <c r="E52" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="F52" s="17" t="s">
+      <c r="F52" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="G52" s="21"/>
-      <c r="H52" s="21"/>
-      <c r="I52" s="21"/>
-      <c r="J52" s="21"/>
-      <c r="K52" s="21"/>
-      <c r="L52" s="21"/>
-      <c r="M52" s="21"/>
-      <c r="N52" s="21"/>
-      <c r="O52" s="21"/>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.8">
-      <c r="A53" s="23" t="s">
+      <c r="A53" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="B53" s="23"/>
-      <c r="C53" s="23"/>
-      <c r="D53" s="23"/>
-      <c r="E53" s="24">
+      <c r="B53" s="29"/>
+      <c r="C53" s="29"/>
+      <c r="D53" s="29"/>
+      <c r="E53" s="16">
         <f>SUMIF(D4:D49,"ศึกษาทั่วไป-บังคับ-ภาษาและการสื่อสาร",E4:E49)</f>
         <v>12</v>
       </c>
@@ -7388,13 +7345,13 @@
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.8">
-      <c r="A54" s="23" t="s">
+      <c r="A54" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="B54" s="23"/>
-      <c r="C54" s="23"/>
-      <c r="D54" s="23"/>
-      <c r="E54" s="24">
+      <c r="B54" s="29"/>
+      <c r="C54" s="29"/>
+      <c r="D54" s="29"/>
+      <c r="E54" s="16">
         <f>SUMIF(D4:D49,"ศึกษาทั่วไป-บังคับ-สุขภาพ",E4:E49)</f>
         <v>3</v>
       </c>
@@ -7403,13 +7360,13 @@
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.8">
-      <c r="A55" s="23" t="s">
+      <c r="A55" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="B55" s="23"/>
-      <c r="C55" s="23"/>
-      <c r="D55" s="23"/>
-      <c r="E55" s="24">
+      <c r="B55" s="29"/>
+      <c r="C55" s="29"/>
+      <c r="D55" s="29"/>
+      <c r="E55" s="16">
         <f>SUMIF(D4:D49,"ศึกษาทั่วไป-บังคับ-บูรณาการ",E4:E49)</f>
         <v>9</v>
       </c>
@@ -7418,13 +7375,13 @@
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.8">
-      <c r="A56" s="23" t="s">
+      <c r="A56" s="29" t="s">
         <v>168</v>
       </c>
-      <c r="B56" s="23"/>
-      <c r="C56" s="23"/>
-      <c r="D56" s="23"/>
-      <c r="E56" s="24">
+      <c r="B56" s="29"/>
+      <c r="C56" s="29"/>
+      <c r="D56" s="29"/>
+      <c r="E56" s="16">
         <f>SUMIF(D1:D45,"ศึกษาทั่วไป-สังคมศาสตร์และมนุยศาสตร์",E1:E45)</f>
         <v>3</v>
       </c>
@@ -7433,13 +7390,13 @@
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.8">
-      <c r="A57" s="23" t="s">
+      <c r="A57" s="29" t="s">
         <v>169</v>
       </c>
-      <c r="B57" s="23"/>
-      <c r="C57" s="23"/>
-      <c r="D57" s="23"/>
-      <c r="E57" s="24">
+      <c r="B57" s="29"/>
+      <c r="C57" s="29"/>
+      <c r="D57" s="29"/>
+      <c r="E57" s="16">
         <f>SUMIF(D4:D49,"ศึกษาทั่วไป-วิทยาศาสตร์และคณิตศาสตร์",E4:E49)</f>
         <v>3</v>
       </c>
@@ -7448,13 +7405,13 @@
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.8">
-      <c r="A58" s="25" t="s">
+      <c r="A58" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="B58" s="25"/>
-      <c r="C58" s="25"/>
-      <c r="D58" s="25"/>
-      <c r="E58" s="26">
+      <c r="B58" s="26"/>
+      <c r="C58" s="26"/>
+      <c r="D58" s="26"/>
+      <c r="E58" s="17">
         <f>SUMIF(D4:D49,"วิชาเฉพาะพื้นฐานวิชาชีพ",E4:E49)</f>
         <v>32</v>
       </c>
@@ -7463,13 +7420,13 @@
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.8">
-      <c r="A59" s="25" t="s">
+      <c r="A59" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="B59" s="25"/>
-      <c r="C59" s="25"/>
-      <c r="D59" s="25"/>
-      <c r="E59" s="26">
+      <c r="B59" s="26"/>
+      <c r="C59" s="26"/>
+      <c r="D59" s="26"/>
+      <c r="E59" s="17">
         <f>SUMIF(D4:D49,"วิชาเฉพาะชีพบังคับ",E4:E49)</f>
         <v>55</v>
       </c>
@@ -7478,13 +7435,13 @@
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.8">
-      <c r="A60" s="25" t="s">
+      <c r="A60" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="B60" s="25"/>
-      <c r="C60" s="25"/>
-      <c r="D60" s="25"/>
-      <c r="E60" s="26">
+      <c r="B60" s="26"/>
+      <c r="C60" s="26"/>
+      <c r="D60" s="26"/>
+      <c r="E60" s="17">
         <f>SUMIF(D4:D49,"วิชาเฉพาะชีพเลือก",E4:E49)</f>
         <v>12</v>
       </c>
@@ -7499,7 +7456,7 @@
       <c r="B61" s="27"/>
       <c r="C61" s="27"/>
       <c r="D61" s="27"/>
-      <c r="E61" s="28">
+      <c r="E61" s="18">
         <f>SUMIF(D4:D49,"วิชาเลือกเสรี",E4:E49)</f>
         <v>6</v>
       </c>
@@ -7508,12 +7465,12 @@
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.8">
-      <c r="A62" s="18" t="s">
+      <c r="A62" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="B62" s="18"/>
-      <c r="C62" s="18"/>
-      <c r="D62" s="18"/>
+      <c r="B62" s="28"/>
+      <c r="C62" s="28"/>
+      <c r="D62" s="28"/>
       <c r="E62" s="2">
         <f>SUM(E53:E61)</f>
         <v>135</v>
@@ -7531,20 +7488,20 @@
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <autoFilter ref="D3:D50" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="14">
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="A62:D62"/>
+    <mergeCell ref="A61:D61"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="A54:D54"/>
+    <mergeCell ref="A57:D57"/>
     <mergeCell ref="A53:D53"/>
     <mergeCell ref="A55:D55"/>
     <mergeCell ref="A58:D58"/>
     <mergeCell ref="A60:D60"/>
     <mergeCell ref="A56:D56"/>
-    <mergeCell ref="A62:D62"/>
-    <mergeCell ref="A61:D61"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="A54:D54"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="A2:O2"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7556,8 +7513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FE38C47-0285-4AD9-96AE-F257CA4C57E5}">
   <dimension ref="A1:V62"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E68" sqref="E68"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I51" sqref="I51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="24" x14ac:dyDescent="0.8"/>
@@ -7575,56 +7532,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.8">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="16"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="34"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.8">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
-      <c r="U2" s="15"/>
-      <c r="V2" s="16"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="33"/>
+      <c r="V2" s="34"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.8">
       <c r="A3" s="2" t="s">
@@ -7710,7 +7667,7 @@
       <c r="E4" s="11">
         <v>3</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="13" t="s">
         <v>159</v>
       </c>
       <c r="G4" s="11"/>
@@ -7776,7 +7733,7 @@
       <c r="E5" s="11">
         <v>3</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="13" t="s">
         <v>159</v>
       </c>
       <c r="G5" s="11"/>
@@ -7842,7 +7799,7 @@
       <c r="E6" s="11">
         <v>3</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="13" t="s">
         <v>159</v>
       </c>
       <c r="G6" s="11"/>
@@ -7908,7 +7865,7 @@
       <c r="E7" s="11">
         <v>3</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="13" t="s">
         <v>159</v>
       </c>
       <c r="G7" s="11"/>
@@ -7974,7 +7931,7 @@
       <c r="E8" s="11">
         <v>3</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="F8" s="13" t="s">
         <v>159</v>
       </c>
       <c r="G8" s="11"/>
@@ -8040,7 +7997,7 @@
       <c r="E9" s="11">
         <v>3</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="F9" s="13" t="s">
         <v>159</v>
       </c>
       <c r="G9" s="11"/>
@@ -8106,7 +8063,7 @@
       <c r="E10" s="11">
         <v>3</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="13" t="s">
         <v>159</v>
       </c>
       <c r="G10" s="11"/>
@@ -8172,7 +8129,7 @@
       <c r="E11" s="3">
         <v>3</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="F11" s="12" t="s">
         <v>160</v>
       </c>
       <c r="G11" s="3"/>
@@ -8238,7 +8195,7 @@
       <c r="E12" s="3">
         <v>3</v>
       </c>
-      <c r="F12" s="17" t="s">
+      <c r="F12" s="12" t="s">
         <v>160</v>
       </c>
       <c r="G12" s="3"/>
@@ -8304,7 +8261,7 @@
       <c r="E13" s="3">
         <v>3</v>
       </c>
-      <c r="F13" s="17" t="s">
+      <c r="F13" s="12" t="s">
         <v>160</v>
       </c>
       <c r="G13" s="3"/>
@@ -8370,7 +8327,7 @@
       <c r="E14" s="3">
         <v>3</v>
       </c>
-      <c r="F14" s="17" t="s">
+      <c r="F14" s="12" t="s">
         <v>160</v>
       </c>
       <c r="G14" s="3" t="s">
@@ -8438,7 +8395,7 @@
       <c r="E15" s="3">
         <v>3</v>
       </c>
-      <c r="F15" s="17" t="s">
+      <c r="F15" s="12" t="s">
         <v>160</v>
       </c>
       <c r="G15" s="3"/>
@@ -8504,7 +8461,7 @@
       <c r="E16" s="3">
         <v>3</v>
       </c>
-      <c r="F16" s="17" t="s">
+      <c r="F16" s="12" t="s">
         <v>160</v>
       </c>
       <c r="G16" s="3" t="s">
@@ -8572,7 +8529,7 @@
       <c r="E17" s="11">
         <v>3</v>
       </c>
-      <c r="F17" s="19" t="s">
+      <c r="F17" s="13" t="s">
         <v>161</v>
       </c>
       <c r="G17" s="11" t="s">
@@ -8640,7 +8597,7 @@
       <c r="E18" s="11">
         <v>3</v>
       </c>
-      <c r="F18" s="19" t="s">
+      <c r="F18" s="13" t="s">
         <v>161</v>
       </c>
       <c r="G18" s="11"/>
@@ -8706,7 +8663,7 @@
       <c r="E19" s="11">
         <v>3</v>
       </c>
-      <c r="F19" s="19" t="s">
+      <c r="F19" s="13" t="s">
         <v>161</v>
       </c>
       <c r="G19" s="11" t="s">
@@ -8774,7 +8731,7 @@
       <c r="E20" s="11">
         <v>3</v>
       </c>
-      <c r="F20" s="19" t="s">
+      <c r="F20" s="13" t="s">
         <v>161</v>
       </c>
       <c r="G20" s="11" t="s">
@@ -8838,7 +8795,7 @@
       <c r="E21" s="11">
         <v>3</v>
       </c>
-      <c r="F21" s="19" t="s">
+      <c r="F21" s="13" t="s">
         <v>161</v>
       </c>
       <c r="G21" s="11"/>
@@ -8904,7 +8861,7 @@
       <c r="E22" s="11">
         <v>3</v>
       </c>
-      <c r="F22" s="19" t="s">
+      <c r="F22" s="13" t="s">
         <v>161</v>
       </c>
       <c r="G22" s="11"/>
@@ -8970,7 +8927,7 @@
       <c r="E23" s="11">
         <v>3</v>
       </c>
-      <c r="F23" s="19" t="s">
+      <c r="F23" s="13" t="s">
         <v>161</v>
       </c>
       <c r="G23" s="11"/>
@@ -9036,7 +8993,7 @@
       <c r="E24" s="11">
         <v>3</v>
       </c>
-      <c r="F24" s="19" t="s">
+      <c r="F24" s="13" t="s">
         <v>161</v>
       </c>
       <c r="G24" s="11" t="s">
@@ -9092,22 +9049,22 @@
       <c r="A25" s="11">
         <v>22</v>
       </c>
-      <c r="B25" s="32" t="s">
+      <c r="B25" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C25" s="32" t="s">
+      <c r="C25" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D25" s="32" t="s">
+      <c r="D25" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E25" s="32">
-        <v>3</v>
-      </c>
-      <c r="F25" s="33" t="s">
+      <c r="E25" s="3">
+        <v>3</v>
+      </c>
+      <c r="F25" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="G25" s="32" t="s">
+      <c r="G25" s="3" t="s">
         <v>61</v>
       </c>
       <c r="H25" s="7"/>
@@ -9142,7 +9099,7 @@
       <c r="E26" s="3">
         <v>3</v>
       </c>
-      <c r="F26" s="17" t="s">
+      <c r="F26" s="12" t="s">
         <v>162</v>
       </c>
       <c r="G26" s="3" t="s">
@@ -9196,7 +9153,7 @@
       <c r="E27" s="3">
         <v>3</v>
       </c>
-      <c r="F27" s="17" t="s">
+      <c r="F27" s="12" t="s">
         <v>162</v>
       </c>
       <c r="G27" s="3" t="s">
@@ -9250,7 +9207,7 @@
       <c r="E28" s="3">
         <v>3</v>
       </c>
-      <c r="F28" s="17" t="s">
+      <c r="F28" s="12" t="s">
         <v>162</v>
       </c>
       <c r="G28" s="3" t="s">
@@ -9288,7 +9245,7 @@
       <c r="E29" s="3">
         <v>1</v>
       </c>
-      <c r="F29" s="17" t="s">
+      <c r="F29" s="12" t="s">
         <v>162</v>
       </c>
       <c r="G29" s="3"/>
@@ -9324,7 +9281,7 @@
       <c r="E30" s="3">
         <v>3</v>
       </c>
-      <c r="F30" s="17" t="s">
+      <c r="F30" s="12" t="s">
         <v>162</v>
       </c>
       <c r="G30" s="3"/>
@@ -9360,7 +9317,7 @@
       <c r="E31" s="3">
         <v>3</v>
       </c>
-      <c r="F31" s="17" t="s">
+      <c r="F31" s="12" t="s">
         <v>162</v>
       </c>
       <c r="G31" s="3" t="s">
@@ -9398,7 +9355,7 @@
       <c r="E32" s="3">
         <v>3</v>
       </c>
-      <c r="F32" s="17" t="s">
+      <c r="F32" s="12" t="s">
         <v>162</v>
       </c>
       <c r="G32" s="3"/>
@@ -9432,13 +9389,13 @@
       <c r="Q32" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="R32" s="34" t="s">
+      <c r="R32" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="S32" s="34" t="s">
+      <c r="S32" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="T32" s="34" t="s">
+      <c r="T32" s="21" t="s">
         <v>153</v>
       </c>
       <c r="U32" s="8" t="s">
@@ -9464,7 +9421,7 @@
       <c r="E33" s="3">
         <v>3</v>
       </c>
-      <c r="F33" s="17" t="s">
+      <c r="F33" s="12" t="s">
         <v>162</v>
       </c>
       <c r="G33" s="3"/>
@@ -9516,7 +9473,7 @@
       <c r="E34" s="11">
         <v>3</v>
       </c>
-      <c r="F34" s="19" t="s">
+      <c r="F34" s="13" t="s">
         <v>163</v>
       </c>
       <c r="G34" s="11" t="s">
@@ -9554,7 +9511,7 @@
       <c r="E35" s="11">
         <v>3</v>
       </c>
-      <c r="F35" s="19" t="s">
+      <c r="F35" s="13" t="s">
         <v>163</v>
       </c>
       <c r="G35" s="11" t="s">
@@ -9592,7 +9549,7 @@
       <c r="E36" s="11">
         <v>3</v>
       </c>
-      <c r="F36" s="19" t="s">
+      <c r="F36" s="13" t="s">
         <v>163</v>
       </c>
       <c r="G36" s="11"/>
@@ -9634,7 +9591,7 @@
       <c r="E37" s="11">
         <v>3</v>
       </c>
-      <c r="F37" s="19" t="s">
+      <c r="F37" s="13" t="s">
         <v>163</v>
       </c>
       <c r="G37" s="11"/>
@@ -9696,7 +9653,7 @@
       <c r="E38" s="11">
         <v>3</v>
       </c>
-      <c r="F38" s="19" t="s">
+      <c r="F38" s="13" t="s">
         <v>163</v>
       </c>
       <c r="G38" s="11" t="s">
@@ -9734,7 +9691,7 @@
       <c r="E39" s="11">
         <v>3</v>
       </c>
-      <c r="F39" s="19" t="s">
+      <c r="F39" s="13" t="s">
         <v>163</v>
       </c>
       <c r="G39" s="11" t="s">
@@ -9772,7 +9729,7 @@
       <c r="E40" s="11">
         <v>3</v>
       </c>
-      <c r="F40" s="19" t="s">
+      <c r="F40" s="13" t="s">
         <v>163</v>
       </c>
       <c r="G40" s="11"/>
@@ -9796,22 +9753,22 @@
       <c r="A41" s="11">
         <v>38</v>
       </c>
-      <c r="B41" s="30" t="s">
+      <c r="B41" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="C41" s="30" t="s">
+      <c r="C41" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D41" s="30" t="s">
+      <c r="D41" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="E41" s="30">
+      <c r="E41" s="19">
         <v>4</v>
       </c>
-      <c r="F41" s="31" t="s">
+      <c r="F41" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="G41" s="30" t="s">
+      <c r="G41" s="19" t="s">
         <v>174</v>
       </c>
       <c r="H41" s="7"/>
@@ -9846,7 +9803,7 @@
       <c r="E42" s="3">
         <v>1</v>
       </c>
-      <c r="F42" s="17" t="s">
+      <c r="F42" s="12" t="s">
         <v>165</v>
       </c>
       <c r="G42" s="3"/>
@@ -9882,7 +9839,7 @@
       <c r="E43" s="3">
         <v>1</v>
       </c>
-      <c r="F43" s="17" t="s">
+      <c r="F43" s="12" t="s">
         <v>165</v>
       </c>
       <c r="G43" s="3"/>
@@ -9918,7 +9875,7 @@
       <c r="E44" s="3">
         <v>2</v>
       </c>
-      <c r="F44" s="17" t="s">
+      <c r="F44" s="12" t="s">
         <v>165</v>
       </c>
       <c r="G44" s="3"/>
@@ -9984,7 +9941,7 @@
       <c r="E45" s="3">
         <v>3</v>
       </c>
-      <c r="F45" s="17" t="s">
+      <c r="F45" s="12" t="s">
         <v>165</v>
       </c>
       <c r="G45" s="3"/>
@@ -10020,7 +9977,7 @@
       <c r="E46" s="3">
         <v>3</v>
       </c>
-      <c r="F46" s="17" t="s">
+      <c r="F46" s="12" t="s">
         <v>165</v>
       </c>
       <c r="G46" s="3"/>
@@ -10056,7 +10013,7 @@
       <c r="E47" s="3">
         <v>3</v>
       </c>
-      <c r="F47" s="17" t="s">
+      <c r="F47" s="12" t="s">
         <v>165</v>
       </c>
       <c r="G47" s="3"/>
@@ -10092,7 +10049,7 @@
       <c r="E48" s="11">
         <v>6</v>
       </c>
-      <c r="F48" s="19" t="s">
+      <c r="F48" s="13" t="s">
         <v>164</v>
       </c>
       <c r="G48" s="11" t="s">
@@ -10118,22 +10075,22 @@
       <c r="A49" s="11">
         <v>46</v>
       </c>
-      <c r="B49" s="30" t="s">
+      <c r="B49" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="C49" s="30" t="s">
+      <c r="C49" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="D49" s="30" t="s">
+      <c r="D49" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="E49" s="30">
-        <v>3</v>
-      </c>
-      <c r="F49" s="31" t="s">
+      <c r="E49" s="19">
+        <v>3</v>
+      </c>
+      <c r="F49" s="20" t="s">
         <v>166</v>
       </c>
-      <c r="G49" s="30" t="s">
+      <c r="G49" s="19" t="s">
         <v>113</v>
       </c>
       <c r="H49" s="3"/>
@@ -10153,40 +10110,40 @@
       <c r="V49" s="2"/>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.8">
-      <c r="A50" s="12" t="s">
+      <c r="A50" s="30" t="s">
         <v>167</v>
       </c>
-      <c r="B50" s="12"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
+      <c r="B50" s="30"/>
+      <c r="C50" s="30"/>
+      <c r="D50" s="30"/>
       <c r="E50" s="3">
         <f>SUM(E4:E49)</f>
         <v>135</v>
       </c>
-      <c r="F50" s="29"/>
+      <c r="F50" s="10"/>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.8">
-      <c r="A52" s="12" t="s">
+      <c r="A52" s="30" t="s">
         <v>170</v>
       </c>
-      <c r="B52" s="12"/>
-      <c r="C52" s="12"/>
-      <c r="D52" s="12"/>
+      <c r="B52" s="30"/>
+      <c r="C52" s="30"/>
+      <c r="D52" s="30"/>
       <c r="E52" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="F52" s="17" t="s">
+      <c r="F52" s="12" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.8">
-      <c r="A53" s="23" t="s">
+      <c r="A53" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="B53" s="23"/>
-      <c r="C53" s="23"/>
-      <c r="D53" s="23"/>
-      <c r="E53" s="24">
+      <c r="B53" s="29"/>
+      <c r="C53" s="29"/>
+      <c r="D53" s="29"/>
+      <c r="E53" s="16">
         <f>SUMIF(D4:D49,"ศึกษาทั่วไป-บังคับ-ภาษาและการสื่อสาร",E4:E49)</f>
         <v>12</v>
       </c>
@@ -10195,13 +10152,13 @@
       </c>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.8">
-      <c r="A54" s="23" t="s">
+      <c r="A54" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="B54" s="23"/>
-      <c r="C54" s="23"/>
-      <c r="D54" s="23"/>
-      <c r="E54" s="24">
+      <c r="B54" s="29"/>
+      <c r="C54" s="29"/>
+      <c r="D54" s="29"/>
+      <c r="E54" s="16">
         <f>SUMIF(D4:D49,"ศึกษาทั่วไป-บังคับ-สุขภาพ",E4:E49)</f>
         <v>3</v>
       </c>
@@ -10210,13 +10167,13 @@
       </c>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.8">
-      <c r="A55" s="23" t="s">
+      <c r="A55" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="B55" s="23"/>
-      <c r="C55" s="23"/>
-      <c r="D55" s="23"/>
-      <c r="E55" s="24">
+      <c r="B55" s="29"/>
+      <c r="C55" s="29"/>
+      <c r="D55" s="29"/>
+      <c r="E55" s="16">
         <f>SUMIF(D4:D49,"ศึกษาทั่วไป-บังคับ-บูรณาการ",E4:E49)</f>
         <v>9</v>
       </c>
@@ -10225,13 +10182,13 @@
       </c>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.8">
-      <c r="A56" s="23" t="s">
+      <c r="A56" s="29" t="s">
         <v>168</v>
       </c>
-      <c r="B56" s="23"/>
-      <c r="C56" s="23"/>
-      <c r="D56" s="23"/>
-      <c r="E56" s="24">
+      <c r="B56" s="29"/>
+      <c r="C56" s="29"/>
+      <c r="D56" s="29"/>
+      <c r="E56" s="16">
         <f>SUMIF(D4:D49,"ศึกษาทั่วไป-สังคมศาสตร์และมนุยศาสตร์",E4:E49)</f>
         <v>3</v>
       </c>
@@ -10240,13 +10197,13 @@
       </c>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.8">
-      <c r="A57" s="23" t="s">
+      <c r="A57" s="29" t="s">
         <v>169</v>
       </c>
-      <c r="B57" s="23"/>
-      <c r="C57" s="23"/>
-      <c r="D57" s="23"/>
-      <c r="E57" s="24">
+      <c r="B57" s="29"/>
+      <c r="C57" s="29"/>
+      <c r="D57" s="29"/>
+      <c r="E57" s="16">
         <f>SUMIF(D4:D49,"ศึกษาทั่วไป-วิทยาศาสตร์และคณิตศาสตร์",E4:E49)</f>
         <v>3</v>
       </c>
@@ -10255,13 +10212,13 @@
       </c>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.8">
-      <c r="A58" s="25" t="s">
+      <c r="A58" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="B58" s="25"/>
-      <c r="C58" s="25"/>
-      <c r="D58" s="25"/>
-      <c r="E58" s="26">
+      <c r="B58" s="26"/>
+      <c r="C58" s="26"/>
+      <c r="D58" s="26"/>
+      <c r="E58" s="17">
         <f>SUMIF(D4:D49,"วิชาเฉพาะพื้นฐานวิชาชีพ",E4:E49)</f>
         <v>32</v>
       </c>
@@ -10270,13 +10227,13 @@
       </c>
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.8">
-      <c r="A59" s="25" t="s">
+      <c r="A59" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="B59" s="25"/>
-      <c r="C59" s="25"/>
-      <c r="D59" s="25"/>
-      <c r="E59" s="26">
+      <c r="B59" s="26"/>
+      <c r="C59" s="26"/>
+      <c r="D59" s="26"/>
+      <c r="E59" s="17">
         <f>SUMIF(D3:D49,"วิชาเฉพาะชีพบังคับ",E3:E49)</f>
         <v>55</v>
       </c>
@@ -10285,13 +10242,13 @@
       </c>
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.8">
-      <c r="A60" s="25" t="s">
+      <c r="A60" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="B60" s="25"/>
-      <c r="C60" s="25"/>
-      <c r="D60" s="25"/>
-      <c r="E60" s="26">
+      <c r="B60" s="26"/>
+      <c r="C60" s="26"/>
+      <c r="D60" s="26"/>
+      <c r="E60" s="17">
         <f>SUMIF(D4:D49,"วิชาเฉพาะชีพเลือก",E4:E49)</f>
         <v>12</v>
       </c>
@@ -10306,7 +10263,7 @@
       <c r="B61" s="27"/>
       <c r="C61" s="27"/>
       <c r="D61" s="27"/>
-      <c r="E61" s="28">
+      <c r="E61" s="18">
         <f>SUMIF(D4:D49,"วิชาเลือกเสรี",E4:E49)</f>
         <v>6</v>
       </c>
@@ -10315,12 +10272,12 @@
       </c>
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.8">
-      <c r="A62" s="18" t="s">
+      <c r="A62" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="B62" s="18"/>
-      <c r="C62" s="18"/>
-      <c r="D62" s="18"/>
+      <c r="B62" s="28"/>
+      <c r="C62" s="28"/>
+      <c r="D62" s="28"/>
       <c r="E62" s="2">
         <f>SUM(E53:E61)</f>
         <v>135</v>
@@ -10334,6 +10291,13 @@
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <autoFilter ref="D3:D50" xr:uid="{3FE38C47-0285-4AD9-96AE-F257CA4C57E5}"/>
   <mergeCells count="14">
+    <mergeCell ref="A54:D54"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="A2:V2"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="A53:D53"/>
     <mergeCell ref="A61:D61"/>
     <mergeCell ref="A62:D62"/>
     <mergeCell ref="A56:D56"/>
@@ -10341,13 +10305,6 @@
     <mergeCell ref="A58:D58"/>
     <mergeCell ref="A59:D59"/>
     <mergeCell ref="A60:D60"/>
-    <mergeCell ref="A1:V1"/>
-    <mergeCell ref="A2:V2"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="A53:D53"/>
-    <mergeCell ref="A54:D54"/>
-    <mergeCell ref="A55:D55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/RMUTL_DOCUMENT/ตรวจสอบเรียนครบหลักสูตร.xlsx
+++ b/RMUTL_DOCUMENT/ตรวจสอบเรียนครบหลักสูตร.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOBSTER69\Documents\GitHub\WORK\RMUTL_DOCUMENT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCBB4249-8CAE-4A1B-B9F8-99889397FE3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4B97D17-8EC5-4269-869E-6B78108230DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="628" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2667" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2682" uniqueCount="245">
   <si>
     <t>มหาวิทยาลัยเทคโนโลยีราชมงคลล้านนา เชียงราย</t>
   </si>
@@ -784,7 +784,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -817,6 +817,10 @@
       <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="9">
@@ -946,7 +950,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1019,60 +1023,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1085,13 +1035,55 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1417,57 +1409,57 @@
     <col min="9" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-    </row>
-    <row r="2" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="38" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+    </row>
+    <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="35" t="s">
         <v>177</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-    </row>
-    <row r="3" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="35" t="s">
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+    </row>
+    <row r="3" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="35" t="s">
+      <c r="C3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="35" t="s">
+      <c r="E3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="35" t="s">
+      <c r="F3" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="G3" s="35" t="s">
+      <c r="G3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="11">
         <v>1</v>
       </c>
@@ -1477,7 +1469,7 @@
       <c r="C4" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="D4" s="47"/>
+      <c r="D4" s="29"/>
       <c r="E4" s="11">
         <v>3</v>
       </c>
@@ -1487,7 +1479,7 @@
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
     </row>
-    <row r="5" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="11">
         <v>2</v>
       </c>
@@ -1497,7 +1489,7 @@
       <c r="C5" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="D5" s="47" t="s">
+      <c r="D5" s="29" t="s">
         <v>215</v>
       </c>
       <c r="E5" s="11">
@@ -1509,7 +1501,7 @@
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
     </row>
-    <row r="6" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="11">
         <v>3</v>
       </c>
@@ -1519,7 +1511,7 @@
       <c r="C6" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="47" t="s">
+      <c r="D6" s="29" t="s">
         <v>216</v>
       </c>
       <c r="E6" s="11">
@@ -1531,7 +1523,7 @@
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
     </row>
-    <row r="7" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="11">
         <v>4</v>
       </c>
@@ -1541,7 +1533,7 @@
       <c r="C7" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="47" t="s">
+      <c r="D7" s="29" t="s">
         <v>216</v>
       </c>
       <c r="E7" s="11">
@@ -1553,7 +1545,7 @@
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
     </row>
-    <row r="8" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="11">
         <v>5</v>
       </c>
@@ -1563,7 +1555,7 @@
       <c r="C8" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="47" t="s">
+      <c r="D8" s="29" t="s">
         <v>216</v>
       </c>
       <c r="E8" s="11">
@@ -1575,7 +1567,7 @@
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
     </row>
-    <row r="9" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="11">
         <v>6</v>
       </c>
@@ -1585,7 +1577,7 @@
       <c r="C9" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="D9" s="47" t="s">
+      <c r="D9" s="29" t="s">
         <v>216</v>
       </c>
       <c r="E9" s="11">
@@ -1597,7 +1589,7 @@
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
     </row>
-    <row r="10" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11">
         <v>7</v>
       </c>
@@ -1607,7 +1599,7 @@
       <c r="C10" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="47" t="s">
+      <c r="D10" s="29" t="s">
         <v>216</v>
       </c>
       <c r="E10" s="11">
@@ -1619,163 +1611,163 @@
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
     </row>
-    <row r="11" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="35">
+    <row r="11" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="3">
         <v>8</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="D11" s="48"/>
-      <c r="E11" s="35">
-        <v>3</v>
-      </c>
-      <c r="F11" s="36" t="s">
+      <c r="D11" s="30"/>
+      <c r="E11" s="3">
+        <v>3</v>
+      </c>
+      <c r="F11" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-    </row>
-    <row r="12" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="35">
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="3">
         <v>9</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="35" t="s">
+      <c r="C12" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="48" t="s">
+      <c r="D12" s="30" t="s">
         <v>215</v>
       </c>
-      <c r="E12" s="35">
-        <v>3</v>
-      </c>
-      <c r="F12" s="36" t="s">
+      <c r="E12" s="3">
+        <v>3</v>
+      </c>
+      <c r="F12" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="G12" s="35" t="s">
+      <c r="G12" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="H12" s="35"/>
-    </row>
-    <row r="13" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="35">
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="3">
         <v>10</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="C13" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="48" t="s">
+      <c r="D13" s="30" t="s">
         <v>215</v>
       </c>
-      <c r="E13" s="35">
+      <c r="E13" s="3">
         <v>4</v>
       </c>
-      <c r="F13" s="36" t="s">
+      <c r="F13" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-    </row>
-    <row r="14" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="35">
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="3">
         <v>11</v>
       </c>
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="35" t="s">
+      <c r="C14" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="48" t="s">
+      <c r="D14" s="30" t="s">
         <v>219</v>
       </c>
-      <c r="E14" s="35">
-        <v>3</v>
-      </c>
-      <c r="F14" s="36" t="s">
+      <c r="E14" s="3">
+        <v>3</v>
+      </c>
+      <c r="F14" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="G14" s="35" t="s">
+      <c r="G14" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H14" s="35"/>
-    </row>
-    <row r="15" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="35">
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="3">
         <v>12</v>
       </c>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C15" s="35" t="s">
+      <c r="C15" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D15" s="48" t="s">
+      <c r="D15" s="30" t="s">
         <v>218</v>
       </c>
-      <c r="E15" s="35">
-        <v>3</v>
-      </c>
-      <c r="F15" s="36" t="s">
+      <c r="E15" s="3">
+        <v>3</v>
+      </c>
+      <c r="F15" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-    </row>
-    <row r="16" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="35">
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="3">
         <v>13</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C16" s="35" t="s">
+      <c r="C16" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D16" s="48" t="s">
+      <c r="D16" s="30" t="s">
         <v>217</v>
       </c>
-      <c r="E16" s="35">
+      <c r="E16" s="3">
         <v>2</v>
       </c>
-      <c r="F16" s="36" t="s">
+      <c r="F16" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-    </row>
-    <row r="17" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="35">
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="3">
         <v>14</v>
       </c>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C17" s="35" t="s">
+      <c r="C17" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="48" t="s">
+      <c r="D17" s="30" t="s">
         <v>216</v>
       </c>
-      <c r="E17" s="35">
-        <v>3</v>
-      </c>
-      <c r="F17" s="36" t="s">
+      <c r="E17" s="3">
+        <v>3</v>
+      </c>
+      <c r="F17" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-    </row>
-    <row r="18" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="11">
         <v>15</v>
       </c>
@@ -1785,7 +1777,7 @@
       <c r="C18" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="D18" s="47"/>
+      <c r="D18" s="29"/>
       <c r="E18" s="11">
         <v>3</v>
       </c>
@@ -1795,7 +1787,7 @@
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
     </row>
-    <row r="19" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="11">
         <v>16</v>
       </c>
@@ -1805,7 +1797,7 @@
       <c r="C19" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="D19" s="47" t="s">
+      <c r="D19" s="29" t="s">
         <v>216</v>
       </c>
       <c r="E19" s="11">
@@ -1819,7 +1811,7 @@
       </c>
       <c r="H19" s="11"/>
     </row>
-    <row r="20" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="11">
         <v>17</v>
       </c>
@@ -1829,7 +1821,7 @@
       <c r="C20" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="D20" s="47" t="s">
+      <c r="D20" s="29" t="s">
         <v>215</v>
       </c>
       <c r="E20" s="11">
@@ -1843,7 +1835,7 @@
       </c>
       <c r="H20" s="11"/>
     </row>
-    <row r="21" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="11">
         <v>18</v>
       </c>
@@ -1853,7 +1845,7 @@
       <c r="C21" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="D21" s="47" t="s">
+      <c r="D21" s="29" t="s">
         <v>218</v>
       </c>
       <c r="E21" s="11">
@@ -1867,7 +1859,7 @@
       </c>
       <c r="H21" s="11"/>
     </row>
-    <row r="22" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="11">
         <v>19</v>
       </c>
@@ -1877,7 +1869,7 @@
       <c r="C22" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="D22" s="47" t="s">
+      <c r="D22" s="29" t="s">
         <v>218</v>
       </c>
       <c r="E22" s="11">
@@ -1889,7 +1881,7 @@
       <c r="G22" s="11"/>
       <c r="H22" s="11"/>
     </row>
-    <row r="23" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="11">
         <v>20</v>
       </c>
@@ -1899,7 +1891,7 @@
       <c r="C23" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="D23" s="47" t="s">
+      <c r="D23" s="29" t="s">
         <v>217</v>
       </c>
       <c r="E23" s="11">
@@ -1913,7 +1905,7 @@
       </c>
       <c r="H23" s="11"/>
     </row>
-    <row r="24" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="11">
         <v>21</v>
       </c>
@@ -1923,7 +1915,7 @@
       <c r="C24" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="D24" s="47" t="s">
+      <c r="D24" s="29" t="s">
         <v>218</v>
       </c>
       <c r="E24" s="11">
@@ -1937,167 +1929,167 @@
       </c>
       <c r="H24" s="11"/>
     </row>
-    <row r="25" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="35">
+    <row r="25" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="3">
         <v>22</v>
       </c>
-      <c r="B25" s="35" t="s">
+      <c r="B25" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="C25" s="35" t="s">
+      <c r="C25" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="D25" s="48"/>
-      <c r="E25" s="35">
-        <v>3</v>
-      </c>
-      <c r="F25" s="36" t="s">
+      <c r="D25" s="30"/>
+      <c r="E25" s="3">
+        <v>3</v>
+      </c>
+      <c r="F25" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="G25" s="35"/>
-      <c r="H25" s="35"/>
-    </row>
-    <row r="26" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="35">
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="3">
         <v>23</v>
       </c>
-      <c r="B26" s="35" t="s">
+      <c r="B26" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="C26" s="35" t="s">
+      <c r="C26" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="D26" s="48"/>
-      <c r="E26" s="35">
-        <v>3</v>
-      </c>
-      <c r="F26" s="36" t="s">
+      <c r="D26" s="30"/>
+      <c r="E26" s="3">
+        <v>3</v>
+      </c>
+      <c r="F26" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="G26" s="35"/>
-      <c r="H26" s="35"/>
-    </row>
-    <row r="27" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="35">
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+    </row>
+    <row r="27" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="3">
         <v>24</v>
       </c>
-      <c r="B27" s="35" t="s">
+      <c r="B27" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C27" s="35" t="s">
+      <c r="C27" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D27" s="48" t="s">
+      <c r="D27" s="30" t="s">
         <v>217</v>
       </c>
-      <c r="E27" s="35">
-        <v>3</v>
-      </c>
-      <c r="F27" s="36" t="s">
+      <c r="E27" s="3">
+        <v>3</v>
+      </c>
+      <c r="F27" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="G27" s="35" t="s">
+      <c r="G27" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="H27" s="35"/>
-    </row>
-    <row r="28" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="35">
+      <c r="H27" s="3"/>
+    </row>
+    <row r="28" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="3">
         <v>25</v>
       </c>
-      <c r="B28" s="35" t="s">
+      <c r="B28" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C28" s="35" t="s">
+      <c r="C28" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D28" s="48" t="s">
+      <c r="D28" s="30" t="s">
         <v>218</v>
       </c>
-      <c r="E28" s="35">
-        <v>3</v>
-      </c>
-      <c r="F28" s="36" t="s">
+      <c r="E28" s="3">
+        <v>3</v>
+      </c>
+      <c r="F28" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="G28" s="35" t="s">
+      <c r="G28" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="H28" s="35"/>
-    </row>
-    <row r="29" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="35">
+      <c r="H28" s="3"/>
+    </row>
+    <row r="29" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="3">
         <v>26</v>
       </c>
-      <c r="B29" s="35" t="s">
+      <c r="B29" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C29" s="35" t="s">
+      <c r="C29" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D29" s="48" t="s">
+      <c r="D29" s="30" t="s">
         <v>220</v>
       </c>
-      <c r="E29" s="35">
-        <v>3</v>
-      </c>
-      <c r="F29" s="36" t="s">
+      <c r="E29" s="3">
+        <v>3</v>
+      </c>
+      <c r="F29" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="G29" s="35" t="s">
+      <c r="G29" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="H29" s="35"/>
-    </row>
-    <row r="30" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="35">
+      <c r="H29" s="3"/>
+    </row>
+    <row r="30" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="3">
         <v>27</v>
       </c>
-      <c r="B30" s="35" t="s">
+      <c r="B30" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C30" s="35" t="s">
+      <c r="C30" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D30" s="48" t="s">
+      <c r="D30" s="30" t="s">
         <v>217</v>
       </c>
-      <c r="E30" s="35">
-        <v>3</v>
-      </c>
-      <c r="F30" s="36" t="s">
+      <c r="E30" s="3">
+        <v>3</v>
+      </c>
+      <c r="F30" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="G30" s="35" t="s">
+      <c r="G30" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="H30" s="35"/>
-    </row>
-    <row r="31" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="35">
+      <c r="H30" s="3"/>
+    </row>
+    <row r="31" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="3">
         <v>28</v>
       </c>
-      <c r="B31" s="35" t="s">
+      <c r="B31" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C31" s="35" t="s">
+      <c r="C31" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D31" s="48" t="s">
+      <c r="D31" s="30" t="s">
         <v>218</v>
       </c>
-      <c r="E31" s="35">
-        <v>3</v>
-      </c>
-      <c r="F31" s="36" t="s">
+      <c r="E31" s="3">
+        <v>3</v>
+      </c>
+      <c r="F31" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="G31" s="35" t="s">
+      <c r="G31" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="H31" s="35"/>
-    </row>
-    <row r="32" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="H31" s="3"/>
+    </row>
+    <row r="32" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="11">
         <v>29</v>
       </c>
@@ -2107,7 +2099,7 @@
       <c r="C32" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="D32" s="47"/>
+      <c r="D32" s="29"/>
       <c r="E32" s="11">
         <v>3</v>
       </c>
@@ -2117,7 +2109,7 @@
       <c r="G32" s="11"/>
       <c r="H32" s="11"/>
     </row>
-    <row r="33" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="11">
         <v>30</v>
       </c>
@@ -2127,7 +2119,7 @@
       <c r="C33" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="D33" s="47"/>
+      <c r="D33" s="29"/>
       <c r="E33" s="11">
         <v>3</v>
       </c>
@@ -2137,7 +2129,7 @@
       <c r="G33" s="11"/>
       <c r="H33" s="11"/>
     </row>
-    <row r="34" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="11">
         <v>31</v>
       </c>
@@ -2147,7 +2139,7 @@
       <c r="C34" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="D34" s="47" t="s">
+      <c r="D34" s="29" t="s">
         <v>219</v>
       </c>
       <c r="E34" s="11">
@@ -2159,7 +2151,7 @@
       <c r="G34" s="11"/>
       <c r="H34" s="11"/>
     </row>
-    <row r="35" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="11">
         <v>32</v>
       </c>
@@ -2169,7 +2161,7 @@
       <c r="C35" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="D35" s="47" t="s">
+      <c r="D35" s="29" t="s">
         <v>217</v>
       </c>
       <c r="E35" s="11">
@@ -2183,7 +2175,7 @@
       </c>
       <c r="H35" s="11"/>
     </row>
-    <row r="36" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="11">
         <v>33</v>
       </c>
@@ -2193,7 +2185,7 @@
       <c r="C36" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="D36" s="47" t="s">
+      <c r="D36" s="29" t="s">
         <v>219</v>
       </c>
       <c r="E36" s="11">
@@ -2207,7 +2199,7 @@
       </c>
       <c r="H36" s="11"/>
     </row>
-    <row r="37" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="11">
         <v>34</v>
       </c>
@@ -2217,7 +2209,7 @@
       <c r="C37" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="D37" s="47"/>
+      <c r="D37" s="29"/>
       <c r="E37" s="11">
         <v>3</v>
       </c>
@@ -2227,7 +2219,7 @@
       <c r="G37" s="11"/>
       <c r="H37" s="11"/>
     </row>
-    <row r="38" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="11">
         <v>35</v>
       </c>
@@ -2237,7 +2229,7 @@
       <c r="C38" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="D38" s="47"/>
+      <c r="D38" s="29"/>
       <c r="E38" s="11">
         <v>3</v>
       </c>
@@ -2247,131 +2239,131 @@
       <c r="G38" s="11"/>
       <c r="H38" s="11"/>
     </row>
-    <row r="39" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="35">
+    <row r="39" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="3">
         <v>36</v>
       </c>
-      <c r="B39" s="35" t="s">
+      <c r="B39" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="C39" s="35" t="s">
+      <c r="C39" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="D39" s="48"/>
-      <c r="E39" s="35">
-        <v>3</v>
-      </c>
-      <c r="F39" s="36" t="s">
+      <c r="D39" s="30"/>
+      <c r="E39" s="3">
+        <v>3</v>
+      </c>
+      <c r="F39" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="G39" s="35"/>
-      <c r="H39" s="35"/>
-    </row>
-    <row r="40" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="35">
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+    </row>
+    <row r="40" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="3">
         <v>37</v>
       </c>
-      <c r="B40" s="35" t="s">
+      <c r="B40" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C40" s="35" t="s">
+      <c r="C40" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D40" s="48" t="s">
+      <c r="D40" s="30" t="s">
         <v>221</v>
       </c>
-      <c r="E40" s="35">
+      <c r="E40" s="3">
         <v>1</v>
       </c>
-      <c r="F40" s="36" t="s">
+      <c r="F40" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="G40" s="35"/>
-      <c r="H40" s="35"/>
-    </row>
-    <row r="41" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="35">
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+    </row>
+    <row r="41" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="3">
         <v>38</v>
       </c>
-      <c r="B41" s="35" t="s">
+      <c r="B41" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C41" s="35" t="s">
+      <c r="C41" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="D41" s="48" t="s">
+      <c r="D41" s="30" t="s">
         <v>221</v>
       </c>
-      <c r="E41" s="35">
+      <c r="E41" s="3">
         <v>1</v>
       </c>
-      <c r="F41" s="36" t="s">
+      <c r="F41" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="G41" s="35"/>
-      <c r="H41" s="35"/>
-    </row>
-    <row r="42" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="35">
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+    </row>
+    <row r="42" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="3">
         <v>39</v>
       </c>
-      <c r="B42" s="35" t="s">
+      <c r="B42" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="C42" s="35" t="s">
+      <c r="C42" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="D42" s="48"/>
-      <c r="E42" s="35">
-        <v>3</v>
-      </c>
-      <c r="F42" s="36" t="s">
+      <c r="D42" s="30"/>
+      <c r="E42" s="3">
+        <v>3</v>
+      </c>
+      <c r="F42" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="G42" s="35"/>
-      <c r="H42" s="35"/>
-    </row>
-    <row r="43" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="35">
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+    </row>
+    <row r="43" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="3">
         <v>40</v>
       </c>
-      <c r="B43" s="35" t="s">
+      <c r="B43" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="C43" s="35" t="s">
+      <c r="C43" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="D43" s="48"/>
-      <c r="E43" s="35">
-        <v>3</v>
-      </c>
-      <c r="F43" s="36" t="s">
+      <c r="D43" s="30"/>
+      <c r="E43" s="3">
+        <v>3</v>
+      </c>
+      <c r="F43" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="G43" s="35"/>
-      <c r="H43" s="35"/>
-    </row>
-    <row r="44" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="35">
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+    </row>
+    <row r="44" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="3">
         <v>41</v>
       </c>
-      <c r="B44" s="35" t="s">
+      <c r="B44" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="C44" s="35" t="s">
+      <c r="C44" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="D44" s="48"/>
-      <c r="E44" s="35">
-        <v>3</v>
-      </c>
-      <c r="F44" s="36" t="s">
+      <c r="D44" s="30"/>
+      <c r="E44" s="3">
+        <v>3</v>
+      </c>
+      <c r="F44" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="G44" s="35"/>
-      <c r="H44" s="35"/>
-    </row>
-    <row r="45" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+    </row>
+    <row r="45" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A45" s="11">
         <v>42</v>
       </c>
@@ -2381,7 +2373,7 @@
       <c r="C45" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="D45" s="47" t="s">
+      <c r="D45" s="29" t="s">
         <v>221</v>
       </c>
       <c r="E45" s="11">
@@ -2393,107 +2385,107 @@
       <c r="G45" s="11"/>
       <c r="H45" s="11"/>
     </row>
-    <row r="46" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="35">
+    <row r="46" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="3">
         <v>43</v>
       </c>
-      <c r="B46" s="35" t="s">
+      <c r="B46" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="C46" s="35" t="s">
+      <c r="C46" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="D46" s="48"/>
-      <c r="E46" s="35">
-        <v>3</v>
-      </c>
-      <c r="F46" s="36" t="s">
+      <c r="D46" s="30"/>
+      <c r="E46" s="3">
+        <v>3</v>
+      </c>
+      <c r="F46" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="G46" s="35"/>
-      <c r="H46" s="35"/>
-    </row>
-    <row r="47" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="35">
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+    </row>
+    <row r="47" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="3">
         <v>44</v>
       </c>
-      <c r="B47" s="35" t="s">
+      <c r="B47" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="C47" s="35" t="s">
+      <c r="C47" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="D47" s="48"/>
-      <c r="E47" s="35">
-        <v>3</v>
-      </c>
-      <c r="F47" s="36" t="s">
+      <c r="D47" s="30"/>
+      <c r="E47" s="3">
+        <v>3</v>
+      </c>
+      <c r="F47" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="G47" s="35"/>
-      <c r="H47" s="35"/>
-    </row>
-    <row r="48" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="35">
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+    </row>
+    <row r="48" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="3">
         <v>45</v>
       </c>
-      <c r="B48" s="35" t="s">
+      <c r="B48" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C48" s="35" t="s">
+      <c r="C48" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="D48" s="48" t="s">
+      <c r="D48" s="30" t="s">
         <v>221</v>
       </c>
-      <c r="E48" s="35">
-        <v>3</v>
-      </c>
-      <c r="F48" s="36" t="s">
+      <c r="E48" s="3">
+        <v>3</v>
+      </c>
+      <c r="F48" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="G48" s="35"/>
-      <c r="H48" s="35"/>
-    </row>
-    <row r="49" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="35">
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+    </row>
+    <row r="49" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="3">
         <v>46</v>
       </c>
-      <c r="B49" s="35" t="s">
+      <c r="B49" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="C49" s="35" t="s">
+      <c r="C49" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="D49" s="48"/>
-      <c r="E49" s="35">
-        <v>3</v>
-      </c>
-      <c r="F49" s="36" t="s">
+      <c r="D49" s="30"/>
+      <c r="E49" s="3">
+        <v>3</v>
+      </c>
+      <c r="F49" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="G49" s="35"/>
-      <c r="H49" s="35"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.8">
-      <c r="A50" s="49" t="s">
+      <c r="A50" s="43" t="s">
         <v>167</v>
       </c>
-      <c r="B50" s="49"/>
-      <c r="C50" s="49"/>
-      <c r="D50" s="49"/>
-      <c r="E50" s="50">
+      <c r="B50" s="43"/>
+      <c r="C50" s="43"/>
+      <c r="D50" s="43"/>
+      <c r="E50" s="31">
         <f>SUM(E4:E49)</f>
         <v>135</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.8">
-      <c r="A52" s="26" t="s">
+      <c r="A52" s="35" t="s">
         <v>203</v>
       </c>
-      <c r="B52" s="26"/>
-      <c r="C52" s="26"/>
-      <c r="D52" s="26"/>
+      <c r="B52" s="35"/>
+      <c r="C52" s="35"/>
+      <c r="D52" s="35"/>
       <c r="E52" s="3" t="s">
         <v>172</v>
       </c>
@@ -2502,14 +2494,14 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.8">
-      <c r="A53" s="41" t="s">
+      <c r="A53" s="36" t="s">
         <v>204</v>
       </c>
-      <c r="B53" s="41"/>
-      <c r="C53" s="41" t="s">
+      <c r="B53" s="36"/>
+      <c r="C53" s="36" t="s">
         <v>205</v>
       </c>
-      <c r="D53" s="44" t="s">
+      <c r="D53" s="26" t="s">
         <v>206</v>
       </c>
       <c r="E53" s="16">
@@ -2521,10 +2513,10 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.8">
-      <c r="A54" s="41"/>
-      <c r="B54" s="41"/>
-      <c r="C54" s="41"/>
-      <c r="D54" s="45" t="s">
+      <c r="A54" s="36"/>
+      <c r="B54" s="36"/>
+      <c r="C54" s="36"/>
+      <c r="D54" s="27" t="s">
         <v>207</v>
       </c>
       <c r="E54" s="16">
@@ -2536,10 +2528,10 @@
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.8">
-      <c r="A55" s="41"/>
-      <c r="B55" s="41"/>
-      <c r="C55" s="41"/>
-      <c r="D55" s="45" t="s">
+      <c r="A55" s="36"/>
+      <c r="B55" s="36"/>
+      <c r="C55" s="36"/>
+      <c r="D55" s="27" t="s">
         <v>208</v>
       </c>
       <c r="E55" s="16">
@@ -2551,12 +2543,12 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.8">
-      <c r="A56" s="41"/>
-      <c r="B56" s="41"/>
-      <c r="C56" s="27" t="s">
+      <c r="A56" s="36"/>
+      <c r="B56" s="36"/>
+      <c r="C56" s="38" t="s">
         <v>209</v>
       </c>
-      <c r="D56" s="45" t="s">
+      <c r="D56" s="27" t="s">
         <v>210</v>
       </c>
       <c r="E56" s="16">
@@ -2568,10 +2560,10 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.8">
-      <c r="A57" s="41"/>
-      <c r="B57" s="41"/>
-      <c r="C57" s="27"/>
-      <c r="D57" s="45" t="s">
+      <c r="A57" s="36"/>
+      <c r="B57" s="36"/>
+      <c r="C57" s="38"/>
+      <c r="D57" s="27" t="s">
         <v>211</v>
       </c>
       <c r="E57" s="16">
@@ -2583,14 +2575,14 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.8">
-      <c r="A58" s="42" t="s">
+      <c r="A58" s="37" t="s">
         <v>212</v>
       </c>
-      <c r="B58" s="42"/>
-      <c r="C58" s="28" t="s">
+      <c r="B58" s="37"/>
+      <c r="C58" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="D58" s="46" t="s">
+      <c r="D58" s="28" t="s">
         <v>215</v>
       </c>
       <c r="E58" s="17">
@@ -2602,10 +2594,10 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.8">
-      <c r="A59" s="42"/>
-      <c r="B59" s="42"/>
-      <c r="C59" s="28"/>
-      <c r="D59" s="46" t="s">
+      <c r="A59" s="37"/>
+      <c r="B59" s="37"/>
+      <c r="C59" s="39"/>
+      <c r="D59" s="28" t="s">
         <v>216</v>
       </c>
       <c r="E59" s="17">
@@ -2617,12 +2609,12 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.8">
-      <c r="A60" s="42"/>
-      <c r="B60" s="42"/>
-      <c r="C60" s="28" t="s">
+      <c r="A60" s="37"/>
+      <c r="B60" s="37"/>
+      <c r="C60" s="39" t="s">
         <v>214</v>
       </c>
-      <c r="D60" s="46" t="s">
+      <c r="D60" s="28" t="s">
         <v>217</v>
       </c>
       <c r="E60" s="17">
@@ -2634,10 +2626,10 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.8">
-      <c r="A61" s="42"/>
-      <c r="B61" s="42"/>
-      <c r="C61" s="28"/>
-      <c r="D61" s="46" t="s">
+      <c r="A61" s="37"/>
+      <c r="B61" s="37"/>
+      <c r="C61" s="39"/>
+      <c r="D61" s="28" t="s">
         <v>218</v>
       </c>
       <c r="E61" s="17">
@@ -2649,10 +2641,10 @@
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.8">
-      <c r="A62" s="42"/>
-      <c r="B62" s="42"/>
-      <c r="C62" s="28"/>
-      <c r="D62" s="46" t="s">
+      <c r="A62" s="37"/>
+      <c r="B62" s="37"/>
+      <c r="C62" s="39"/>
+      <c r="D62" s="28" t="s">
         <v>219</v>
       </c>
       <c r="E62" s="17">
@@ -2664,10 +2656,10 @@
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.8">
-      <c r="A63" s="42"/>
-      <c r="B63" s="42"/>
-      <c r="C63" s="28"/>
-      <c r="D63" s="46" t="s">
+      <c r="A63" s="37"/>
+      <c r="B63" s="37"/>
+      <c r="C63" s="39"/>
+      <c r="D63" s="28" t="s">
         <v>220</v>
       </c>
       <c r="E63" s="17">
@@ -2679,10 +2671,10 @@
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.8">
-      <c r="A64" s="42"/>
-      <c r="B64" s="42"/>
-      <c r="C64" s="28"/>
-      <c r="D64" s="46" t="s">
+      <c r="A64" s="37"/>
+      <c r="B64" s="37"/>
+      <c r="C64" s="39"/>
+      <c r="D64" s="28" t="s">
         <v>221</v>
       </c>
       <c r="E64" s="17">
@@ -2694,12 +2686,12 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.8">
-      <c r="A65" s="42"/>
-      <c r="B65" s="42"/>
-      <c r="C65" s="28" t="s">
+      <c r="A65" s="37"/>
+      <c r="B65" s="37"/>
+      <c r="C65" s="39" t="s">
         <v>222</v>
       </c>
-      <c r="D65" s="28"/>
+      <c r="D65" s="39"/>
       <c r="E65" s="17">
         <f>SUMIF(D4:D49,"กลุ่มวิชาภาษาและการสื่อสาร",E4:E49)</f>
         <v>0</v>
@@ -2709,12 +2701,12 @@
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.8">
-      <c r="A66" s="39" t="s">
+      <c r="A66" s="32" t="s">
         <v>223</v>
       </c>
-      <c r="B66" s="43"/>
-      <c r="C66" s="43"/>
-      <c r="D66" s="40"/>
+      <c r="B66" s="33"/>
+      <c r="C66" s="33"/>
+      <c r="D66" s="34"/>
       <c r="E66" s="18">
         <f>SUMIF(D4:D49,"กลุ่มวิชาภาษาและการสื่อสาร",E4:E49)</f>
         <v>0</v>
@@ -2724,12 +2716,12 @@
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.8">
-      <c r="A67" s="32" t="s">
+      <c r="A67" s="40" t="s">
         <v>167</v>
       </c>
-      <c r="B67" s="33"/>
-      <c r="C67" s="33"/>
-      <c r="D67" s="34"/>
+      <c r="B67" s="41"/>
+      <c r="C67" s="41"/>
+      <c r="D67" s="42"/>
       <c r="E67" s="2">
         <f>SUM(E53:E66)</f>
         <v>87</v>
@@ -2742,6 +2734,9 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="13">
+    <mergeCell ref="A67:D67"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="A52:D52"/>
     <mergeCell ref="A66:D66"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A1:H1"/>
@@ -2752,9 +2747,6 @@
     <mergeCell ref="C58:C59"/>
     <mergeCell ref="C60:C64"/>
     <mergeCell ref="C65:D65"/>
-    <mergeCell ref="A67:D67"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="A52:D52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2784,40 +2776,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
     </row>
     <row r="2" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="35" t="s">
         <v>154</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
     </row>
     <row r="3" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
@@ -4538,24 +4530,24 @@
       <c r="N49" s="3"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.8">
-      <c r="A50" s="26" t="s">
+      <c r="A50" s="35" t="s">
         <v>167</v>
       </c>
-      <c r="B50" s="26"/>
-      <c r="C50" s="26"/>
-      <c r="D50" s="26"/>
+      <c r="B50" s="35"/>
+      <c r="C50" s="35"/>
+      <c r="D50" s="35"/>
       <c r="E50" s="3">
         <f>SUM(E4:E49)</f>
         <v>135</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.8">
-      <c r="A52" s="26" t="s">
+      <c r="A52" s="35" t="s">
         <v>170</v>
       </c>
-      <c r="B52" s="26"/>
-      <c r="C52" s="26"/>
-      <c r="D52" s="26"/>
+      <c r="B52" s="35"/>
+      <c r="C52" s="35"/>
+      <c r="D52" s="35"/>
       <c r="E52" s="3" t="s">
         <v>172</v>
       </c>
@@ -4564,12 +4556,12 @@
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.8">
-      <c r="A53" s="27" t="s">
+      <c r="A53" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="B53" s="27"/>
-      <c r="C53" s="27"/>
-      <c r="D53" s="27"/>
+      <c r="B53" s="38"/>
+      <c r="C53" s="38"/>
+      <c r="D53" s="38"/>
       <c r="E53" s="16">
         <f>SUMIF(D4:D49,"ศึกษาทั่วไป-บังคับ-ภาษาและการสื่อสาร",E4:E49)</f>
         <v>12</v>
@@ -4579,12 +4571,12 @@
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.8">
-      <c r="A54" s="27" t="s">
+      <c r="A54" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="B54" s="27"/>
-      <c r="C54" s="27"/>
-      <c r="D54" s="27"/>
+      <c r="B54" s="38"/>
+      <c r="C54" s="38"/>
+      <c r="D54" s="38"/>
       <c r="E54" s="16">
         <f>SUMIF(D4:D49,"ศึกษาทั่วไป-บังคับ-สุขภาพ",E4:E49)</f>
         <v>3</v>
@@ -4594,12 +4586,12 @@
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.8">
-      <c r="A55" s="27" t="s">
+      <c r="A55" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="B55" s="27"/>
-      <c r="C55" s="27"/>
-      <c r="D55" s="27"/>
+      <c r="B55" s="38"/>
+      <c r="C55" s="38"/>
+      <c r="D55" s="38"/>
       <c r="E55" s="16">
         <f>SUMIF(D4:D49,"ศึกษาทั่วไป-บังคับ-บูรณาการ",E4:E49)</f>
         <v>9</v>
@@ -4609,12 +4601,12 @@
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.8">
-      <c r="A56" s="27" t="s">
+      <c r="A56" s="38" t="s">
         <v>168</v>
       </c>
-      <c r="B56" s="27"/>
-      <c r="C56" s="27"/>
-      <c r="D56" s="27"/>
+      <c r="B56" s="38"/>
+      <c r="C56" s="38"/>
+      <c r="D56" s="38"/>
       <c r="E56" s="16">
         <f>SUMIF(D1:D45,"ศึกษาทั่วไป-สังคมศาสตร์และมนุยศาสตร์",E1:E45)</f>
         <v>3</v>
@@ -4624,12 +4616,12 @@
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.8">
-      <c r="A57" s="27" t="s">
+      <c r="A57" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="B57" s="27"/>
-      <c r="C57" s="27"/>
-      <c r="D57" s="27"/>
+      <c r="B57" s="38"/>
+      <c r="C57" s="38"/>
+      <c r="D57" s="38"/>
       <c r="E57" s="16">
         <f>SUMIF(D4:D49,"ศึกษาทั่วไป-วิทยาศาสตร์และคณิตศาสตร์",E4:E49)</f>
         <v>3</v>
@@ -4639,12 +4631,12 @@
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.8">
-      <c r="A58" s="28" t="s">
+      <c r="A58" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="B58" s="28"/>
-      <c r="C58" s="28"/>
-      <c r="D58" s="28"/>
+      <c r="B58" s="39"/>
+      <c r="C58" s="39"/>
+      <c r="D58" s="39"/>
       <c r="E58" s="17">
         <f>SUMIF(D4:D49,"วิชาเฉพาะพื้นฐานวิชาชีพ",E4:E49)</f>
         <v>32</v>
@@ -4654,12 +4646,12 @@
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.8">
-      <c r="A59" s="28" t="s">
+      <c r="A59" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="B59" s="28"/>
-      <c r="C59" s="28"/>
-      <c r="D59" s="28"/>
+      <c r="B59" s="39"/>
+      <c r="C59" s="39"/>
+      <c r="D59" s="39"/>
       <c r="E59" s="17">
         <f>SUMIF(D4:D49,"วิชาเฉพาะชีพบังคับ",E4:E49)</f>
         <v>55</v>
@@ -4669,12 +4661,12 @@
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.8">
-      <c r="A60" s="28" t="s">
+      <c r="A60" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="B60" s="28"/>
-      <c r="C60" s="28"/>
-      <c r="D60" s="28"/>
+      <c r="B60" s="39"/>
+      <c r="C60" s="39"/>
+      <c r="D60" s="39"/>
       <c r="E60" s="17">
         <f>SUMIF(D4:D49,"วิชาเฉพาะชีพเลือก",E4:E49)</f>
         <v>12</v>
@@ -4684,12 +4676,12 @@
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.8">
-      <c r="A61" s="29" t="s">
+      <c r="A61" s="44" t="s">
         <v>120</v>
       </c>
-      <c r="B61" s="29"/>
-      <c r="C61" s="29"/>
-      <c r="D61" s="29"/>
+      <c r="B61" s="44"/>
+      <c r="C61" s="44"/>
+      <c r="D61" s="44"/>
       <c r="E61" s="18">
         <f>SUMIF(D4:D49,"วิชาเลือกเสรี",E4:E49)</f>
         <v>6</v>
@@ -4699,12 +4691,12 @@
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.8">
-      <c r="A62" s="30" t="s">
+      <c r="A62" s="45" t="s">
         <v>167</v>
       </c>
-      <c r="B62" s="30"/>
-      <c r="C62" s="30"/>
-      <c r="D62" s="30"/>
+      <c r="B62" s="45"/>
+      <c r="C62" s="45"/>
+      <c r="D62" s="45"/>
       <c r="E62" s="2">
         <f>SUM(E53:E61)</f>
         <v>135</v>
@@ -4717,6 +4709,11 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="14">
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="A53:D53"/>
     <mergeCell ref="A59:D59"/>
     <mergeCell ref="A60:D60"/>
     <mergeCell ref="A61:D61"/>
@@ -4726,11 +4723,6 @@
     <mergeCell ref="A56:D56"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A58:D58"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A2:N2"/>
-    <mergeCell ref="A53:D53"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4763,48 +4755,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.8">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="46" t="s">
         <v>157</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.8">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="46" t="s">
         <v>154</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.8">
       <c r="A3" s="2" t="s">
@@ -7029,24 +7021,24 @@
       <c r="R49" s="9"/>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.8">
-      <c r="A50" s="26" t="s">
+      <c r="A50" s="35" t="s">
         <v>167</v>
       </c>
-      <c r="B50" s="26"/>
-      <c r="C50" s="26"/>
-      <c r="D50" s="26"/>
+      <c r="B50" s="35"/>
+      <c r="C50" s="35"/>
+      <c r="D50" s="35"/>
       <c r="E50" s="3">
         <f>SUM(E4:E49)</f>
         <v>135</v>
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.8">
-      <c r="A52" s="26" t="s">
+      <c r="A52" s="35" t="s">
         <v>170</v>
       </c>
-      <c r="B52" s="26"/>
-      <c r="C52" s="26"/>
-      <c r="D52" s="26"/>
+      <c r="B52" s="35"/>
+      <c r="C52" s="35"/>
+      <c r="D52" s="35"/>
       <c r="E52" s="3" t="s">
         <v>172</v>
       </c>
@@ -7055,12 +7047,12 @@
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.8">
-      <c r="A53" s="27" t="s">
+      <c r="A53" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="B53" s="27"/>
-      <c r="C53" s="27"/>
-      <c r="D53" s="27"/>
+      <c r="B53" s="38"/>
+      <c r="C53" s="38"/>
+      <c r="D53" s="38"/>
       <c r="E53" s="16">
         <f>SUMIF(D4:D49,"ศึกษาทั่วไป-บังคับ-ภาษาและการสื่อสาร",E4:E49)</f>
         <v>12</v>
@@ -7070,12 +7062,12 @@
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.8">
-      <c r="A54" s="27" t="s">
+      <c r="A54" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="B54" s="27"/>
-      <c r="C54" s="27"/>
-      <c r="D54" s="27"/>
+      <c r="B54" s="38"/>
+      <c r="C54" s="38"/>
+      <c r="D54" s="38"/>
       <c r="E54" s="16">
         <f>SUMIF(D4:D49,"ศึกษาทั่วไป-บังคับ-สุขภาพ",E4:E49)</f>
         <v>3</v>
@@ -7085,12 +7077,12 @@
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.8">
-      <c r="A55" s="27" t="s">
+      <c r="A55" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="B55" s="27"/>
-      <c r="C55" s="27"/>
-      <c r="D55" s="27"/>
+      <c r="B55" s="38"/>
+      <c r="C55" s="38"/>
+      <c r="D55" s="38"/>
       <c r="E55" s="16">
         <f>SUMIF(D4:D49,"ศึกษาทั่วไป-บังคับ-บูรณาการ",E4:E49)</f>
         <v>9</v>
@@ -7100,12 +7092,12 @@
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.8">
-      <c r="A56" s="27" t="s">
+      <c r="A56" s="38" t="s">
         <v>168</v>
       </c>
-      <c r="B56" s="27"/>
-      <c r="C56" s="27"/>
-      <c r="D56" s="27"/>
+      <c r="B56" s="38"/>
+      <c r="C56" s="38"/>
+      <c r="D56" s="38"/>
       <c r="E56" s="16">
         <f>SUMIF(D1:D43,"ศึกษาทั่วไป-สังคมศาสตร์และมนุยศาสตร์",E1:E43)</f>
         <v>3</v>
@@ -7115,12 +7107,12 @@
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.8">
-      <c r="A57" s="27" t="s">
+      <c r="A57" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="B57" s="27"/>
-      <c r="C57" s="27"/>
-      <c r="D57" s="27"/>
+      <c r="B57" s="38"/>
+      <c r="C57" s="38"/>
+      <c r="D57" s="38"/>
       <c r="E57" s="16">
         <f>SUMIF(D4:D49,"ศึกษาทั่วไป-วิทยาศาสตร์และคณิตศาสตร์",E4:E49)</f>
         <v>3</v>
@@ -7130,12 +7122,12 @@
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.8">
-      <c r="A58" s="28" t="s">
+      <c r="A58" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="B58" s="28"/>
-      <c r="C58" s="28"/>
-      <c r="D58" s="28"/>
+      <c r="B58" s="39"/>
+      <c r="C58" s="39"/>
+      <c r="D58" s="39"/>
       <c r="E58" s="17">
         <f>SUMIF(D4:D49,"วิชาเฉพาะพื้นฐานวิชาชีพ",E4:E49)</f>
         <v>32</v>
@@ -7145,12 +7137,12 @@
       </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.8">
-      <c r="A59" s="28" t="s">
+      <c r="A59" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="B59" s="28"/>
-      <c r="C59" s="28"/>
-      <c r="D59" s="28"/>
+      <c r="B59" s="39"/>
+      <c r="C59" s="39"/>
+      <c r="D59" s="39"/>
       <c r="E59" s="17">
         <f>SUMIF(D4:D49,"วิชาเฉพาะชีพบังคับ",E4:E49)</f>
         <v>55</v>
@@ -7160,12 +7152,12 @@
       </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.8">
-      <c r="A60" s="28" t="s">
+      <c r="A60" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="B60" s="28"/>
-      <c r="C60" s="28"/>
-      <c r="D60" s="28"/>
+      <c r="B60" s="39"/>
+      <c r="C60" s="39"/>
+      <c r="D60" s="39"/>
       <c r="E60" s="17">
         <f>SUMIF(D4:D49,"วิชาเฉพาะชีพเลือก",E4:E49)</f>
         <v>12</v>
@@ -7175,12 +7167,12 @@
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.8">
-      <c r="A61" s="29" t="s">
+      <c r="A61" s="44" t="s">
         <v>120</v>
       </c>
-      <c r="B61" s="29"/>
-      <c r="C61" s="29"/>
-      <c r="D61" s="29"/>
+      <c r="B61" s="44"/>
+      <c r="C61" s="44"/>
+      <c r="D61" s="44"/>
       <c r="E61" s="18">
         <f>SUMIF(D4:D49,"วิชาเลือกเสรี",E4:E49)</f>
         <v>6</v>
@@ -7190,12 +7182,12 @@
       </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.8">
-      <c r="A62" s="30" t="s">
+      <c r="A62" s="45" t="s">
         <v>167</v>
       </c>
-      <c r="B62" s="30"/>
-      <c r="C62" s="30"/>
-      <c r="D62" s="30"/>
+      <c r="B62" s="45"/>
+      <c r="C62" s="45"/>
+      <c r="D62" s="45"/>
       <c r="E62" s="2">
         <f>SUM(E53:E61)</f>
         <v>135</v>
@@ -7208,6 +7200,11 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="14">
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="A2:R2"/>
+    <mergeCell ref="A53:D53"/>
     <mergeCell ref="A59:D59"/>
     <mergeCell ref="A60:D60"/>
     <mergeCell ref="A61:D61"/>
@@ -7217,11 +7214,6 @@
     <mergeCell ref="A56:D56"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A58:D58"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="A1:R1"/>
-    <mergeCell ref="A2:R2"/>
-    <mergeCell ref="A53:D53"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7253,44 +7245,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="35" t="s">
         <v>156</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
     </row>
     <row r="2" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="35" t="s">
         <v>127</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
     </row>
     <row r="3" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
@@ -9089,12 +9081,12 @@
       <c r="P49" s="3"/>
     </row>
     <row r="50" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="26" t="s">
+      <c r="A50" s="35" t="s">
         <v>167</v>
       </c>
-      <c r="B50" s="26"/>
-      <c r="C50" s="26"/>
-      <c r="D50" s="26"/>
+      <c r="B50" s="35"/>
+      <c r="C50" s="35"/>
+      <c r="D50" s="35"/>
       <c r="E50" s="3">
         <f>SUM(E4:E49)</f>
         <v>135</v>
@@ -9106,12 +9098,12 @@
       <c r="F51" s="14"/>
     </row>
     <row r="52" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="26" t="s">
+      <c r="A52" s="35" t="s">
         <v>170</v>
       </c>
-      <c r="B52" s="26"/>
-      <c r="C52" s="26"/>
-      <c r="D52" s="26"/>
+      <c r="B52" s="35"/>
+      <c r="C52" s="35"/>
+      <c r="D52" s="35"/>
       <c r="E52" s="3" t="s">
         <v>172</v>
       </c>
@@ -9120,12 +9112,12 @@
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.8">
-      <c r="A53" s="27" t="s">
+      <c r="A53" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="B53" s="27"/>
-      <c r="C53" s="27"/>
-      <c r="D53" s="27"/>
+      <c r="B53" s="38"/>
+      <c r="C53" s="38"/>
+      <c r="D53" s="38"/>
       <c r="E53" s="16">
         <f>SUMIF(D4:D49,"ศึกษาทั่วไป-บังคับ-ภาษาและการสื่อสาร",E4:E49)</f>
         <v>12</v>
@@ -9135,12 +9127,12 @@
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.8">
-      <c r="A54" s="27" t="s">
+      <c r="A54" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="B54" s="27"/>
-      <c r="C54" s="27"/>
-      <c r="D54" s="27"/>
+      <c r="B54" s="38"/>
+      <c r="C54" s="38"/>
+      <c r="D54" s="38"/>
       <c r="E54" s="16">
         <f>SUMIF(D4:D49,"ศึกษาทั่วไป-บังคับ-สุขภาพ",E4:E49)</f>
         <v>3</v>
@@ -9150,12 +9142,12 @@
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.8">
-      <c r="A55" s="27" t="s">
+      <c r="A55" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="B55" s="27"/>
-      <c r="C55" s="27"/>
-      <c r="D55" s="27"/>
+      <c r="B55" s="38"/>
+      <c r="C55" s="38"/>
+      <c r="D55" s="38"/>
       <c r="E55" s="16">
         <f>SUMIF(D4:D49,"ศึกษาทั่วไป-บังคับ-บูรณาการ",E4:E49)</f>
         <v>9</v>
@@ -9165,12 +9157,12 @@
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.8">
-      <c r="A56" s="27" t="s">
+      <c r="A56" s="38" t="s">
         <v>168</v>
       </c>
-      <c r="B56" s="27"/>
-      <c r="C56" s="27"/>
-      <c r="D56" s="27"/>
+      <c r="B56" s="38"/>
+      <c r="C56" s="38"/>
+      <c r="D56" s="38"/>
       <c r="E56" s="16">
         <f>SUMIF(D1:D45,"ศึกษาทั่วไป-สังคมศาสตร์และมนุยศาสตร์",E1:E45)</f>
         <v>3</v>
@@ -9180,12 +9172,12 @@
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.8">
-      <c r="A57" s="27" t="s">
+      <c r="A57" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="B57" s="27"/>
-      <c r="C57" s="27"/>
-      <c r="D57" s="27"/>
+      <c r="B57" s="38"/>
+      <c r="C57" s="38"/>
+      <c r="D57" s="38"/>
       <c r="E57" s="16">
         <f>SUMIF(D4:D49,"ศึกษาทั่วไป-วิทยาศาสตร์และคณิตศาสตร์",E4:E49)</f>
         <v>3</v>
@@ -9195,12 +9187,12 @@
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.8">
-      <c r="A58" s="28" t="s">
+      <c r="A58" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="B58" s="28"/>
-      <c r="C58" s="28"/>
-      <c r="D58" s="28"/>
+      <c r="B58" s="39"/>
+      <c r="C58" s="39"/>
+      <c r="D58" s="39"/>
       <c r="E58" s="17">
         <f>SUMIF(D4:D49,"วิชาเฉพาะพื้นฐานวิชาชีพ",E4:E49)</f>
         <v>32</v>
@@ -9210,12 +9202,12 @@
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.8">
-      <c r="A59" s="28" t="s">
+      <c r="A59" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="B59" s="28"/>
-      <c r="C59" s="28"/>
-      <c r="D59" s="28"/>
+      <c r="B59" s="39"/>
+      <c r="C59" s="39"/>
+      <c r="D59" s="39"/>
       <c r="E59" s="17">
         <f>SUMIF(D4:D49,"วิชาเฉพาะชีพบังคับ",E4:E49)</f>
         <v>55</v>
@@ -9225,12 +9217,12 @@
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.8">
-      <c r="A60" s="28" t="s">
+      <c r="A60" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="B60" s="28"/>
-      <c r="C60" s="28"/>
-      <c r="D60" s="28"/>
+      <c r="B60" s="39"/>
+      <c r="C60" s="39"/>
+      <c r="D60" s="39"/>
       <c r="E60" s="17">
         <f>SUMIF(D4:D49,"วิชาเฉพาะชีพเลือก",E4:E49)</f>
         <v>12</v>
@@ -9240,12 +9232,12 @@
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.8">
-      <c r="A61" s="29" t="s">
+      <c r="A61" s="44" t="s">
         <v>120</v>
       </c>
-      <c r="B61" s="29"/>
-      <c r="C61" s="29"/>
-      <c r="D61" s="29"/>
+      <c r="B61" s="44"/>
+      <c r="C61" s="44"/>
+      <c r="D61" s="44"/>
       <c r="E61" s="18">
         <f>SUMIF(D4:D49,"วิชาเลือกเสรี",E4:E49)</f>
         <v>6</v>
@@ -9255,12 +9247,12 @@
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.8">
-      <c r="A62" s="30" t="s">
+      <c r="A62" s="45" t="s">
         <v>167</v>
       </c>
-      <c r="B62" s="30"/>
-      <c r="C62" s="30"/>
-      <c r="D62" s="30"/>
+      <c r="B62" s="45"/>
+      <c r="C62" s="45"/>
+      <c r="D62" s="45"/>
       <c r="E62" s="2">
         <f>SUM(E53:E61)</f>
         <v>135</v>
@@ -9303,7 +9295,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FE38C47-0285-4AD9-96AE-F257CA4C57E5}">
   <dimension ref="A1:W62"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -9323,58 +9315,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.8">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="40" t="s">
         <v>155</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="34"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="41"/>
+      <c r="U1" s="41"/>
+      <c r="V1" s="41"/>
+      <c r="W1" s="42"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.8">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33"/>
-      <c r="V2" s="33"/>
-      <c r="W2" s="34"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="41"/>
+      <c r="S2" s="41"/>
+      <c r="T2" s="41"/>
+      <c r="U2" s="41"/>
+      <c r="V2" s="41"/>
+      <c r="W2" s="42"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.8">
       <c r="A3" s="2" t="s">
@@ -11952,12 +11944,12 @@
       <c r="W49" s="2"/>
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.8">
-      <c r="A50" s="26" t="s">
+      <c r="A50" s="35" t="s">
         <v>167</v>
       </c>
-      <c r="B50" s="26"/>
-      <c r="C50" s="26"/>
-      <c r="D50" s="26"/>
+      <c r="B50" s="35"/>
+      <c r="C50" s="35"/>
+      <c r="D50" s="35"/>
       <c r="E50" s="3">
         <f>SUM(E4:E49)</f>
         <v>135</v>
@@ -11965,12 +11957,12 @@
       <c r="F50" s="10"/>
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.8">
-      <c r="A52" s="26" t="s">
+      <c r="A52" s="35" t="s">
         <v>170</v>
       </c>
-      <c r="B52" s="26"/>
-      <c r="C52" s="26"/>
-      <c r="D52" s="26"/>
+      <c r="B52" s="35"/>
+      <c r="C52" s="35"/>
+      <c r="D52" s="35"/>
       <c r="E52" s="3" t="s">
         <v>172</v>
       </c>
@@ -11979,12 +11971,12 @@
       </c>
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.8">
-      <c r="A53" s="27" t="s">
+      <c r="A53" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="B53" s="27"/>
-      <c r="C53" s="27"/>
-      <c r="D53" s="27"/>
+      <c r="B53" s="38"/>
+      <c r="C53" s="38"/>
+      <c r="D53" s="38"/>
       <c r="E53" s="16">
         <f>SUMIF(D4:D49,"ศึกษาทั่วไป-บังคับ-ภาษาและการสื่อสาร",E4:E49)</f>
         <v>12</v>
@@ -11994,12 +11986,12 @@
       </c>
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.8">
-      <c r="A54" s="27" t="s">
+      <c r="A54" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="B54" s="27"/>
-      <c r="C54" s="27"/>
-      <c r="D54" s="27"/>
+      <c r="B54" s="38"/>
+      <c r="C54" s="38"/>
+      <c r="D54" s="38"/>
       <c r="E54" s="16">
         <f>SUMIF(D4:D49,"ศึกษาทั่วไป-บังคับ-สุขภาพ",E4:E49)</f>
         <v>3</v>
@@ -12009,12 +12001,12 @@
       </c>
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.8">
-      <c r="A55" s="27" t="s">
+      <c r="A55" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="B55" s="27"/>
-      <c r="C55" s="27"/>
-      <c r="D55" s="27"/>
+      <c r="B55" s="38"/>
+      <c r="C55" s="38"/>
+      <c r="D55" s="38"/>
       <c r="E55" s="16">
         <f>SUMIF(D4:D49,"ศึกษาทั่วไป-บังคับ-บูรณาการ",E4:E49)</f>
         <v>9</v>
@@ -12024,12 +12016,12 @@
       </c>
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.8">
-      <c r="A56" s="27" t="s">
+      <c r="A56" s="38" t="s">
         <v>168</v>
       </c>
-      <c r="B56" s="27"/>
-      <c r="C56" s="27"/>
-      <c r="D56" s="27"/>
+      <c r="B56" s="38"/>
+      <c r="C56" s="38"/>
+      <c r="D56" s="38"/>
       <c r="E56" s="16">
         <f>SUMIF(D4:D49,"ศึกษาทั่วไป-สังคมศาสตร์และมนุยศาสตร์",E4:E49)</f>
         <v>3</v>
@@ -12039,12 +12031,12 @@
       </c>
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.8">
-      <c r="A57" s="27" t="s">
+      <c r="A57" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="B57" s="27"/>
-      <c r="C57" s="27"/>
-      <c r="D57" s="27"/>
+      <c r="B57" s="38"/>
+      <c r="C57" s="38"/>
+      <c r="D57" s="38"/>
       <c r="E57" s="16">
         <f>SUMIF(D4:D49,"ศึกษาทั่วไป-วิทยาศาสตร์และคณิตศาสตร์",E4:E49)</f>
         <v>3</v>
@@ -12054,12 +12046,12 @@
       </c>
     </row>
     <row r="58" spans="1:23" x14ac:dyDescent="0.8">
-      <c r="A58" s="28" t="s">
+      <c r="A58" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="B58" s="28"/>
-      <c r="C58" s="28"/>
-      <c r="D58" s="28"/>
+      <c r="B58" s="39"/>
+      <c r="C58" s="39"/>
+      <c r="D58" s="39"/>
       <c r="E58" s="17">
         <f>SUMIF(D4:D49,"วิชาเฉพาะพื้นฐานวิชาชีพ",E4:E49)</f>
         <v>32</v>
@@ -12069,12 +12061,12 @@
       </c>
     </row>
     <row r="59" spans="1:23" x14ac:dyDescent="0.8">
-      <c r="A59" s="28" t="s">
+      <c r="A59" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="B59" s="28"/>
-      <c r="C59" s="28"/>
-      <c r="D59" s="28"/>
+      <c r="B59" s="39"/>
+      <c r="C59" s="39"/>
+      <c r="D59" s="39"/>
       <c r="E59" s="17">
         <f>SUMIF(D3:D49,"วิชาเฉพาะชีพบังคับ",E3:E49)</f>
         <v>55</v>
@@ -12084,12 +12076,12 @@
       </c>
     </row>
     <row r="60" spans="1:23" x14ac:dyDescent="0.8">
-      <c r="A60" s="28" t="s">
+      <c r="A60" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="B60" s="28"/>
-      <c r="C60" s="28"/>
-      <c r="D60" s="28"/>
+      <c r="B60" s="39"/>
+      <c r="C60" s="39"/>
+      <c r="D60" s="39"/>
       <c r="E60" s="17">
         <f>SUMIF(D4:D49,"วิชาเฉพาะชีพเลือก",E4:E49)</f>
         <v>12</v>
@@ -12099,12 +12091,12 @@
       </c>
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.8">
-      <c r="A61" s="29" t="s">
+      <c r="A61" s="44" t="s">
         <v>120</v>
       </c>
-      <c r="B61" s="29"/>
-      <c r="C61" s="29"/>
-      <c r="D61" s="29"/>
+      <c r="B61" s="44"/>
+      <c r="C61" s="44"/>
+      <c r="D61" s="44"/>
       <c r="E61" s="18">
         <f>SUMIF(D4:D49,"วิชาเลือกเสรี",E4:E49)</f>
         <v>6</v>
@@ -12114,12 +12106,12 @@
       </c>
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.8">
-      <c r="A62" s="30" t="s">
+      <c r="A62" s="45" t="s">
         <v>167</v>
       </c>
-      <c r="B62" s="30"/>
-      <c r="C62" s="30"/>
-      <c r="D62" s="30"/>
+      <c r="B62" s="45"/>
+      <c r="C62" s="45"/>
+      <c r="D62" s="45"/>
       <c r="E62" s="2">
         <f>SUM(E53:E61)</f>
         <v>135</v>
@@ -12133,6 +12125,13 @@
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <autoFilter ref="D3:D50" xr:uid="{3FE38C47-0285-4AD9-96AE-F257CA4C57E5}"/>
   <mergeCells count="14">
+    <mergeCell ref="A54:D54"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:W2"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="A53:D53"/>
     <mergeCell ref="A61:D61"/>
     <mergeCell ref="A62:D62"/>
     <mergeCell ref="A56:D56"/>
@@ -12140,13 +12139,6 @@
     <mergeCell ref="A58:D58"/>
     <mergeCell ref="A59:D59"/>
     <mergeCell ref="A60:D60"/>
-    <mergeCell ref="A54:D54"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:W2"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="A53:D53"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12156,8 +12148,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92656081-B09B-4FD3-A5AB-32467D38C825}">
   <dimension ref="A1:N67"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="24" x14ac:dyDescent="0.8"/>
@@ -12174,113 +12166,115 @@
     <col min="15" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="37" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-    </row>
-    <row r="2" spans="1:14" s="37" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="38" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+    </row>
+    <row r="2" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="35" t="s">
         <v>244</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-    </row>
-    <row r="3" spans="1:14" s="37" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="35" t="s">
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+    </row>
+    <row r="3" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="35" t="s">
+      <c r="C3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="35" t="s">
+      <c r="E3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="35" t="s">
+      <c r="F3" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="G3" s="35" t="s">
+      <c r="G3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="I3" s="35" t="s">
+      <c r="I3" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="J3" s="35" t="s">
+      <c r="J3" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="K3" s="35" t="s">
+      <c r="K3" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="L3" s="35" t="s">
+      <c r="L3" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="M3" s="35" t="s">
+      <c r="M3" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="N3" s="35" t="s">
+      <c r="N3" s="3" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="37" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="11">
         <v>1</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="D4" s="47"/>
+        <v>36</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>206</v>
+      </c>
       <c r="E4" s="11">
         <v>3</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-    </row>
-    <row r="5" spans="1:14" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+    </row>
+    <row r="5" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="11">
         <v>2</v>
       </c>
@@ -12290,25 +12284,25 @@
       <c r="C5" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="D5" s="47" t="s">
+      <c r="D5" s="29" t="s">
         <v>215</v>
       </c>
       <c r="E5" s="11">
         <v>3</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="35"/>
-    </row>
-    <row r="6" spans="1:14" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+    </row>
+    <row r="6" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="11">
         <v>3</v>
       </c>
@@ -12318,25 +12312,25 @@
       <c r="C6" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="47" t="s">
+      <c r="D6" s="29" t="s">
         <v>216</v>
       </c>
       <c r="E6" s="11">
         <v>3</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="35"/>
-    </row>
-    <row r="7" spans="1:14" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+    </row>
+    <row r="7" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="11">
         <v>4</v>
       </c>
@@ -12346,25 +12340,25 @@
       <c r="C7" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="47" t="s">
+      <c r="D7" s="29" t="s">
         <v>216</v>
       </c>
       <c r="E7" s="11">
         <v>3</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="35"/>
-      <c r="N7" s="35"/>
-    </row>
-    <row r="8" spans="1:14" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+    </row>
+    <row r="8" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="11">
         <v>5</v>
       </c>
@@ -12374,25 +12368,25 @@
       <c r="C8" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="47" t="s">
+      <c r="D8" s="29" t="s">
         <v>216</v>
       </c>
       <c r="E8" s="11">
         <v>1</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="35"/>
-      <c r="N8" s="35"/>
-    </row>
-    <row r="9" spans="1:14" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="11">
         <v>6</v>
       </c>
@@ -12402,25 +12396,25 @@
       <c r="C9" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="D9" s="47" t="s">
+      <c r="D9" s="29" t="s">
         <v>216</v>
       </c>
       <c r="E9" s="11">
         <v>3</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="35"/>
-    </row>
-    <row r="10" spans="1:14" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11">
         <v>7</v>
       </c>
@@ -12430,223 +12424,223 @@
       <c r="C10" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="47" t="s">
+      <c r="D10" s="29" t="s">
         <v>216</v>
       </c>
       <c r="E10" s="11">
         <v>3</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="35"/>
-      <c r="N10" s="35"/>
-    </row>
-    <row r="11" spans="1:14" s="37" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="35">
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="3">
         <v>8</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="D11" s="48"/>
-      <c r="E11" s="35">
-        <v>3</v>
-      </c>
-      <c r="F11" s="36" t="s">
+      <c r="D11" s="30"/>
+      <c r="E11" s="3">
+        <v>3</v>
+      </c>
+      <c r="F11" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="35"/>
-      <c r="N11" s="35"/>
-    </row>
-    <row r="12" spans="1:14" s="37" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="35">
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="3">
         <v>9</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="35" t="s">
+      <c r="C12" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="48" t="s">
+      <c r="D12" s="30" t="s">
         <v>215</v>
       </c>
-      <c r="E12" s="35">
-        <v>3</v>
-      </c>
-      <c r="F12" s="36" t="s">
+      <c r="E12" s="3">
+        <v>3</v>
+      </c>
+      <c r="F12" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="G12" s="35" t="s">
+      <c r="G12" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="35"/>
-      <c r="N12" s="35"/>
-    </row>
-    <row r="13" spans="1:14" s="37" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="35">
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="3">
         <v>10</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="C13" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="48" t="s">
+      <c r="D13" s="30" t="s">
         <v>215</v>
       </c>
-      <c r="E13" s="35">
+      <c r="E13" s="3">
         <v>4</v>
       </c>
-      <c r="F13" s="36" t="s">
+      <c r="F13" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="35"/>
-      <c r="N13" s="35"/>
-    </row>
-    <row r="14" spans="1:14" s="37" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="35">
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="3">
         <v>11</v>
       </c>
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="35" t="s">
+      <c r="C14" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="48" t="s">
+      <c r="D14" s="30" t="s">
         <v>219</v>
       </c>
-      <c r="E14" s="35">
-        <v>3</v>
-      </c>
-      <c r="F14" s="36" t="s">
+      <c r="E14" s="3">
+        <v>3</v>
+      </c>
+      <c r="F14" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="G14" s="35" t="s">
+      <c r="G14" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="35"/>
-    </row>
-    <row r="15" spans="1:14" s="37" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="35">
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="3">
         <v>12</v>
       </c>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C15" s="35" t="s">
+      <c r="C15" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D15" s="48" t="s">
+      <c r="D15" s="30" t="s">
         <v>218</v>
       </c>
-      <c r="E15" s="35">
-        <v>3</v>
-      </c>
-      <c r="F15" s="36" t="s">
+      <c r="E15" s="3">
+        <v>3</v>
+      </c>
+      <c r="F15" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="35"/>
-      <c r="N15" s="35"/>
-    </row>
-    <row r="16" spans="1:14" s="37" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="35">
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="3">
         <v>13</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C16" s="35" t="s">
+      <c r="C16" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D16" s="48" t="s">
+      <c r="D16" s="30" t="s">
         <v>217</v>
       </c>
-      <c r="E16" s="35">
+      <c r="E16" s="3">
         <v>2</v>
       </c>
-      <c r="F16" s="36" t="s">
+      <c r="F16" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="35"/>
-      <c r="N16" s="35"/>
-    </row>
-    <row r="17" spans="1:14" s="37" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="35">
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="3">
         <v>14</v>
       </c>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C17" s="35" t="s">
+      <c r="C17" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="48" t="s">
+      <c r="D17" s="30" t="s">
         <v>216</v>
       </c>
-      <c r="E17" s="35">
-        <v>3</v>
-      </c>
-      <c r="F17" s="36" t="s">
+      <c r="E17" s="3">
+        <v>3</v>
+      </c>
+      <c r="F17" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="35"/>
-      <c r="N17" s="35"/>
-    </row>
-    <row r="18" spans="1:14" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="11">
         <v>15</v>
       </c>
@@ -12656,7 +12650,7 @@
       <c r="C18" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="D18" s="47"/>
+      <c r="D18" s="29"/>
       <c r="E18" s="11">
         <v>3</v>
       </c>
@@ -12665,14 +12659,14 @@
       </c>
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="35"/>
-    </row>
-    <row r="19" spans="1:14" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="11">
         <v>16</v>
       </c>
@@ -12682,7 +12676,7 @@
       <c r="C19" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="D19" s="47" t="s">
+      <c r="D19" s="29" t="s">
         <v>216</v>
       </c>
       <c r="E19" s="11">
@@ -12695,14 +12689,14 @@
         <v>63</v>
       </c>
       <c r="H19" s="11"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="35"/>
-      <c r="N19" s="35"/>
-    </row>
-    <row r="20" spans="1:14" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="11">
         <v>17</v>
       </c>
@@ -12712,7 +12706,7 @@
       <c r="C20" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="D20" s="47" t="s">
+      <c r="D20" s="29" t="s">
         <v>215</v>
       </c>
       <c r="E20" s="11">
@@ -12725,14 +12719,14 @@
         <v>63</v>
       </c>
       <c r="H20" s="11"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="35"/>
-      <c r="M20" s="35"/>
-      <c r="N20" s="35"/>
-    </row>
-    <row r="21" spans="1:14" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="11">
         <v>18</v>
       </c>
@@ -12742,7 +12736,7 @@
       <c r="C21" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="D21" s="47" t="s">
+      <c r="D21" s="29" t="s">
         <v>218</v>
       </c>
       <c r="E21" s="11">
@@ -12755,14 +12749,14 @@
         <v>61</v>
       </c>
       <c r="H21" s="11"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="35"/>
-      <c r="L21" s="35"/>
-      <c r="M21" s="35"/>
-      <c r="N21" s="35"/>
-    </row>
-    <row r="22" spans="1:14" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="11">
         <v>19</v>
       </c>
@@ -12772,7 +12766,7 @@
       <c r="C22" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="D22" s="47" t="s">
+      <c r="D22" s="29" t="s">
         <v>218</v>
       </c>
       <c r="E22" s="11">
@@ -12783,14 +12777,14 @@
       </c>
       <c r="G22" s="11"/>
       <c r="H22" s="11"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="35"/>
-      <c r="M22" s="35"/>
-      <c r="N22" s="35"/>
-    </row>
-    <row r="23" spans="1:14" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="11">
         <v>20</v>
       </c>
@@ -12800,7 +12794,7 @@
       <c r="C23" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="D23" s="47" t="s">
+      <c r="D23" s="29" t="s">
         <v>217</v>
       </c>
       <c r="E23" s="11">
@@ -12813,14 +12807,14 @@
         <v>61</v>
       </c>
       <c r="H23" s="11"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="35"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="35"/>
-      <c r="M23" s="35"/>
-      <c r="N23" s="35"/>
-    </row>
-    <row r="24" spans="1:14" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="11">
         <v>21</v>
       </c>
@@ -12830,7 +12824,7 @@
       <c r="C24" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="D24" s="47" t="s">
+      <c r="D24" s="29" t="s">
         <v>218</v>
       </c>
       <c r="E24" s="11">
@@ -12843,216 +12837,216 @@
         <v>62</v>
       </c>
       <c r="H24" s="11"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="35"/>
-      <c r="L24" s="35"/>
-      <c r="M24" s="35"/>
-      <c r="N24" s="35"/>
-    </row>
-    <row r="25" spans="1:14" s="37" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="35">
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="3">
         <v>22</v>
       </c>
-      <c r="B25" s="35" t="s">
+      <c r="B25" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="C25" s="35" t="s">
+      <c r="C25" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="D25" s="48"/>
-      <c r="E25" s="35">
-        <v>3</v>
-      </c>
-      <c r="F25" s="36" t="s">
+      <c r="D25" s="30"/>
+      <c r="E25" s="3">
+        <v>3</v>
+      </c>
+      <c r="F25" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="G25" s="35"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="35"/>
-      <c r="J25" s="35"/>
-      <c r="K25" s="35"/>
-      <c r="L25" s="35"/>
-      <c r="M25" s="35"/>
-      <c r="N25" s="35"/>
-    </row>
-    <row r="26" spans="1:14" s="37" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="35">
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="3">
         <v>23</v>
       </c>
-      <c r="B26" s="35" t="s">
+      <c r="B26" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="C26" s="35" t="s">
+      <c r="C26" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="D26" s="48"/>
-      <c r="E26" s="35">
-        <v>3</v>
-      </c>
-      <c r="F26" s="36" t="s">
+      <c r="D26" s="30"/>
+      <c r="E26" s="3">
+        <v>3</v>
+      </c>
+      <c r="F26" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="G26" s="35"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="35"/>
-      <c r="K26" s="35"/>
-      <c r="L26" s="35"/>
-      <c r="M26" s="35"/>
-      <c r="N26" s="35"/>
-    </row>
-    <row r="27" spans="1:14" s="37" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="35">
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="3">
         <v>24</v>
       </c>
-      <c r="B27" s="35" t="s">
+      <c r="B27" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C27" s="35" t="s">
+      <c r="C27" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D27" s="48" t="s">
+      <c r="D27" s="30" t="s">
         <v>217</v>
       </c>
-      <c r="E27" s="35">
-        <v>3</v>
-      </c>
-      <c r="F27" s="36" t="s">
+      <c r="E27" s="3">
+        <v>3</v>
+      </c>
+      <c r="F27" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="G27" s="35" t="s">
+      <c r="G27" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="H27" s="35"/>
-      <c r="I27" s="35"/>
-      <c r="J27" s="35"/>
-      <c r="K27" s="35"/>
-      <c r="L27" s="35"/>
-      <c r="M27" s="35"/>
-      <c r="N27" s="35"/>
-    </row>
-    <row r="28" spans="1:14" s="37" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="35">
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="3">
         <v>25</v>
       </c>
-      <c r="B28" s="35" t="s">
+      <c r="B28" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C28" s="35" t="s">
+      <c r="C28" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D28" s="48" t="s">
+      <c r="D28" s="30" t="s">
         <v>218</v>
       </c>
-      <c r="E28" s="35">
-        <v>3</v>
-      </c>
-      <c r="F28" s="36" t="s">
+      <c r="E28" s="3">
+        <v>3</v>
+      </c>
+      <c r="F28" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="G28" s="35" t="s">
+      <c r="G28" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="H28" s="35"/>
-      <c r="I28" s="35"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="35"/>
-      <c r="L28" s="35"/>
-      <c r="M28" s="35"/>
-      <c r="N28" s="35"/>
-    </row>
-    <row r="29" spans="1:14" s="37" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="35">
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="3">
         <v>26</v>
       </c>
-      <c r="B29" s="35" t="s">
+      <c r="B29" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C29" s="35" t="s">
+      <c r="C29" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D29" s="48" t="s">
+      <c r="D29" s="30" t="s">
         <v>220</v>
       </c>
-      <c r="E29" s="35">
-        <v>3</v>
-      </c>
-      <c r="F29" s="36" t="s">
+      <c r="E29" s="3">
+        <v>3</v>
+      </c>
+      <c r="F29" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="G29" s="35" t="s">
+      <c r="G29" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="H29" s="35"/>
-      <c r="I29" s="35"/>
-      <c r="J29" s="35"/>
-      <c r="K29" s="35"/>
-      <c r="L29" s="35"/>
-      <c r="M29" s="35"/>
-      <c r="N29" s="35"/>
-    </row>
-    <row r="30" spans="1:14" s="37" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="35">
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="3">
         <v>27</v>
       </c>
-      <c r="B30" s="35" t="s">
+      <c r="B30" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C30" s="35" t="s">
+      <c r="C30" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D30" s="48" t="s">
+      <c r="D30" s="30" t="s">
         <v>217</v>
       </c>
-      <c r="E30" s="35">
-        <v>3</v>
-      </c>
-      <c r="F30" s="36" t="s">
+      <c r="E30" s="3">
+        <v>3</v>
+      </c>
+      <c r="F30" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="G30" s="35" t="s">
+      <c r="G30" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="H30" s="35"/>
-      <c r="I30" s="35"/>
-      <c r="J30" s="35"/>
-      <c r="K30" s="35"/>
-      <c r="L30" s="35"/>
-      <c r="M30" s="35"/>
-      <c r="N30" s="35"/>
-    </row>
-    <row r="31" spans="1:14" s="37" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="35">
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="3">
         <v>28</v>
       </c>
-      <c r="B31" s="35" t="s">
+      <c r="B31" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C31" s="35" t="s">
+      <c r="C31" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D31" s="48" t="s">
+      <c r="D31" s="30" t="s">
         <v>218</v>
       </c>
-      <c r="E31" s="35">
-        <v>3</v>
-      </c>
-      <c r="F31" s="36" t="s">
+      <c r="E31" s="3">
+        <v>3</v>
+      </c>
+      <c r="F31" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="G31" s="35" t="s">
+      <c r="G31" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="H31" s="35"/>
-      <c r="I31" s="35"/>
-      <c r="J31" s="35"/>
-      <c r="K31" s="35"/>
-      <c r="L31" s="35"/>
-      <c r="M31" s="35"/>
-      <c r="N31" s="35"/>
-    </row>
-    <row r="32" spans="1:14" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="11">
         <v>29</v>
       </c>
@@ -13062,7 +13056,7 @@
       <c r="C32" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="D32" s="47"/>
+      <c r="D32" s="29"/>
       <c r="E32" s="11">
         <v>3</v>
       </c>
@@ -13071,14 +13065,14 @@
       </c>
       <c r="G32" s="11"/>
       <c r="H32" s="11"/>
-      <c r="I32" s="35"/>
-      <c r="J32" s="35"/>
-      <c r="K32" s="35"/>
-      <c r="L32" s="35"/>
-      <c r="M32" s="35"/>
-      <c r="N32" s="35"/>
-    </row>
-    <row r="33" spans="1:14" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="11">
         <v>30</v>
       </c>
@@ -13088,7 +13082,7 @@
       <c r="C33" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="D33" s="47"/>
+      <c r="D33" s="29"/>
       <c r="E33" s="11">
         <v>3</v>
       </c>
@@ -13097,14 +13091,14 @@
       </c>
       <c r="G33" s="11"/>
       <c r="H33" s="11"/>
-      <c r="I33" s="35"/>
-      <c r="J33" s="35"/>
-      <c r="K33" s="35"/>
-      <c r="L33" s="35"/>
-      <c r="M33" s="35"/>
-      <c r="N33" s="35"/>
-    </row>
-    <row r="34" spans="1:14" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="11">
         <v>31</v>
       </c>
@@ -13114,7 +13108,7 @@
       <c r="C34" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="D34" s="47" t="s">
+      <c r="D34" s="29" t="s">
         <v>219</v>
       </c>
       <c r="E34" s="11">
@@ -13125,14 +13119,14 @@
       </c>
       <c r="G34" s="11"/>
       <c r="H34" s="11"/>
-      <c r="I34" s="35"/>
-      <c r="J34" s="35"/>
-      <c r="K34" s="35"/>
-      <c r="L34" s="35"/>
-      <c r="M34" s="35"/>
-      <c r="N34" s="35"/>
-    </row>
-    <row r="35" spans="1:14" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="11">
         <v>32</v>
       </c>
@@ -13142,7 +13136,7 @@
       <c r="C35" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="D35" s="47" t="s">
+      <c r="D35" s="29" t="s">
         <v>217</v>
       </c>
       <c r="E35" s="11">
@@ -13155,14 +13149,14 @@
         <v>93</v>
       </c>
       <c r="H35" s="11"/>
-      <c r="I35" s="35"/>
-      <c r="J35" s="35"/>
-      <c r="K35" s="35"/>
-      <c r="L35" s="35"/>
-      <c r="M35" s="35"/>
-      <c r="N35" s="35"/>
-    </row>
-    <row r="36" spans="1:14" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+    </row>
+    <row r="36" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="11">
         <v>33</v>
       </c>
@@ -13172,7 +13166,7 @@
       <c r="C36" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="D36" s="47" t="s">
+      <c r="D36" s="29" t="s">
         <v>219</v>
       </c>
       <c r="E36" s="11">
@@ -13185,14 +13179,14 @@
         <v>84</v>
       </c>
       <c r="H36" s="11"/>
-      <c r="I36" s="35"/>
-      <c r="J36" s="35"/>
-      <c r="K36" s="35"/>
-      <c r="L36" s="35"/>
-      <c r="M36" s="35"/>
-      <c r="N36" s="35"/>
-    </row>
-    <row r="37" spans="1:14" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+    </row>
+    <row r="37" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="11">
         <v>34</v>
       </c>
@@ -13202,7 +13196,7 @@
       <c r="C37" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="D37" s="47"/>
+      <c r="D37" s="29"/>
       <c r="E37" s="11">
         <v>3</v>
       </c>
@@ -13211,14 +13205,14 @@
       </c>
       <c r="G37" s="11"/>
       <c r="H37" s="11"/>
-      <c r="I37" s="35"/>
-      <c r="J37" s="35"/>
-      <c r="K37" s="35"/>
-      <c r="L37" s="35"/>
-      <c r="M37" s="35"/>
-      <c r="N37" s="35"/>
-    </row>
-    <row r="38" spans="1:14" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+    </row>
+    <row r="38" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="11">
         <v>35</v>
       </c>
@@ -13228,7 +13222,7 @@
       <c r="C38" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="D38" s="47"/>
+      <c r="D38" s="29"/>
       <c r="E38" s="11">
         <v>3</v>
       </c>
@@ -13237,174 +13231,174 @@
       </c>
       <c r="G38" s="11"/>
       <c r="H38" s="11"/>
-      <c r="I38" s="35"/>
-      <c r="J38" s="35"/>
-      <c r="K38" s="35"/>
-      <c r="L38" s="35"/>
-      <c r="M38" s="35"/>
-      <c r="N38" s="35"/>
-    </row>
-    <row r="39" spans="1:14" s="37" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="35">
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+    </row>
+    <row r="39" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="3">
         <v>36</v>
       </c>
-      <c r="B39" s="35" t="s">
+      <c r="B39" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="C39" s="35" t="s">
+      <c r="C39" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="D39" s="48"/>
-      <c r="E39" s="35">
-        <v>3</v>
-      </c>
-      <c r="F39" s="36" t="s">
+      <c r="D39" s="30"/>
+      <c r="E39" s="3">
+        <v>3</v>
+      </c>
+      <c r="F39" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="G39" s="35"/>
-      <c r="H39" s="35"/>
-      <c r="I39" s="35"/>
-      <c r="J39" s="35"/>
-      <c r="K39" s="35"/>
-      <c r="L39" s="35"/>
-      <c r="M39" s="35"/>
-      <c r="N39" s="35"/>
-    </row>
-    <row r="40" spans="1:14" s="37" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="35">
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="3">
         <v>37</v>
       </c>
-      <c r="B40" s="35" t="s">
+      <c r="B40" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C40" s="35" t="s">
+      <c r="C40" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D40" s="48" t="s">
+      <c r="D40" s="30" t="s">
         <v>221</v>
       </c>
-      <c r="E40" s="35">
+      <c r="E40" s="3">
         <v>1</v>
       </c>
-      <c r="F40" s="36" t="s">
+      <c r="F40" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="G40" s="35"/>
-      <c r="H40" s="35"/>
-      <c r="I40" s="35"/>
-      <c r="J40" s="35"/>
-      <c r="K40" s="35"/>
-      <c r="L40" s="35"/>
-      <c r="M40" s="35"/>
-      <c r="N40" s="35"/>
-    </row>
-    <row r="41" spans="1:14" s="37" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="35">
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="3">
         <v>38</v>
       </c>
-      <c r="B41" s="35" t="s">
+      <c r="B41" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C41" s="35" t="s">
+      <c r="C41" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="D41" s="48" t="s">
+      <c r="D41" s="30" t="s">
         <v>221</v>
       </c>
-      <c r="E41" s="35">
+      <c r="E41" s="3">
         <v>1</v>
       </c>
-      <c r="F41" s="36" t="s">
+      <c r="F41" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="G41" s="35"/>
-      <c r="H41" s="35"/>
-      <c r="I41" s="35"/>
-      <c r="J41" s="35"/>
-      <c r="K41" s="35"/>
-      <c r="L41" s="35"/>
-      <c r="M41" s="35"/>
-      <c r="N41" s="35"/>
-    </row>
-    <row r="42" spans="1:14" s="37" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="35">
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="3">
         <v>39</v>
       </c>
-      <c r="B42" s="35" t="s">
+      <c r="B42" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="C42" s="35" t="s">
+      <c r="C42" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="D42" s="48"/>
-      <c r="E42" s="35">
-        <v>3</v>
-      </c>
-      <c r="F42" s="36" t="s">
+      <c r="D42" s="30"/>
+      <c r="E42" s="3">
+        <v>3</v>
+      </c>
+      <c r="F42" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="G42" s="35"/>
-      <c r="H42" s="35"/>
-      <c r="I42" s="35"/>
-      <c r="J42" s="35"/>
-      <c r="K42" s="35"/>
-      <c r="L42" s="35"/>
-      <c r="M42" s="35"/>
-      <c r="N42" s="35"/>
-    </row>
-    <row r="43" spans="1:14" s="37" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="35">
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="3">
         <v>40</v>
       </c>
-      <c r="B43" s="35" t="s">
+      <c r="B43" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="C43" s="35" t="s">
+      <c r="C43" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="D43" s="48"/>
-      <c r="E43" s="35">
-        <v>3</v>
-      </c>
-      <c r="F43" s="36" t="s">
+      <c r="D43" s="30"/>
+      <c r="E43" s="3">
+        <v>3</v>
+      </c>
+      <c r="F43" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="G43" s="35"/>
-      <c r="H43" s="35"/>
-      <c r="I43" s="35"/>
-      <c r="J43" s="35"/>
-      <c r="K43" s="35"/>
-      <c r="L43" s="35"/>
-      <c r="M43" s="35"/>
-      <c r="N43" s="35"/>
-    </row>
-    <row r="44" spans="1:14" s="37" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="35">
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="3">
         <v>41</v>
       </c>
-      <c r="B44" s="35" t="s">
+      <c r="B44" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="C44" s="35" t="s">
+      <c r="C44" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="D44" s="48"/>
-      <c r="E44" s="35">
-        <v>3</v>
-      </c>
-      <c r="F44" s="36" t="s">
+      <c r="D44" s="30"/>
+      <c r="E44" s="3">
+        <v>3</v>
+      </c>
+      <c r="F44" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="G44" s="35"/>
-      <c r="H44" s="35"/>
-      <c r="I44" s="35"/>
-      <c r="J44" s="35"/>
-      <c r="K44" s="35"/>
-      <c r="L44" s="35"/>
-      <c r="M44" s="35"/>
-      <c r="N44" s="35"/>
-    </row>
-    <row r="45" spans="1:14" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A45" s="11">
         <v>42</v>
       </c>
@@ -13414,7 +13408,7 @@
       <c r="C45" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="D45" s="47" t="s">
+      <c r="D45" s="29" t="s">
         <v>221</v>
       </c>
       <c r="E45" s="11">
@@ -13425,138 +13419,138 @@
       </c>
       <c r="G45" s="11"/>
       <c r="H45" s="11"/>
-      <c r="I45" s="35"/>
-      <c r="J45" s="35"/>
-      <c r="K45" s="35"/>
-      <c r="L45" s="35"/>
-      <c r="M45" s="35"/>
-      <c r="N45" s="35"/>
-    </row>
-    <row r="46" spans="1:14" s="37" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="35">
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="3">
         <v>43</v>
       </c>
-      <c r="B46" s="35" t="s">
+      <c r="B46" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="C46" s="35" t="s">
+      <c r="C46" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="D46" s="48"/>
-      <c r="E46" s="35">
-        <v>3</v>
-      </c>
-      <c r="F46" s="36" t="s">
+      <c r="D46" s="30"/>
+      <c r="E46" s="3">
+        <v>3</v>
+      </c>
+      <c r="F46" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="G46" s="35"/>
-      <c r="H46" s="35"/>
-      <c r="I46" s="35"/>
-      <c r="J46" s="35"/>
-      <c r="K46" s="35"/>
-      <c r="L46" s="35"/>
-      <c r="M46" s="35"/>
-      <c r="N46" s="35"/>
-    </row>
-    <row r="47" spans="1:14" s="37" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="35">
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="3">
         <v>44</v>
       </c>
-      <c r="B47" s="35" t="s">
+      <c r="B47" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="C47" s="35" t="s">
+      <c r="C47" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="D47" s="48"/>
-      <c r="E47" s="35">
-        <v>3</v>
-      </c>
-      <c r="F47" s="36" t="s">
+      <c r="D47" s="30"/>
+      <c r="E47" s="3">
+        <v>3</v>
+      </c>
+      <c r="F47" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="G47" s="35"/>
-      <c r="H47" s="35"/>
-      <c r="I47" s="35"/>
-      <c r="J47" s="35"/>
-      <c r="K47" s="35"/>
-      <c r="L47" s="35"/>
-      <c r="M47" s="35"/>
-      <c r="N47" s="35"/>
-    </row>
-    <row r="48" spans="1:14" s="37" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="35">
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="3">
         <v>45</v>
       </c>
-      <c r="B48" s="35" t="s">
+      <c r="B48" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C48" s="35" t="s">
+      <c r="C48" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="D48" s="48" t="s">
+      <c r="D48" s="30" t="s">
         <v>221</v>
       </c>
-      <c r="E48" s="35">
-        <v>3</v>
-      </c>
-      <c r="F48" s="36" t="s">
+      <c r="E48" s="3">
+        <v>3</v>
+      </c>
+      <c r="F48" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="G48" s="35"/>
-      <c r="H48" s="35"/>
-      <c r="I48" s="35"/>
-      <c r="J48" s="35"/>
-      <c r="K48" s="35"/>
-      <c r="L48" s="35"/>
-      <c r="M48" s="35"/>
-      <c r="N48" s="35"/>
-    </row>
-    <row r="49" spans="1:14" s="37" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="35">
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="3">
         <v>46</v>
       </c>
-      <c r="B49" s="35" t="s">
+      <c r="B49" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="C49" s="35" t="s">
+      <c r="C49" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="D49" s="48"/>
-      <c r="E49" s="35">
-        <v>3</v>
-      </c>
-      <c r="F49" s="36" t="s">
+      <c r="D49" s="30"/>
+      <c r="E49" s="3">
+        <v>3</v>
+      </c>
+      <c r="F49" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="G49" s="35"/>
-      <c r="H49" s="35"/>
-      <c r="I49" s="35"/>
-      <c r="J49" s="35"/>
-      <c r="K49" s="35"/>
-      <c r="L49" s="35"/>
-      <c r="M49" s="35"/>
-      <c r="N49" s="35"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.8">
-      <c r="A50" s="26" t="s">
+      <c r="A50" s="35" t="s">
         <v>167</v>
       </c>
-      <c r="B50" s="26"/>
-      <c r="C50" s="26"/>
-      <c r="D50" s="26"/>
+      <c r="B50" s="35"/>
+      <c r="C50" s="35"/>
+      <c r="D50" s="35"/>
       <c r="E50" s="3">
         <f>SUM(E4:E49)</f>
         <v>135</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.8">
-      <c r="A52" s="26" t="s">
+      <c r="A52" s="35" t="s">
         <v>203</v>
       </c>
-      <c r="B52" s="26"/>
-      <c r="C52" s="26"/>
-      <c r="D52" s="26"/>
+      <c r="B52" s="35"/>
+      <c r="C52" s="35"/>
+      <c r="D52" s="35"/>
       <c r="E52" s="3" t="s">
         <v>172</v>
       </c>
@@ -13565,29 +13559,29 @@
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.8">
-      <c r="A53" s="41" t="s">
+      <c r="A53" s="36" t="s">
         <v>204</v>
       </c>
-      <c r="B53" s="41"/>
-      <c r="C53" s="41" t="s">
+      <c r="B53" s="36"/>
+      <c r="C53" s="36" t="s">
         <v>205</v>
       </c>
-      <c r="D53" s="44" t="s">
+      <c r="D53" s="26" t="s">
         <v>206</v>
       </c>
       <c r="E53" s="16">
         <f>SUMIF(D4:D49,"กลุ่มวิชาภาษาและการสื่อสาร",E4:E49)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F53" s="16">
         <v>12</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.8">
-      <c r="A54" s="41"/>
-      <c r="B54" s="41"/>
-      <c r="C54" s="41"/>
-      <c r="D54" s="45" t="s">
+      <c r="A54" s="36"/>
+      <c r="B54" s="36"/>
+      <c r="C54" s="36"/>
+      <c r="D54" s="27" t="s">
         <v>207</v>
       </c>
       <c r="E54" s="16">
@@ -13599,10 +13593,10 @@
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.8">
-      <c r="A55" s="41"/>
-      <c r="B55" s="41"/>
-      <c r="C55" s="41"/>
-      <c r="D55" s="45" t="s">
+      <c r="A55" s="36"/>
+      <c r="B55" s="36"/>
+      <c r="C55" s="36"/>
+      <c r="D55" s="27" t="s">
         <v>208</v>
       </c>
       <c r="E55" s="16">
@@ -13614,12 +13608,12 @@
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.8">
-      <c r="A56" s="41"/>
-      <c r="B56" s="41"/>
-      <c r="C56" s="27" t="s">
+      <c r="A56" s="36"/>
+      <c r="B56" s="36"/>
+      <c r="C56" s="38" t="s">
         <v>209</v>
       </c>
-      <c r="D56" s="45" t="s">
+      <c r="D56" s="27" t="s">
         <v>210</v>
       </c>
       <c r="E56" s="16">
@@ -13631,10 +13625,10 @@
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.8">
-      <c r="A57" s="41"/>
-      <c r="B57" s="41"/>
-      <c r="C57" s="27"/>
-      <c r="D57" s="45" t="s">
+      <c r="A57" s="36"/>
+      <c r="B57" s="36"/>
+      <c r="C57" s="38"/>
+      <c r="D57" s="27" t="s">
         <v>211</v>
       </c>
       <c r="E57" s="16">
@@ -13646,14 +13640,14 @@
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.8">
-      <c r="A58" s="42" t="s">
+      <c r="A58" s="37" t="s">
         <v>212</v>
       </c>
-      <c r="B58" s="42"/>
-      <c r="C58" s="28" t="s">
+      <c r="B58" s="37"/>
+      <c r="C58" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="D58" s="46" t="s">
+      <c r="D58" s="28" t="s">
         <v>215</v>
       </c>
       <c r="E58" s="17">
@@ -13665,10 +13659,10 @@
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.8">
-      <c r="A59" s="42"/>
-      <c r="B59" s="42"/>
-      <c r="C59" s="28"/>
-      <c r="D59" s="46" t="s">
+      <c r="A59" s="37"/>
+      <c r="B59" s="37"/>
+      <c r="C59" s="39"/>
+      <c r="D59" s="28" t="s">
         <v>216</v>
       </c>
       <c r="E59" s="17">
@@ -13680,12 +13674,12 @@
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.8">
-      <c r="A60" s="42"/>
-      <c r="B60" s="42"/>
-      <c r="C60" s="28" t="s">
+      <c r="A60" s="37"/>
+      <c r="B60" s="37"/>
+      <c r="C60" s="39" t="s">
         <v>214</v>
       </c>
-      <c r="D60" s="46" t="s">
+      <c r="D60" s="28" t="s">
         <v>217</v>
       </c>
       <c r="E60" s="17">
@@ -13697,10 +13691,10 @@
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.8">
-      <c r="A61" s="42"/>
-      <c r="B61" s="42"/>
-      <c r="C61" s="28"/>
-      <c r="D61" s="46" t="s">
+      <c r="A61" s="37"/>
+      <c r="B61" s="37"/>
+      <c r="C61" s="39"/>
+      <c r="D61" s="28" t="s">
         <v>218</v>
       </c>
       <c r="E61" s="17">
@@ -13712,10 +13706,10 @@
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.8">
-      <c r="A62" s="42"/>
-      <c r="B62" s="42"/>
-      <c r="C62" s="28"/>
-      <c r="D62" s="46" t="s">
+      <c r="A62" s="37"/>
+      <c r="B62" s="37"/>
+      <c r="C62" s="39"/>
+      <c r="D62" s="28" t="s">
         <v>219</v>
       </c>
       <c r="E62" s="17">
@@ -13727,10 +13721,10 @@
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.8">
-      <c r="A63" s="42"/>
-      <c r="B63" s="42"/>
-      <c r="C63" s="28"/>
-      <c r="D63" s="46" t="s">
+      <c r="A63" s="37"/>
+      <c r="B63" s="37"/>
+      <c r="C63" s="39"/>
+      <c r="D63" s="28" t="s">
         <v>220</v>
       </c>
       <c r="E63" s="17">
@@ -13742,10 +13736,10 @@
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.8">
-      <c r="A64" s="42"/>
-      <c r="B64" s="42"/>
-      <c r="C64" s="28"/>
-      <c r="D64" s="46" t="s">
+      <c r="A64" s="37"/>
+      <c r="B64" s="37"/>
+      <c r="C64" s="39"/>
+      <c r="D64" s="28" t="s">
         <v>221</v>
       </c>
       <c r="E64" s="17">
@@ -13757,45 +13751,45 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.8">
-      <c r="A65" s="42"/>
-      <c r="B65" s="42"/>
-      <c r="C65" s="28" t="s">
+      <c r="A65" s="37"/>
+      <c r="B65" s="37"/>
+      <c r="C65" s="39" t="s">
         <v>222</v>
       </c>
-      <c r="D65" s="28"/>
+      <c r="D65" s="39"/>
       <c r="E65" s="17">
         <f>SUMIF(D4:D49,"กลุ่มวิชาภาษาและการสื่อสาร",E4:E49)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F65" s="17">
         <v>12</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.8">
-      <c r="A66" s="39" t="s">
+      <c r="A66" s="32" t="s">
         <v>223</v>
       </c>
-      <c r="B66" s="43"/>
-      <c r="C66" s="43"/>
-      <c r="D66" s="40"/>
+      <c r="B66" s="33"/>
+      <c r="C66" s="33"/>
+      <c r="D66" s="34"/>
       <c r="E66" s="18">
         <f>SUMIF(D4:D49,"กลุ่มวิชาภาษาและการสื่อสาร",E4:E49)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F66" s="18">
         <v>6</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.8">
-      <c r="A67" s="32" t="s">
+      <c r="A67" s="40" t="s">
         <v>167</v>
       </c>
-      <c r="B67" s="33"/>
-      <c r="C67" s="33"/>
-      <c r="D67" s="34"/>
+      <c r="B67" s="41"/>
+      <c r="C67" s="41"/>
+      <c r="D67" s="42"/>
       <c r="E67" s="2">
         <f>SUM(E53:E66)</f>
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="F67" s="2">
         <f>SUM(F53:F66)</f>
@@ -13805,11 +13799,7 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="13">
-    <mergeCell ref="A2:N2"/>
-    <mergeCell ref="A58:B65"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="C60:C64"/>
-    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="A1:N1"/>
     <mergeCell ref="A66:D66"/>
     <mergeCell ref="A67:D67"/>
     <mergeCell ref="A50:D50"/>
@@ -13817,8 +13807,13 @@
     <mergeCell ref="A53:B57"/>
     <mergeCell ref="C53:C55"/>
     <mergeCell ref="C56:C57"/>
-    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="A58:B65"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="C60:C64"/>
+    <mergeCell ref="C65:D65"/>
   </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -13828,8 +13823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F61DD1C3-E341-46D0-ACDE-B1C863337749}">
   <dimension ref="A1:U67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="24" x14ac:dyDescent="0.8"/>
@@ -13846,155 +13841,183 @@
     <col min="22" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="37" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-    </row>
-    <row r="2" spans="1:21" s="37" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="38" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35"/>
+      <c r="U1" s="35"/>
+    </row>
+    <row r="2" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="35" t="s">
         <v>244</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="38"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="38"/>
-    </row>
-    <row r="3" spans="1:21" s="37" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="35" t="s">
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="35"/>
+      <c r="U2" s="35"/>
+    </row>
+    <row r="3" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="35" t="s">
+      <c r="C3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="35" t="s">
+      <c r="E3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="35" t="s">
+      <c r="F3" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="G3" s="35" t="s">
+      <c r="G3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="I3" s="35" t="s">
+      <c r="I3" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="J3" s="35" t="s">
+      <c r="J3" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="K3" s="35" t="s">
+      <c r="K3" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="L3" s="35" t="s">
+      <c r="L3" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="M3" s="35" t="s">
+      <c r="M3" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="N3" s="35" t="s">
+      <c r="N3" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="O3" s="35" t="s">
+      <c r="O3" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="P3" s="35" t="s">
+      <c r="P3" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="Q3" s="35" t="s">
+      <c r="Q3" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="R3" s="35" t="s">
+      <c r="R3" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="S3" s="35" t="s">
+      <c r="S3" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="T3" s="35" t="s">
+      <c r="T3" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="U3" s="35" t="s">
+      <c r="U3" s="3" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="37" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="11">
         <v>1</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="D4" s="47"/>
+        <v>36</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>206</v>
+      </c>
       <c r="E4" s="11">
         <v>3</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35"/>
-      <c r="P4" s="35"/>
-      <c r="Q4" s="35"/>
-      <c r="R4" s="35"/>
-      <c r="S4" s="35"/>
-      <c r="T4" s="35"/>
-      <c r="U4" s="35"/>
-    </row>
-    <row r="5" spans="1:21" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="I4" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="11">
         <v>2</v>
       </c>
@@ -14004,32 +14027,32 @@
       <c r="C5" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="D5" s="47" t="s">
+      <c r="D5" s="29" t="s">
         <v>215</v>
       </c>
       <c r="E5" s="11">
         <v>3</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="35"/>
-      <c r="O5" s="35"/>
-      <c r="P5" s="35"/>
-      <c r="Q5" s="35"/>
-      <c r="R5" s="35"/>
-      <c r="S5" s="35"/>
-      <c r="T5" s="35"/>
-      <c r="U5" s="35"/>
-    </row>
-    <row r="6" spans="1:21" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+    </row>
+    <row r="6" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="11">
         <v>3</v>
       </c>
@@ -14039,32 +14062,32 @@
       <c r="C6" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="47" t="s">
+      <c r="D6" s="29" t="s">
         <v>216</v>
       </c>
       <c r="E6" s="11">
         <v>3</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="35"/>
-      <c r="O6" s="35"/>
-      <c r="P6" s="35"/>
-      <c r="Q6" s="35"/>
-      <c r="R6" s="35"/>
-      <c r="S6" s="35"/>
-      <c r="T6" s="35"/>
-      <c r="U6" s="35"/>
-    </row>
-    <row r="7" spans="1:21" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+    </row>
+    <row r="7" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="11">
         <v>4</v>
       </c>
@@ -14074,32 +14097,32 @@
       <c r="C7" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="47" t="s">
+      <c r="D7" s="29" t="s">
         <v>216</v>
       </c>
       <c r="E7" s="11">
         <v>3</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="35"/>
-      <c r="N7" s="35"/>
-      <c r="O7" s="35"/>
-      <c r="P7" s="35"/>
-      <c r="Q7" s="35"/>
-      <c r="R7" s="35"/>
-      <c r="S7" s="35"/>
-      <c r="T7" s="35"/>
-      <c r="U7" s="35"/>
-    </row>
-    <row r="8" spans="1:21" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+    </row>
+    <row r="8" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="11">
         <v>5</v>
       </c>
@@ -14109,32 +14132,32 @@
       <c r="C8" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="47" t="s">
+      <c r="D8" s="29" t="s">
         <v>216</v>
       </c>
       <c r="E8" s="11">
         <v>1</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="35"/>
-      <c r="N8" s="35"/>
-      <c r="O8" s="35"/>
-      <c r="P8" s="35"/>
-      <c r="Q8" s="35"/>
-      <c r="R8" s="35"/>
-      <c r="S8" s="35"/>
-      <c r="T8" s="35"/>
-      <c r="U8" s="35"/>
-    </row>
-    <row r="9" spans="1:21" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+    </row>
+    <row r="9" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="11">
         <v>6</v>
       </c>
@@ -14144,32 +14167,32 @@
       <c r="C9" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="D9" s="47" t="s">
+      <c r="D9" s="29" t="s">
         <v>216</v>
       </c>
       <c r="E9" s="11">
         <v>3</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="35"/>
-      <c r="O9" s="35"/>
-      <c r="P9" s="35"/>
-      <c r="Q9" s="35"/>
-      <c r="R9" s="35"/>
-      <c r="S9" s="35"/>
-      <c r="T9" s="35"/>
-      <c r="U9" s="35"/>
-    </row>
-    <row r="10" spans="1:21" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+    </row>
+    <row r="10" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11">
         <v>7</v>
       </c>
@@ -14179,279 +14202,279 @@
       <c r="C10" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="47" t="s">
+      <c r="D10" s="29" t="s">
         <v>216</v>
       </c>
       <c r="E10" s="11">
         <v>3</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="35"/>
-      <c r="N10" s="35"/>
-      <c r="O10" s="35"/>
-      <c r="P10" s="35"/>
-      <c r="Q10" s="35"/>
-      <c r="R10" s="35"/>
-      <c r="S10" s="35"/>
-      <c r="T10" s="35"/>
-      <c r="U10" s="35"/>
-    </row>
-    <row r="11" spans="1:21" s="37" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="35">
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+    </row>
+    <row r="11" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="3">
         <v>8</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="D11" s="48"/>
-      <c r="E11" s="35">
-        <v>3</v>
-      </c>
-      <c r="F11" s="36" t="s">
+      <c r="D11" s="30"/>
+      <c r="E11" s="3">
+        <v>3</v>
+      </c>
+      <c r="F11" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="35"/>
-      <c r="N11" s="35"/>
-      <c r="O11" s="35"/>
-      <c r="P11" s="35"/>
-      <c r="Q11" s="35"/>
-      <c r="R11" s="35"/>
-      <c r="S11" s="35"/>
-      <c r="T11" s="35"/>
-      <c r="U11" s="35"/>
-    </row>
-    <row r="12" spans="1:21" s="37" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="35">
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="3">
         <v>9</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="35" t="s">
+      <c r="C12" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="48" t="s">
+      <c r="D12" s="30" t="s">
         <v>215</v>
       </c>
-      <c r="E12" s="35">
-        <v>3</v>
-      </c>
-      <c r="F12" s="36" t="s">
+      <c r="E12" s="3">
+        <v>3</v>
+      </c>
+      <c r="F12" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="G12" s="35" t="s">
+      <c r="G12" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="35"/>
-      <c r="N12" s="35"/>
-      <c r="O12" s="35"/>
-      <c r="P12" s="35"/>
-      <c r="Q12" s="35"/>
-      <c r="R12" s="35"/>
-      <c r="S12" s="35"/>
-      <c r="T12" s="35"/>
-      <c r="U12" s="35"/>
-    </row>
-    <row r="13" spans="1:21" s="37" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="35">
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+    </row>
+    <row r="13" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="3">
         <v>10</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="C13" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="48" t="s">
+      <c r="D13" s="30" t="s">
         <v>215</v>
       </c>
-      <c r="E13" s="35">
+      <c r="E13" s="3">
         <v>4</v>
       </c>
-      <c r="F13" s="36" t="s">
+      <c r="F13" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="35"/>
-      <c r="N13" s="35"/>
-      <c r="O13" s="35"/>
-      <c r="P13" s="35"/>
-      <c r="Q13" s="35"/>
-      <c r="R13" s="35"/>
-      <c r="S13" s="35"/>
-      <c r="T13" s="35"/>
-      <c r="U13" s="35"/>
-    </row>
-    <row r="14" spans="1:21" s="37" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="35">
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+    </row>
+    <row r="14" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="3">
         <v>11</v>
       </c>
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="35" t="s">
+      <c r="C14" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="48" t="s">
+      <c r="D14" s="30" t="s">
         <v>219</v>
       </c>
-      <c r="E14" s="35">
-        <v>3</v>
-      </c>
-      <c r="F14" s="36" t="s">
+      <c r="E14" s="3">
+        <v>3</v>
+      </c>
+      <c r="F14" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="G14" s="35" t="s">
+      <c r="G14" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="35"/>
-      <c r="O14" s="35"/>
-      <c r="P14" s="35"/>
-      <c r="Q14" s="35"/>
-      <c r="R14" s="35"/>
-      <c r="S14" s="35"/>
-      <c r="T14" s="35"/>
-      <c r="U14" s="35"/>
-    </row>
-    <row r="15" spans="1:21" s="37" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="35">
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+    </row>
+    <row r="15" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="3">
         <v>12</v>
       </c>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C15" s="35" t="s">
+      <c r="C15" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D15" s="48" t="s">
+      <c r="D15" s="30" t="s">
         <v>218</v>
       </c>
-      <c r="E15" s="35">
-        <v>3</v>
-      </c>
-      <c r="F15" s="36" t="s">
+      <c r="E15" s="3">
+        <v>3</v>
+      </c>
+      <c r="F15" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="35"/>
-      <c r="N15" s="35"/>
-      <c r="O15" s="35"/>
-      <c r="P15" s="35"/>
-      <c r="Q15" s="35"/>
-      <c r="R15" s="35"/>
-      <c r="S15" s="35"/>
-      <c r="T15" s="35"/>
-      <c r="U15" s="35"/>
-    </row>
-    <row r="16" spans="1:21" s="37" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="35">
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+    </row>
+    <row r="16" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="3">
         <v>13</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C16" s="35" t="s">
+      <c r="C16" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D16" s="48" t="s">
+      <c r="D16" s="30" t="s">
         <v>217</v>
       </c>
-      <c r="E16" s="35">
+      <c r="E16" s="3">
         <v>2</v>
       </c>
-      <c r="F16" s="36" t="s">
+      <c r="F16" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="35"/>
-      <c r="N16" s="35"/>
-      <c r="O16" s="35"/>
-      <c r="P16" s="35"/>
-      <c r="Q16" s="35"/>
-      <c r="R16" s="35"/>
-      <c r="S16" s="35"/>
-      <c r="T16" s="35"/>
-      <c r="U16" s="35"/>
-    </row>
-    <row r="17" spans="1:21" s="37" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="35">
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="3">
         <v>14</v>
       </c>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C17" s="35" t="s">
+      <c r="C17" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="48" t="s">
+      <c r="D17" s="30" t="s">
         <v>216</v>
       </c>
-      <c r="E17" s="35">
-        <v>3</v>
-      </c>
-      <c r="F17" s="36" t="s">
+      <c r="E17" s="3">
+        <v>3</v>
+      </c>
+      <c r="F17" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="35"/>
-      <c r="N17" s="35"/>
-      <c r="O17" s="35"/>
-      <c r="P17" s="35"/>
-      <c r="Q17" s="35"/>
-      <c r="R17" s="35"/>
-      <c r="S17" s="35"/>
-      <c r="T17" s="35"/>
-      <c r="U17" s="35"/>
-    </row>
-    <row r="18" spans="1:21" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+    </row>
+    <row r="18" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="11">
         <v>15</v>
       </c>
@@ -14461,7 +14484,7 @@
       <c r="C18" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="D18" s="47"/>
+      <c r="D18" s="29"/>
       <c r="E18" s="11">
         <v>3</v>
       </c>
@@ -14470,21 +14493,21 @@
       </c>
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="35"/>
-      <c r="O18" s="35"/>
-      <c r="P18" s="35"/>
-      <c r="Q18" s="35"/>
-      <c r="R18" s="35"/>
-      <c r="S18" s="35"/>
-      <c r="T18" s="35"/>
-      <c r="U18" s="35"/>
-    </row>
-    <row r="19" spans="1:21" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+    </row>
+    <row r="19" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="11">
         <v>16</v>
       </c>
@@ -14494,7 +14517,7 @@
       <c r="C19" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="D19" s="47" t="s">
+      <c r="D19" s="29" t="s">
         <v>216</v>
       </c>
       <c r="E19" s="11">
@@ -14507,21 +14530,21 @@
         <v>63</v>
       </c>
       <c r="H19" s="11"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="35"/>
-      <c r="N19" s="35"/>
-      <c r="O19" s="35"/>
-      <c r="P19" s="35"/>
-      <c r="Q19" s="35"/>
-      <c r="R19" s="35"/>
-      <c r="S19" s="35"/>
-      <c r="T19" s="35"/>
-      <c r="U19" s="35"/>
-    </row>
-    <row r="20" spans="1:21" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="11">
         <v>17</v>
       </c>
@@ -14531,7 +14554,7 @@
       <c r="C20" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="D20" s="47" t="s">
+      <c r="D20" s="29" t="s">
         <v>215</v>
       </c>
       <c r="E20" s="11">
@@ -14544,21 +14567,21 @@
         <v>63</v>
       </c>
       <c r="H20" s="11"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="35"/>
-      <c r="M20" s="35"/>
-      <c r="N20" s="35"/>
-      <c r="O20" s="35"/>
-      <c r="P20" s="35"/>
-      <c r="Q20" s="35"/>
-      <c r="R20" s="35"/>
-      <c r="S20" s="35"/>
-      <c r="T20" s="35"/>
-      <c r="U20" s="35"/>
-    </row>
-    <row r="21" spans="1:21" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+    </row>
+    <row r="21" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="11">
         <v>18</v>
       </c>
@@ -14568,7 +14591,7 @@
       <c r="C21" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="D21" s="47" t="s">
+      <c r="D21" s="29" t="s">
         <v>218</v>
       </c>
       <c r="E21" s="11">
@@ -14581,21 +14604,21 @@
         <v>61</v>
       </c>
       <c r="H21" s="11"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="35"/>
-      <c r="L21" s="35"/>
-      <c r="M21" s="35"/>
-      <c r="N21" s="35"/>
-      <c r="O21" s="35"/>
-      <c r="P21" s="35"/>
-      <c r="Q21" s="35"/>
-      <c r="R21" s="35"/>
-      <c r="S21" s="35"/>
-      <c r="T21" s="35"/>
-      <c r="U21" s="35"/>
-    </row>
-    <row r="22" spans="1:21" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+    </row>
+    <row r="22" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="11">
         <v>19</v>
       </c>
@@ -14605,7 +14628,7 @@
       <c r="C22" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="D22" s="47" t="s">
+      <c r="D22" s="29" t="s">
         <v>218</v>
       </c>
       <c r="E22" s="11">
@@ -14616,21 +14639,21 @@
       </c>
       <c r="G22" s="11"/>
       <c r="H22" s="11"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="35"/>
-      <c r="M22" s="35"/>
-      <c r="N22" s="35"/>
-      <c r="O22" s="35"/>
-      <c r="P22" s="35"/>
-      <c r="Q22" s="35"/>
-      <c r="R22" s="35"/>
-      <c r="S22" s="35"/>
-      <c r="T22" s="35"/>
-      <c r="U22" s="35"/>
-    </row>
-    <row r="23" spans="1:21" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+    </row>
+    <row r="23" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="11">
         <v>20</v>
       </c>
@@ -14640,7 +14663,7 @@
       <c r="C23" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="D23" s="47" t="s">
+      <c r="D23" s="29" t="s">
         <v>217</v>
       </c>
       <c r="E23" s="11">
@@ -14653,21 +14676,21 @@
         <v>61</v>
       </c>
       <c r="H23" s="11"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="35"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="35"/>
-      <c r="M23" s="35"/>
-      <c r="N23" s="35"/>
-      <c r="O23" s="35"/>
-      <c r="P23" s="35"/>
-      <c r="Q23" s="35"/>
-      <c r="R23" s="35"/>
-      <c r="S23" s="35"/>
-      <c r="T23" s="35"/>
-      <c r="U23" s="35"/>
-    </row>
-    <row r="24" spans="1:21" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+    </row>
+    <row r="24" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="11">
         <v>21</v>
       </c>
@@ -14677,7 +14700,7 @@
       <c r="C24" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="D24" s="47" t="s">
+      <c r="D24" s="29" t="s">
         <v>218</v>
       </c>
       <c r="E24" s="11">
@@ -14690,272 +14713,272 @@
         <v>62</v>
       </c>
       <c r="H24" s="11"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="35"/>
-      <c r="L24" s="35"/>
-      <c r="M24" s="35"/>
-      <c r="N24" s="35"/>
-      <c r="O24" s="35"/>
-      <c r="P24" s="35"/>
-      <c r="Q24" s="35"/>
-      <c r="R24" s="35"/>
-      <c r="S24" s="35"/>
-      <c r="T24" s="35"/>
-      <c r="U24" s="35"/>
-    </row>
-    <row r="25" spans="1:21" s="37" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="35">
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+    </row>
+    <row r="25" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="3">
         <v>22</v>
       </c>
-      <c r="B25" s="35" t="s">
+      <c r="B25" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="C25" s="35" t="s">
+      <c r="C25" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="D25" s="48"/>
-      <c r="E25" s="35">
-        <v>3</v>
-      </c>
-      <c r="F25" s="36" t="s">
+      <c r="D25" s="30"/>
+      <c r="E25" s="3">
+        <v>3</v>
+      </c>
+      <c r="F25" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="G25" s="35"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="35"/>
-      <c r="J25" s="35"/>
-      <c r="K25" s="35"/>
-      <c r="L25" s="35"/>
-      <c r="M25" s="35"/>
-      <c r="N25" s="35"/>
-      <c r="O25" s="35"/>
-      <c r="P25" s="35"/>
-      <c r="Q25" s="35"/>
-      <c r="R25" s="35"/>
-      <c r="S25" s="35"/>
-      <c r="T25" s="35"/>
-      <c r="U25" s="35"/>
-    </row>
-    <row r="26" spans="1:21" s="37" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="35">
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+    </row>
+    <row r="26" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="3">
         <v>23</v>
       </c>
-      <c r="B26" s="35" t="s">
+      <c r="B26" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="C26" s="35" t="s">
+      <c r="C26" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="D26" s="48"/>
-      <c r="E26" s="35">
-        <v>3</v>
-      </c>
-      <c r="F26" s="36" t="s">
+      <c r="D26" s="30"/>
+      <c r="E26" s="3">
+        <v>3</v>
+      </c>
+      <c r="F26" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="G26" s="35"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="35"/>
-      <c r="K26" s="35"/>
-      <c r="L26" s="35"/>
-      <c r="M26" s="35"/>
-      <c r="N26" s="35"/>
-      <c r="O26" s="35"/>
-      <c r="P26" s="35"/>
-      <c r="Q26" s="35"/>
-      <c r="R26" s="35"/>
-      <c r="S26" s="35"/>
-      <c r="T26" s="35"/>
-      <c r="U26" s="35"/>
-    </row>
-    <row r="27" spans="1:21" s="37" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="35">
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+    </row>
+    <row r="27" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="3">
         <v>24</v>
       </c>
-      <c r="B27" s="35" t="s">
+      <c r="B27" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C27" s="35" t="s">
+      <c r="C27" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D27" s="48" t="s">
+      <c r="D27" s="30" t="s">
         <v>217</v>
       </c>
-      <c r="E27" s="35">
-        <v>3</v>
-      </c>
-      <c r="F27" s="36" t="s">
+      <c r="E27" s="3">
+        <v>3</v>
+      </c>
+      <c r="F27" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="G27" s="35" t="s">
+      <c r="G27" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="H27" s="35"/>
-      <c r="I27" s="35"/>
-      <c r="J27" s="35"/>
-      <c r="K27" s="35"/>
-      <c r="L27" s="35"/>
-      <c r="M27" s="35"/>
-      <c r="N27" s="35"/>
-      <c r="O27" s="35"/>
-      <c r="P27" s="35"/>
-      <c r="Q27" s="35"/>
-      <c r="R27" s="35"/>
-      <c r="S27" s="35"/>
-      <c r="T27" s="35"/>
-      <c r="U27" s="35"/>
-    </row>
-    <row r="28" spans="1:21" s="37" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="35">
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+    </row>
+    <row r="28" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="3">
         <v>25</v>
       </c>
-      <c r="B28" s="35" t="s">
+      <c r="B28" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C28" s="35" t="s">
+      <c r="C28" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D28" s="48" t="s">
+      <c r="D28" s="30" t="s">
         <v>218</v>
       </c>
-      <c r="E28" s="35">
-        <v>3</v>
-      </c>
-      <c r="F28" s="36" t="s">
+      <c r="E28" s="3">
+        <v>3</v>
+      </c>
+      <c r="F28" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="G28" s="35" t="s">
+      <c r="G28" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="H28" s="35"/>
-      <c r="I28" s="35"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="35"/>
-      <c r="L28" s="35"/>
-      <c r="M28" s="35"/>
-      <c r="N28" s="35"/>
-      <c r="O28" s="35"/>
-      <c r="P28" s="35"/>
-      <c r="Q28" s="35"/>
-      <c r="R28" s="35"/>
-      <c r="S28" s="35"/>
-      <c r="T28" s="35"/>
-      <c r="U28" s="35"/>
-    </row>
-    <row r="29" spans="1:21" s="37" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="35">
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+    </row>
+    <row r="29" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="3">
         <v>26</v>
       </c>
-      <c r="B29" s="35" t="s">
+      <c r="B29" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C29" s="35" t="s">
+      <c r="C29" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D29" s="48" t="s">
+      <c r="D29" s="30" t="s">
         <v>220</v>
       </c>
-      <c r="E29" s="35">
-        <v>3</v>
-      </c>
-      <c r="F29" s="36" t="s">
+      <c r="E29" s="3">
+        <v>3</v>
+      </c>
+      <c r="F29" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="G29" s="35" t="s">
+      <c r="G29" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="H29" s="35"/>
-      <c r="I29" s="35"/>
-      <c r="J29" s="35"/>
-      <c r="K29" s="35"/>
-      <c r="L29" s="35"/>
-      <c r="M29" s="35"/>
-      <c r="N29" s="35"/>
-      <c r="O29" s="35"/>
-      <c r="P29" s="35"/>
-      <c r="Q29" s="35"/>
-      <c r="R29" s="35"/>
-      <c r="S29" s="35"/>
-      <c r="T29" s="35"/>
-      <c r="U29" s="35"/>
-    </row>
-    <row r="30" spans="1:21" s="37" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="35">
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+    </row>
+    <row r="30" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="3">
         <v>27</v>
       </c>
-      <c r="B30" s="35" t="s">
+      <c r="B30" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C30" s="35" t="s">
+      <c r="C30" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D30" s="48" t="s">
+      <c r="D30" s="30" t="s">
         <v>217</v>
       </c>
-      <c r="E30" s="35">
-        <v>3</v>
-      </c>
-      <c r="F30" s="36" t="s">
+      <c r="E30" s="3">
+        <v>3</v>
+      </c>
+      <c r="F30" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="G30" s="35" t="s">
+      <c r="G30" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="H30" s="35"/>
-      <c r="I30" s="35"/>
-      <c r="J30" s="35"/>
-      <c r="K30" s="35"/>
-      <c r="L30" s="35"/>
-      <c r="M30" s="35"/>
-      <c r="N30" s="35"/>
-      <c r="O30" s="35"/>
-      <c r="P30" s="35"/>
-      <c r="Q30" s="35"/>
-      <c r="R30" s="35"/>
-      <c r="S30" s="35"/>
-      <c r="T30" s="35"/>
-      <c r="U30" s="35"/>
-    </row>
-    <row r="31" spans="1:21" s="37" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="35">
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+    </row>
+    <row r="31" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="3">
         <v>28</v>
       </c>
-      <c r="B31" s="35" t="s">
+      <c r="B31" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C31" s="35" t="s">
+      <c r="C31" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D31" s="48" t="s">
+      <c r="D31" s="30" t="s">
         <v>218</v>
       </c>
-      <c r="E31" s="35">
-        <v>3</v>
-      </c>
-      <c r="F31" s="36" t="s">
+      <c r="E31" s="3">
+        <v>3</v>
+      </c>
+      <c r="F31" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="G31" s="35" t="s">
+      <c r="G31" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="H31" s="35"/>
-      <c r="I31" s="35"/>
-      <c r="J31" s="35"/>
-      <c r="K31" s="35"/>
-      <c r="L31" s="35"/>
-      <c r="M31" s="35"/>
-      <c r="N31" s="35"/>
-      <c r="O31" s="35"/>
-      <c r="P31" s="35"/>
-      <c r="Q31" s="35"/>
-      <c r="R31" s="35"/>
-      <c r="S31" s="35"/>
-      <c r="T31" s="35"/>
-      <c r="U31" s="35"/>
-    </row>
-    <row r="32" spans="1:21" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="3"/>
+      <c r="U31" s="3"/>
+    </row>
+    <row r="32" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="11">
         <v>29</v>
       </c>
@@ -14965,7 +14988,7 @@
       <c r="C32" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="D32" s="47"/>
+      <c r="D32" s="29"/>
       <c r="E32" s="11">
         <v>3</v>
       </c>
@@ -14974,21 +14997,21 @@
       </c>
       <c r="G32" s="11"/>
       <c r="H32" s="11"/>
-      <c r="I32" s="35"/>
-      <c r="J32" s="35"/>
-      <c r="K32" s="35"/>
-      <c r="L32" s="35"/>
-      <c r="M32" s="35"/>
-      <c r="N32" s="35"/>
-      <c r="O32" s="35"/>
-      <c r="P32" s="35"/>
-      <c r="Q32" s="35"/>
-      <c r="R32" s="35"/>
-      <c r="S32" s="35"/>
-      <c r="T32" s="35"/>
-      <c r="U32" s="35"/>
-    </row>
-    <row r="33" spans="1:21" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="3"/>
+      <c r="U32" s="3"/>
+    </row>
+    <row r="33" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="11">
         <v>30</v>
       </c>
@@ -14998,7 +15021,7 @@
       <c r="C33" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="D33" s="47"/>
+      <c r="D33" s="29"/>
       <c r="E33" s="11">
         <v>3</v>
       </c>
@@ -15007,21 +15030,21 @@
       </c>
       <c r="G33" s="11"/>
       <c r="H33" s="11"/>
-      <c r="I33" s="35"/>
-      <c r="J33" s="35"/>
-      <c r="K33" s="35"/>
-      <c r="L33" s="35"/>
-      <c r="M33" s="35"/>
-      <c r="N33" s="35"/>
-      <c r="O33" s="35"/>
-      <c r="P33" s="35"/>
-      <c r="Q33" s="35"/>
-      <c r="R33" s="35"/>
-      <c r="S33" s="35"/>
-      <c r="T33" s="35"/>
-      <c r="U33" s="35"/>
-    </row>
-    <row r="34" spans="1:21" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="3"/>
+    </row>
+    <row r="34" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="11">
         <v>31</v>
       </c>
@@ -15031,7 +15054,7 @@
       <c r="C34" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="D34" s="47" t="s">
+      <c r="D34" s="29" t="s">
         <v>219</v>
       </c>
       <c r="E34" s="11">
@@ -15042,21 +15065,21 @@
       </c>
       <c r="G34" s="11"/>
       <c r="H34" s="11"/>
-      <c r="I34" s="35"/>
-      <c r="J34" s="35"/>
-      <c r="K34" s="35"/>
-      <c r="L34" s="35"/>
-      <c r="M34" s="35"/>
-      <c r="N34" s="35"/>
-      <c r="O34" s="35"/>
-      <c r="P34" s="35"/>
-      <c r="Q34" s="35"/>
-      <c r="R34" s="35"/>
-      <c r="S34" s="35"/>
-      <c r="T34" s="35"/>
-      <c r="U34" s="35"/>
-    </row>
-    <row r="35" spans="1:21" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="3"/>
+    </row>
+    <row r="35" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="11">
         <v>32</v>
       </c>
@@ -15066,7 +15089,7 @@
       <c r="C35" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="D35" s="47" t="s">
+      <c r="D35" s="29" t="s">
         <v>217</v>
       </c>
       <c r="E35" s="11">
@@ -15079,21 +15102,21 @@
         <v>93</v>
       </c>
       <c r="H35" s="11"/>
-      <c r="I35" s="35"/>
-      <c r="J35" s="35"/>
-      <c r="K35" s="35"/>
-      <c r="L35" s="35"/>
-      <c r="M35" s="35"/>
-      <c r="N35" s="35"/>
-      <c r="O35" s="35"/>
-      <c r="P35" s="35"/>
-      <c r="Q35" s="35"/>
-      <c r="R35" s="35"/>
-      <c r="S35" s="35"/>
-      <c r="T35" s="35"/>
-      <c r="U35" s="35"/>
-    </row>
-    <row r="36" spans="1:21" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="3"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="3"/>
+      <c r="U35" s="3"/>
+    </row>
+    <row r="36" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="11">
         <v>33</v>
       </c>
@@ -15103,7 +15126,7 @@
       <c r="C36" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="D36" s="47" t="s">
+      <c r="D36" s="29" t="s">
         <v>219</v>
       </c>
       <c r="E36" s="11">
@@ -15116,21 +15139,21 @@
         <v>84</v>
       </c>
       <c r="H36" s="11"/>
-      <c r="I36" s="35"/>
-      <c r="J36" s="35"/>
-      <c r="K36" s="35"/>
-      <c r="L36" s="35"/>
-      <c r="M36" s="35"/>
-      <c r="N36" s="35"/>
-      <c r="O36" s="35"/>
-      <c r="P36" s="35"/>
-      <c r="Q36" s="35"/>
-      <c r="R36" s="35"/>
-      <c r="S36" s="35"/>
-      <c r="T36" s="35"/>
-      <c r="U36" s="35"/>
-    </row>
-    <row r="37" spans="1:21" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="3"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="3"/>
+      <c r="U36" s="3"/>
+    </row>
+    <row r="37" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="11">
         <v>34</v>
       </c>
@@ -15140,7 +15163,7 @@
       <c r="C37" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="D37" s="47"/>
+      <c r="D37" s="29"/>
       <c r="E37" s="11">
         <v>3</v>
       </c>
@@ -15149,21 +15172,21 @@
       </c>
       <c r="G37" s="11"/>
       <c r="H37" s="11"/>
-      <c r="I37" s="35"/>
-      <c r="J37" s="35"/>
-      <c r="K37" s="35"/>
-      <c r="L37" s="35"/>
-      <c r="M37" s="35"/>
-      <c r="N37" s="35"/>
-      <c r="O37" s="35"/>
-      <c r="P37" s="35"/>
-      <c r="Q37" s="35"/>
-      <c r="R37" s="35"/>
-      <c r="S37" s="35"/>
-      <c r="T37" s="35"/>
-      <c r="U37" s="35"/>
-    </row>
-    <row r="38" spans="1:21" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="3"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="3"/>
+      <c r="U37" s="3"/>
+    </row>
+    <row r="38" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="11">
         <v>35</v>
       </c>
@@ -15173,7 +15196,7 @@
       <c r="C38" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="D38" s="47"/>
+      <c r="D38" s="29"/>
       <c r="E38" s="11">
         <v>3</v>
       </c>
@@ -15182,223 +15205,223 @@
       </c>
       <c r="G38" s="11"/>
       <c r="H38" s="11"/>
-      <c r="I38" s="35"/>
-      <c r="J38" s="35"/>
-      <c r="K38" s="35"/>
-      <c r="L38" s="35"/>
-      <c r="M38" s="35"/>
-      <c r="N38" s="35"/>
-      <c r="O38" s="35"/>
-      <c r="P38" s="35"/>
-      <c r="Q38" s="35"/>
-      <c r="R38" s="35"/>
-      <c r="S38" s="35"/>
-      <c r="T38" s="35"/>
-      <c r="U38" s="35"/>
-    </row>
-    <row r="39" spans="1:21" s="37" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="35">
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="3"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="3"/>
+      <c r="U38" s="3"/>
+    </row>
+    <row r="39" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="3">
         <v>36</v>
       </c>
-      <c r="B39" s="35" t="s">
+      <c r="B39" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="C39" s="35" t="s">
+      <c r="C39" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="D39" s="48"/>
-      <c r="E39" s="35">
-        <v>3</v>
-      </c>
-      <c r="F39" s="36" t="s">
+      <c r="D39" s="30"/>
+      <c r="E39" s="3">
+        <v>3</v>
+      </c>
+      <c r="F39" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="G39" s="35"/>
-      <c r="H39" s="35"/>
-      <c r="I39" s="35"/>
-      <c r="J39" s="35"/>
-      <c r="K39" s="35"/>
-      <c r="L39" s="35"/>
-      <c r="M39" s="35"/>
-      <c r="N39" s="35"/>
-      <c r="O39" s="35"/>
-      <c r="P39" s="35"/>
-      <c r="Q39" s="35"/>
-      <c r="R39" s="35"/>
-      <c r="S39" s="35"/>
-      <c r="T39" s="35"/>
-      <c r="U39" s="35"/>
-    </row>
-    <row r="40" spans="1:21" s="37" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="35">
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="3">
         <v>37</v>
       </c>
-      <c r="B40" s="35" t="s">
+      <c r="B40" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C40" s="35" t="s">
+      <c r="C40" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D40" s="48" t="s">
+      <c r="D40" s="30" t="s">
         <v>221</v>
       </c>
-      <c r="E40" s="35">
+      <c r="E40" s="3">
         <v>1</v>
       </c>
-      <c r="F40" s="36" t="s">
+      <c r="F40" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="G40" s="35"/>
-      <c r="H40" s="35"/>
-      <c r="I40" s="35"/>
-      <c r="J40" s="35"/>
-      <c r="K40" s="35"/>
-      <c r="L40" s="35"/>
-      <c r="M40" s="35"/>
-      <c r="N40" s="35"/>
-      <c r="O40" s="35"/>
-      <c r="P40" s="35"/>
-      <c r="Q40" s="35"/>
-      <c r="R40" s="35"/>
-      <c r="S40" s="35"/>
-      <c r="T40" s="35"/>
-      <c r="U40" s="35"/>
-    </row>
-    <row r="41" spans="1:21" s="37" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="35">
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="3">
         <v>38</v>
       </c>
-      <c r="B41" s="35" t="s">
+      <c r="B41" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C41" s="35" t="s">
+      <c r="C41" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="D41" s="48" t="s">
+      <c r="D41" s="30" t="s">
         <v>221</v>
       </c>
-      <c r="E41" s="35">
+      <c r="E41" s="3">
         <v>1</v>
       </c>
-      <c r="F41" s="36" t="s">
+      <c r="F41" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="G41" s="35"/>
-      <c r="H41" s="35"/>
-      <c r="I41" s="35"/>
-      <c r="J41" s="35"/>
-      <c r="K41" s="35"/>
-      <c r="L41" s="35"/>
-      <c r="M41" s="35"/>
-      <c r="N41" s="35"/>
-      <c r="O41" s="35"/>
-      <c r="P41" s="35"/>
-      <c r="Q41" s="35"/>
-      <c r="R41" s="35"/>
-      <c r="S41" s="35"/>
-      <c r="T41" s="35"/>
-      <c r="U41" s="35"/>
-    </row>
-    <row r="42" spans="1:21" s="37" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="35">
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
+      <c r="P41" s="3"/>
+      <c r="Q41" s="3"/>
+      <c r="R41" s="3"/>
+      <c r="S41" s="3"/>
+      <c r="T41" s="3"/>
+      <c r="U41" s="3"/>
+    </row>
+    <row r="42" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="3">
         <v>39</v>
       </c>
-      <c r="B42" s="35" t="s">
+      <c r="B42" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="C42" s="35" t="s">
+      <c r="C42" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="D42" s="48"/>
-      <c r="E42" s="35">
-        <v>3</v>
-      </c>
-      <c r="F42" s="36" t="s">
+      <c r="D42" s="30"/>
+      <c r="E42" s="3">
+        <v>3</v>
+      </c>
+      <c r="F42" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="G42" s="35"/>
-      <c r="H42" s="35"/>
-      <c r="I42" s="35"/>
-      <c r="J42" s="35"/>
-      <c r="K42" s="35"/>
-      <c r="L42" s="35"/>
-      <c r="M42" s="35"/>
-      <c r="N42" s="35"/>
-      <c r="O42" s="35"/>
-      <c r="P42" s="35"/>
-      <c r="Q42" s="35"/>
-      <c r="R42" s="35"/>
-      <c r="S42" s="35"/>
-      <c r="T42" s="35"/>
-      <c r="U42" s="35"/>
-    </row>
-    <row r="43" spans="1:21" s="37" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="35">
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
+      <c r="P42" s="3"/>
+      <c r="Q42" s="3"/>
+      <c r="R42" s="3"/>
+      <c r="S42" s="3"/>
+      <c r="T42" s="3"/>
+      <c r="U42" s="3"/>
+    </row>
+    <row r="43" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="3">
         <v>40</v>
       </c>
-      <c r="B43" s="35" t="s">
+      <c r="B43" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="C43" s="35" t="s">
+      <c r="C43" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="D43" s="48"/>
-      <c r="E43" s="35">
-        <v>3</v>
-      </c>
-      <c r="F43" s="36" t="s">
+      <c r="D43" s="30"/>
+      <c r="E43" s="3">
+        <v>3</v>
+      </c>
+      <c r="F43" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="G43" s="35"/>
-      <c r="H43" s="35"/>
-      <c r="I43" s="35"/>
-      <c r="J43" s="35"/>
-      <c r="K43" s="35"/>
-      <c r="L43" s="35"/>
-      <c r="M43" s="35"/>
-      <c r="N43" s="35"/>
-      <c r="O43" s="35"/>
-      <c r="P43" s="35"/>
-      <c r="Q43" s="35"/>
-      <c r="R43" s="35"/>
-      <c r="S43" s="35"/>
-      <c r="T43" s="35"/>
-      <c r="U43" s="35"/>
-    </row>
-    <row r="44" spans="1:21" s="37" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="35">
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
+      <c r="P43" s="3"/>
+      <c r="Q43" s="3"/>
+      <c r="R43" s="3"/>
+      <c r="S43" s="3"/>
+      <c r="T43" s="3"/>
+      <c r="U43" s="3"/>
+    </row>
+    <row r="44" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="3">
         <v>41</v>
       </c>
-      <c r="B44" s="35" t="s">
+      <c r="B44" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="C44" s="35" t="s">
+      <c r="C44" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="D44" s="48"/>
-      <c r="E44" s="35">
-        <v>3</v>
-      </c>
-      <c r="F44" s="36" t="s">
+      <c r="D44" s="30"/>
+      <c r="E44" s="3">
+        <v>3</v>
+      </c>
+      <c r="F44" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="G44" s="35"/>
-      <c r="H44" s="35"/>
-      <c r="I44" s="35"/>
-      <c r="J44" s="35"/>
-      <c r="K44" s="35"/>
-      <c r="L44" s="35"/>
-      <c r="M44" s="35"/>
-      <c r="N44" s="35"/>
-      <c r="O44" s="35"/>
-      <c r="P44" s="35"/>
-      <c r="Q44" s="35"/>
-      <c r="R44" s="35"/>
-      <c r="S44" s="35"/>
-      <c r="T44" s="35"/>
-      <c r="U44" s="35"/>
-    </row>
-    <row r="45" spans="1:21" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
+      <c r="P44" s="3"/>
+      <c r="Q44" s="3"/>
+      <c r="R44" s="3"/>
+      <c r="S44" s="3"/>
+      <c r="T44" s="3"/>
+      <c r="U44" s="3"/>
+    </row>
+    <row r="45" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A45" s="11">
         <v>42</v>
       </c>
@@ -15408,7 +15431,7 @@
       <c r="C45" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="D45" s="47" t="s">
+      <c r="D45" s="29" t="s">
         <v>221</v>
       </c>
       <c r="E45" s="11">
@@ -15419,173 +15442,173 @@
       </c>
       <c r="G45" s="11"/>
       <c r="H45" s="11"/>
-      <c r="I45" s="35"/>
-      <c r="J45" s="35"/>
-      <c r="K45" s="35"/>
-      <c r="L45" s="35"/>
-      <c r="M45" s="35"/>
-      <c r="N45" s="35"/>
-      <c r="O45" s="35"/>
-      <c r="P45" s="35"/>
-      <c r="Q45" s="35"/>
-      <c r="R45" s="35"/>
-      <c r="S45" s="35"/>
-      <c r="T45" s="35"/>
-      <c r="U45" s="35"/>
-    </row>
-    <row r="46" spans="1:21" s="37" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="35">
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+      <c r="O45" s="3"/>
+      <c r="P45" s="3"/>
+      <c r="Q45" s="3"/>
+      <c r="R45" s="3"/>
+      <c r="S45" s="3"/>
+      <c r="T45" s="3"/>
+      <c r="U45" s="3"/>
+    </row>
+    <row r="46" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="3">
         <v>43</v>
       </c>
-      <c r="B46" s="35" t="s">
+      <c r="B46" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="C46" s="35" t="s">
+      <c r="C46" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="D46" s="48"/>
-      <c r="E46" s="35">
-        <v>3</v>
-      </c>
-      <c r="F46" s="36" t="s">
+      <c r="D46" s="30"/>
+      <c r="E46" s="3">
+        <v>3</v>
+      </c>
+      <c r="F46" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="G46" s="35"/>
-      <c r="H46" s="35"/>
-      <c r="I46" s="35"/>
-      <c r="J46" s="35"/>
-      <c r="K46" s="35"/>
-      <c r="L46" s="35"/>
-      <c r="M46" s="35"/>
-      <c r="N46" s="35"/>
-      <c r="O46" s="35"/>
-      <c r="P46" s="35"/>
-      <c r="Q46" s="35"/>
-      <c r="R46" s="35"/>
-      <c r="S46" s="35"/>
-      <c r="T46" s="35"/>
-      <c r="U46" s="35"/>
-    </row>
-    <row r="47" spans="1:21" s="37" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="35">
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
+      <c r="O46" s="3"/>
+      <c r="P46" s="3"/>
+      <c r="Q46" s="3"/>
+      <c r="R46" s="3"/>
+      <c r="S46" s="3"/>
+      <c r="T46" s="3"/>
+      <c r="U46" s="3"/>
+    </row>
+    <row r="47" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="3">
         <v>44</v>
       </c>
-      <c r="B47" s="35" t="s">
+      <c r="B47" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="C47" s="35" t="s">
+      <c r="C47" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="D47" s="48"/>
-      <c r="E47" s="35">
-        <v>3</v>
-      </c>
-      <c r="F47" s="36" t="s">
+      <c r="D47" s="30"/>
+      <c r="E47" s="3">
+        <v>3</v>
+      </c>
+      <c r="F47" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="G47" s="35"/>
-      <c r="H47" s="35"/>
-      <c r="I47" s="35"/>
-      <c r="J47" s="35"/>
-      <c r="K47" s="35"/>
-      <c r="L47" s="35"/>
-      <c r="M47" s="35"/>
-      <c r="N47" s="35"/>
-      <c r="O47" s="35"/>
-      <c r="P47" s="35"/>
-      <c r="Q47" s="35"/>
-      <c r="R47" s="35"/>
-      <c r="S47" s="35"/>
-      <c r="T47" s="35"/>
-      <c r="U47" s="35"/>
-    </row>
-    <row r="48" spans="1:21" s="37" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="35">
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3"/>
+      <c r="O47" s="3"/>
+      <c r="P47" s="3"/>
+      <c r="Q47" s="3"/>
+      <c r="R47" s="3"/>
+      <c r="S47" s="3"/>
+      <c r="T47" s="3"/>
+      <c r="U47" s="3"/>
+    </row>
+    <row r="48" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="3">
         <v>45</v>
       </c>
-      <c r="B48" s="35" t="s">
+      <c r="B48" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C48" s="35" t="s">
+      <c r="C48" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="D48" s="48" t="s">
+      <c r="D48" s="30" t="s">
         <v>221</v>
       </c>
-      <c r="E48" s="35">
-        <v>3</v>
-      </c>
-      <c r="F48" s="36" t="s">
+      <c r="E48" s="3">
+        <v>3</v>
+      </c>
+      <c r="F48" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="G48" s="35"/>
-      <c r="H48" s="35"/>
-      <c r="I48" s="35"/>
-      <c r="J48" s="35"/>
-      <c r="K48" s="35"/>
-      <c r="L48" s="35"/>
-      <c r="M48" s="35"/>
-      <c r="N48" s="35"/>
-      <c r="O48" s="35"/>
-      <c r="P48" s="35"/>
-      <c r="Q48" s="35"/>
-      <c r="R48" s="35"/>
-      <c r="S48" s="35"/>
-      <c r="T48" s="35"/>
-      <c r="U48" s="35"/>
-    </row>
-    <row r="49" spans="1:21" s="37" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="35">
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
+      <c r="N48" s="3"/>
+      <c r="O48" s="3"/>
+      <c r="P48" s="3"/>
+      <c r="Q48" s="3"/>
+      <c r="R48" s="3"/>
+      <c r="S48" s="3"/>
+      <c r="T48" s="3"/>
+      <c r="U48" s="3"/>
+    </row>
+    <row r="49" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="3">
         <v>46</v>
       </c>
-      <c r="B49" s="35" t="s">
+      <c r="B49" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="C49" s="35" t="s">
+      <c r="C49" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="D49" s="48"/>
-      <c r="E49" s="35">
-        <v>3</v>
-      </c>
-      <c r="F49" s="36" t="s">
+      <c r="D49" s="30"/>
+      <c r="E49" s="3">
+        <v>3</v>
+      </c>
+      <c r="F49" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="G49" s="35"/>
-      <c r="H49" s="35"/>
-      <c r="I49" s="35"/>
-      <c r="J49" s="35"/>
-      <c r="K49" s="35"/>
-      <c r="L49" s="35"/>
-      <c r="M49" s="35"/>
-      <c r="N49" s="35"/>
-      <c r="O49" s="35"/>
-      <c r="P49" s="35"/>
-      <c r="Q49" s="35"/>
-      <c r="R49" s="35"/>
-      <c r="S49" s="35"/>
-      <c r="T49" s="35"/>
-      <c r="U49" s="35"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3"/>
+      <c r="O49" s="3"/>
+      <c r="P49" s="3"/>
+      <c r="Q49" s="3"/>
+      <c r="R49" s="3"/>
+      <c r="S49" s="3"/>
+      <c r="T49" s="3"/>
+      <c r="U49" s="3"/>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.8">
-      <c r="A50" s="49" t="s">
+      <c r="A50" s="43" t="s">
         <v>167</v>
       </c>
-      <c r="B50" s="49"/>
-      <c r="C50" s="49"/>
-      <c r="D50" s="49"/>
-      <c r="E50" s="50">
+      <c r="B50" s="43"/>
+      <c r="C50" s="43"/>
+      <c r="D50" s="43"/>
+      <c r="E50" s="31">
         <f>SUM(E4:E49)</f>
         <v>135</v>
       </c>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.8">
-      <c r="A52" s="26" t="s">
+      <c r="A52" s="35" t="s">
         <v>203</v>
       </c>
-      <c r="B52" s="26"/>
-      <c r="C52" s="26"/>
-      <c r="D52" s="26"/>
+      <c r="B52" s="35"/>
+      <c r="C52" s="35"/>
+      <c r="D52" s="35"/>
       <c r="E52" s="3" t="s">
         <v>172</v>
       </c>
@@ -15594,29 +15617,29 @@
       </c>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.8">
-      <c r="A53" s="41" t="s">
+      <c r="A53" s="36" t="s">
         <v>204</v>
       </c>
-      <c r="B53" s="41"/>
-      <c r="C53" s="41" t="s">
+      <c r="B53" s="36"/>
+      <c r="C53" s="36" t="s">
         <v>205</v>
       </c>
-      <c r="D53" s="44" t="s">
+      <c r="D53" s="26" t="s">
         <v>206</v>
       </c>
       <c r="E53" s="16">
         <f>SUMIF(D4:D49,"กลุ่มวิชาภาษาและการสื่อสาร",E4:E49)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F53" s="16">
         <v>12</v>
       </c>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.8">
-      <c r="A54" s="41"/>
-      <c r="B54" s="41"/>
-      <c r="C54" s="41"/>
-      <c r="D54" s="45" t="s">
+      <c r="A54" s="36"/>
+      <c r="B54" s="36"/>
+      <c r="C54" s="36"/>
+      <c r="D54" s="27" t="s">
         <v>207</v>
       </c>
       <c r="E54" s="16">
@@ -15628,10 +15651,10 @@
       </c>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.8">
-      <c r="A55" s="41"/>
-      <c r="B55" s="41"/>
-      <c r="C55" s="41"/>
-      <c r="D55" s="45" t="s">
+      <c r="A55" s="36"/>
+      <c r="B55" s="36"/>
+      <c r="C55" s="36"/>
+      <c r="D55" s="27" t="s">
         <v>208</v>
       </c>
       <c r="E55" s="16">
@@ -15643,12 +15666,12 @@
       </c>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.8">
-      <c r="A56" s="41"/>
-      <c r="B56" s="41"/>
-      <c r="C56" s="27" t="s">
+      <c r="A56" s="36"/>
+      <c r="B56" s="36"/>
+      <c r="C56" s="38" t="s">
         <v>209</v>
       </c>
-      <c r="D56" s="45" t="s">
+      <c r="D56" s="27" t="s">
         <v>210</v>
       </c>
       <c r="E56" s="16">
@@ -15660,10 +15683,10 @@
       </c>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.8">
-      <c r="A57" s="41"/>
-      <c r="B57" s="41"/>
-      <c r="C57" s="27"/>
-      <c r="D57" s="45" t="s">
+      <c r="A57" s="36"/>
+      <c r="B57" s="36"/>
+      <c r="C57" s="38"/>
+      <c r="D57" s="27" t="s">
         <v>211</v>
       </c>
       <c r="E57" s="16">
@@ -15675,14 +15698,14 @@
       </c>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.8">
-      <c r="A58" s="42" t="s">
+      <c r="A58" s="37" t="s">
         <v>212</v>
       </c>
-      <c r="B58" s="42"/>
-      <c r="C58" s="28" t="s">
+      <c r="B58" s="37"/>
+      <c r="C58" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="D58" s="46" t="s">
+      <c r="D58" s="28" t="s">
         <v>215</v>
       </c>
       <c r="E58" s="17">
@@ -15694,10 +15717,10 @@
       </c>
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.8">
-      <c r="A59" s="42"/>
-      <c r="B59" s="42"/>
-      <c r="C59" s="28"/>
-      <c r="D59" s="46" t="s">
+      <c r="A59" s="37"/>
+      <c r="B59" s="37"/>
+      <c r="C59" s="39"/>
+      <c r="D59" s="28" t="s">
         <v>216</v>
       </c>
       <c r="E59" s="17">
@@ -15709,12 +15732,12 @@
       </c>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.8">
-      <c r="A60" s="42"/>
-      <c r="B60" s="42"/>
-      <c r="C60" s="28" t="s">
+      <c r="A60" s="37"/>
+      <c r="B60" s="37"/>
+      <c r="C60" s="39" t="s">
         <v>214</v>
       </c>
-      <c r="D60" s="46" t="s">
+      <c r="D60" s="28" t="s">
         <v>217</v>
       </c>
       <c r="E60" s="17">
@@ -15726,10 +15749,10 @@
       </c>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.8">
-      <c r="A61" s="42"/>
-      <c r="B61" s="42"/>
-      <c r="C61" s="28"/>
-      <c r="D61" s="46" t="s">
+      <c r="A61" s="37"/>
+      <c r="B61" s="37"/>
+      <c r="C61" s="39"/>
+      <c r="D61" s="28" t="s">
         <v>218</v>
       </c>
       <c r="E61" s="17">
@@ -15741,10 +15764,10 @@
       </c>
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.8">
-      <c r="A62" s="42"/>
-      <c r="B62" s="42"/>
-      <c r="C62" s="28"/>
-      <c r="D62" s="46" t="s">
+      <c r="A62" s="37"/>
+      <c r="B62" s="37"/>
+      <c r="C62" s="39"/>
+      <c r="D62" s="28" t="s">
         <v>219</v>
       </c>
       <c r="E62" s="17">
@@ -15756,10 +15779,10 @@
       </c>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.8">
-      <c r="A63" s="42"/>
-      <c r="B63" s="42"/>
-      <c r="C63" s="28"/>
-      <c r="D63" s="46" t="s">
+      <c r="A63" s="37"/>
+      <c r="B63" s="37"/>
+      <c r="C63" s="39"/>
+      <c r="D63" s="28" t="s">
         <v>220</v>
       </c>
       <c r="E63" s="17">
@@ -15771,10 +15794,10 @@
       </c>
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.8">
-      <c r="A64" s="42"/>
-      <c r="B64" s="42"/>
-      <c r="C64" s="28"/>
-      <c r="D64" s="46" t="s">
+      <c r="A64" s="37"/>
+      <c r="B64" s="37"/>
+      <c r="C64" s="39"/>
+      <c r="D64" s="28" t="s">
         <v>221</v>
       </c>
       <c r="E64" s="17">
@@ -15786,45 +15809,45 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.8">
-      <c r="A65" s="42"/>
-      <c r="B65" s="42"/>
-      <c r="C65" s="28" t="s">
+      <c r="A65" s="37"/>
+      <c r="B65" s="37"/>
+      <c r="C65" s="39" t="s">
         <v>222</v>
       </c>
-      <c r="D65" s="28"/>
+      <c r="D65" s="39"/>
       <c r="E65" s="17">
         <f>SUMIF(D4:D49,"กลุ่มวิชาภาษาและการสื่อสาร",E4:E49)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F65" s="17">
         <v>12</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.8">
-      <c r="A66" s="39" t="s">
+      <c r="A66" s="32" t="s">
         <v>223</v>
       </c>
-      <c r="B66" s="43"/>
-      <c r="C66" s="43"/>
-      <c r="D66" s="40"/>
+      <c r="B66" s="33"/>
+      <c r="C66" s="33"/>
+      <c r="D66" s="34"/>
       <c r="E66" s="18">
         <f>SUMIF(D4:D49,"กลุ่มวิชาภาษาและการสื่อสาร",E4:E49)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F66" s="18">
         <v>6</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.8">
-      <c r="A67" s="32" t="s">
+      <c r="A67" s="40" t="s">
         <v>167</v>
       </c>
-      <c r="B67" s="33"/>
-      <c r="C67" s="33"/>
-      <c r="D67" s="34"/>
+      <c r="B67" s="41"/>
+      <c r="C67" s="41"/>
+      <c r="D67" s="42"/>
       <c r="E67" s="2">
         <f>SUM(E53:E66)</f>
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="F67" s="2">
         <f>SUM(F53:F66)</f>
@@ -15834,11 +15857,7 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="13">
-    <mergeCell ref="A2:U2"/>
-    <mergeCell ref="A58:B65"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="C60:C64"/>
-    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="A1:U1"/>
     <mergeCell ref="A66:D66"/>
     <mergeCell ref="A67:D67"/>
     <mergeCell ref="A50:D50"/>
@@ -15846,7 +15865,11 @@
     <mergeCell ref="A53:B57"/>
     <mergeCell ref="C53:C55"/>
     <mergeCell ref="C56:C57"/>
-    <mergeCell ref="A1:U1"/>
+    <mergeCell ref="A2:U2"/>
+    <mergeCell ref="A58:B65"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="C60:C64"/>
+    <mergeCell ref="C65:D65"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
